--- a/Excel/Formula for AQI-Conc.xlsx
+++ b/Excel/Formula for AQI-Conc.xlsx
@@ -1,16 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10212"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{545B83CC-F582-4C3E-84C9-1037FDE61B84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB5BBA43-9166-C14B-AE84-F132EEF5C753}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14220" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Conc to AQI" sheetId="4" r:id="rId1"/>
     <sheet name="AQI to Conc" sheetId="5" r:id="rId2"/>
     <sheet name="AQI (US)-Conc formulae" sheetId="2" r:id="rId3"/>
+    <sheet name="Conc to AQI (China)" sheetId="6" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="75">
   <si>
     <t>PM2.5</t>
   </si>
@@ -245,13 +246,26 @@
   <si>
     <t>y = 0.991x -0.991(250.5)+301</t>
   </si>
+  <si>
+    <t>Concentration (µg/m3)</t>
+  </si>
+  <si>
+    <t>AQI (China)</t>
+  </si>
+  <si>
+    <t>AQI China (formula calculated)</t>
+  </si>
+  <si>
+    <t>Concentration (µg/m3) - calculated</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="169" formatCode="0.0"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -288,10 +302,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -578,12 +593,12 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="12.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>24</v>
       </c>
@@ -594,7 +609,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>0</v>
       </c>
@@ -606,7 +621,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>0.2</v>
       </c>
@@ -618,7 +633,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>0.5</v>
       </c>
@@ -630,7 +645,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>0.7</v>
       </c>
@@ -642,7 +657,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>1</v>
       </c>
@@ -654,7 +669,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>1.2</v>
       </c>
@@ -666,7 +681,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>1.4</v>
       </c>
@@ -678,7 +693,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>1.7</v>
       </c>
@@ -690,7 +705,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>1.9</v>
       </c>
@@ -702,7 +717,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>2.2000000000000002</v>
       </c>
@@ -714,7 +729,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>2.4</v>
       </c>
@@ -726,7 +741,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>2.6</v>
       </c>
@@ -738,7 +753,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>2.9</v>
       </c>
@@ -750,7 +765,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>3.1</v>
       </c>
@@ -762,7 +777,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>3.4</v>
       </c>
@@ -774,7 +789,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>3.6</v>
       </c>
@@ -786,7 +801,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>3.8</v>
       </c>
@@ -798,7 +813,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>4.0999999999999996</v>
       </c>
@@ -810,7 +825,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>4.3</v>
       </c>
@@ -822,7 +837,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>4.5999999999999996</v>
       </c>
@@ -834,7 +849,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>4.8</v>
       </c>
@@ -846,7 +861,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>5</v>
       </c>
@@ -858,7 +873,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>5.3</v>
       </c>
@@ -870,7 +885,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>5.5</v>
       </c>
@@ -882,7 +897,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>5.8</v>
       </c>
@@ -894,7 +909,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>6</v>
       </c>
@@ -906,7 +921,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>6.2</v>
       </c>
@@ -918,7 +933,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>6.5</v>
       </c>
@@ -930,7 +945,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>6.7</v>
       </c>
@@ -942,7 +957,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>7</v>
       </c>
@@ -954,7 +969,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>7.2</v>
       </c>
@@ -966,7 +981,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>7.4</v>
       </c>
@@ -978,7 +993,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>7.7</v>
       </c>
@@ -990,7 +1005,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>7.9</v>
       </c>
@@ -1002,7 +1017,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>8.1999999999999993</v>
       </c>
@@ -1014,7 +1029,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>8.4</v>
       </c>
@@ -1026,7 +1041,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>8.6</v>
       </c>
@@ -1038,7 +1053,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>8.9</v>
       </c>
@@ -1050,7 +1065,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>9.1</v>
       </c>
@@ -1062,7 +1077,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>9.4</v>
       </c>
@@ -1074,7 +1089,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>9.6</v>
       </c>
@@ -1086,7 +1101,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>9.8000000000000007</v>
       </c>
@@ -1098,7 +1113,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>10.1</v>
       </c>
@@ -1110,7 +1125,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>10.3</v>
       </c>
@@ -1122,7 +1137,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>10.6</v>
       </c>
@@ -1134,7 +1149,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>10.8</v>
       </c>
@@ -1146,7 +1161,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>11</v>
       </c>
@@ -1158,7 +1173,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>11.3</v>
       </c>
@@ -1170,7 +1185,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>11.5</v>
       </c>
@@ -1182,7 +1197,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>11.8</v>
       </c>
@@ -1194,7 +1209,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>12</v>
       </c>
@@ -1206,7 +1221,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>12.1</v>
       </c>
@@ -1218,7 +1233,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>12.6</v>
       </c>
@@ -1230,7 +1245,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>13.1</v>
       </c>
@@ -1242,7 +1257,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>13.5</v>
       </c>
@@ -1254,7 +1269,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>14</v>
       </c>
@@ -1266,7 +1281,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>14.5</v>
       </c>
@@ -1278,7 +1293,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>15</v>
       </c>
@@ -1290,7 +1305,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>15.4</v>
       </c>
@@ -1302,7 +1317,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>15.9</v>
       </c>
@@ -1314,7 +1329,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>16.399999999999999</v>
       </c>
@@ -1326,7 +1341,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>16.899999999999999</v>
       </c>
@@ -1338,7 +1353,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>17.3</v>
       </c>
@@ -1350,7 +1365,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>17.8</v>
       </c>
@@ -1362,7 +1377,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>18.3</v>
       </c>
@@ -1374,7 +1389,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>18.8</v>
       </c>
@@ -1386,7 +1401,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>19.2</v>
       </c>
@@ -1398,7 +1413,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>19.7</v>
       </c>
@@ -1410,7 +1425,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>20.2</v>
       </c>
@@ -1422,7 +1437,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>20.7</v>
       </c>
@@ -1434,7 +1449,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>21.1</v>
       </c>
@@ -1446,7 +1461,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>21.6</v>
       </c>
@@ -1458,7 +1473,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>22.1</v>
       </c>
@@ -1470,7 +1485,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>22.6</v>
       </c>
@@ -1482,7 +1497,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>23</v>
       </c>
@@ -1494,7 +1509,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>23.5</v>
       </c>
@@ -1506,7 +1521,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>24</v>
       </c>
@@ -1518,7 +1533,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>24.5</v>
       </c>
@@ -1530,7 +1545,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>24.9</v>
       </c>
@@ -1542,7 +1557,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>25.4</v>
       </c>
@@ -1554,7 +1569,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>25.9</v>
       </c>
@@ -1566,7 +1581,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>26.4</v>
       </c>
@@ -1578,7 +1593,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>26.8</v>
       </c>
@@ -1590,7 +1605,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>27.3</v>
       </c>
@@ -1602,7 +1617,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>27.8</v>
       </c>
@@ -1614,7 +1629,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>28.3</v>
       </c>
@@ -1626,7 +1641,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>28.7</v>
       </c>
@@ -1638,7 +1653,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>29.2</v>
       </c>
@@ -1650,7 +1665,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>29.7</v>
       </c>
@@ -1662,7 +1677,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>30.2</v>
       </c>
@@ -1674,7 +1689,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>30.6</v>
       </c>
@@ -1686,7 +1701,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>31.1</v>
       </c>
@@ -1698,7 +1713,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>31.6</v>
       </c>
@@ -1710,7 +1725,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>32.1</v>
       </c>
@@ -1722,7 +1737,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>32.5</v>
       </c>
@@ -1734,7 +1749,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>33</v>
       </c>
@@ -1746,7 +1761,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>33.5</v>
       </c>
@@ -1758,7 +1773,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>34</v>
       </c>
@@ -1770,7 +1785,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>34.4</v>
       </c>
@@ -1782,7 +1797,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>34.9</v>
       </c>
@@ -1794,7 +1809,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>35.4</v>
       </c>
@@ -1806,7 +1821,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>35.5</v>
       </c>
@@ -1818,7 +1833,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>35.9</v>
       </c>
@@ -1830,7 +1845,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>36.299999999999997</v>
       </c>
@@ -1842,7 +1857,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>36.700000000000003</v>
       </c>
@@ -1854,7 +1869,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>37.1</v>
       </c>
@@ -1866,7 +1881,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>37.5</v>
       </c>
@@ -1878,7 +1893,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>37.9</v>
       </c>
@@ -1890,7 +1905,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>38.299999999999997</v>
       </c>
@@ -1902,7 +1917,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>38.700000000000003</v>
       </c>
@@ -1914,7 +1929,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>39.200000000000003</v>
       </c>
@@ -1926,7 +1941,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A113">
         <v>39.6</v>
       </c>
@@ -1938,7 +1953,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A114">
         <v>40</v>
       </c>
@@ -1950,7 +1965,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A115">
         <v>40.4</v>
       </c>
@@ -1962,7 +1977,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A116">
         <v>40.799999999999997</v>
       </c>
@@ -1974,7 +1989,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A117">
         <v>41.2</v>
       </c>
@@ -1986,7 +2001,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A118">
         <v>41.6</v>
       </c>
@@ -1998,7 +2013,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A119">
         <v>42</v>
       </c>
@@ -2010,7 +2025,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A120">
         <v>42.4</v>
       </c>
@@ -2022,7 +2037,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A121">
         <v>42.8</v>
       </c>
@@ -2034,7 +2049,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A122">
         <v>43.2</v>
       </c>
@@ -2046,7 +2061,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A123">
         <v>43.6</v>
       </c>
@@ -2058,7 +2073,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A124">
         <v>44</v>
       </c>
@@ -2070,7 +2085,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A125">
         <v>44.4</v>
       </c>
@@ -2082,7 +2097,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A126">
         <v>44.8</v>
       </c>
@@ -2094,7 +2109,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A127">
         <v>45.2</v>
       </c>
@@ -2106,7 +2121,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A128">
         <v>45.7</v>
       </c>
@@ -2118,7 +2133,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A129">
         <v>46.1</v>
       </c>
@@ -2130,7 +2145,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A130">
         <v>46.5</v>
       </c>
@@ -2142,7 +2157,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A131">
         <v>46.9</v>
       </c>
@@ -2154,7 +2169,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A132">
         <v>47.3</v>
       </c>
@@ -2166,7 +2181,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A133">
         <v>47.7</v>
       </c>
@@ -2178,7 +2193,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A134">
         <v>48.1</v>
       </c>
@@ -2190,7 +2205,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A135">
         <v>48.5</v>
       </c>
@@ -2202,7 +2217,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A136">
         <v>48.9</v>
       </c>
@@ -2214,7 +2229,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A137">
         <v>49.3</v>
       </c>
@@ -2226,7 +2241,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A138">
         <v>49.7</v>
       </c>
@@ -2238,7 +2253,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A139">
         <v>50.1</v>
       </c>
@@ -2250,7 +2265,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A140">
         <v>50.5</v>
       </c>
@@ -2262,7 +2277,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A141">
         <v>50.9</v>
       </c>
@@ -2274,7 +2289,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A142">
         <v>51.3</v>
       </c>
@@ -2286,7 +2301,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A143">
         <v>51.7</v>
       </c>
@@ -2298,7 +2313,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A144">
         <v>52.2</v>
       </c>
@@ -2310,7 +2325,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A145">
         <v>52.6</v>
       </c>
@@ -2322,7 +2337,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A146">
         <v>53</v>
       </c>
@@ -2334,7 +2349,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A147">
         <v>53.4</v>
       </c>
@@ -2346,7 +2361,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A148">
         <v>53.8</v>
       </c>
@@ -2358,7 +2373,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A149">
         <v>54.2</v>
       </c>
@@ -2370,7 +2385,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A150">
         <v>54.6</v>
       </c>
@@ -2382,7 +2397,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A151">
         <v>55</v>
       </c>
@@ -2394,7 +2409,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A152">
         <v>55.4</v>
       </c>
@@ -2406,7 +2421,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A153">
         <v>55.5</v>
       </c>
@@ -2418,7 +2433,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A154">
         <v>57.4</v>
       </c>
@@ -2430,7 +2445,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A155">
         <v>59.4</v>
       </c>
@@ -2442,7 +2457,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A156">
         <v>61.3</v>
       </c>
@@ -2454,7 +2469,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A157">
         <v>63.2</v>
       </c>
@@ -2466,7 +2481,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A158">
         <v>65.2</v>
       </c>
@@ -2478,7 +2493,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A159">
         <v>67.099999999999994</v>
       </c>
@@ -2490,7 +2505,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A160">
         <v>69.099999999999994</v>
       </c>
@@ -2502,7 +2517,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A161">
         <v>71</v>
       </c>
@@ -2514,7 +2529,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A162">
         <v>72.900000000000006</v>
       </c>
@@ -2526,7 +2541,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A163">
         <v>74.900000000000006</v>
       </c>
@@ -2538,7 +2553,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A164">
         <v>76.8</v>
       </c>
@@ -2550,7 +2565,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A165">
         <v>78.7</v>
       </c>
@@ -2562,7 +2577,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A166">
         <v>80.7</v>
       </c>
@@ -2574,7 +2589,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A167">
         <v>82.6</v>
       </c>
@@ -2586,7 +2601,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A168">
         <v>84.6</v>
       </c>
@@ -2598,7 +2613,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A169">
         <v>86.5</v>
       </c>
@@ -2610,7 +2625,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A170">
         <v>88.4</v>
       </c>
@@ -2622,7 +2637,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A171">
         <v>90.4</v>
       </c>
@@ -2634,7 +2649,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A172">
         <v>92.3</v>
       </c>
@@ -2646,7 +2661,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A173">
         <v>94.2</v>
       </c>
@@ -2658,7 +2673,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A174">
         <v>96.2</v>
       </c>
@@ -2670,7 +2685,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A175">
         <v>98.1</v>
       </c>
@@ -2682,7 +2697,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A176">
         <v>100</v>
       </c>
@@ -2694,7 +2709,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A177">
         <v>102</v>
       </c>
@@ -2706,7 +2721,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A178">
         <v>103.9</v>
       </c>
@@ -2718,7 +2733,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A179">
         <v>105.9</v>
       </c>
@@ -2730,7 +2745,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A180">
         <v>107.8</v>
       </c>
@@ -2742,7 +2757,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A181">
         <v>109.7</v>
       </c>
@@ -2754,7 +2769,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A182">
         <v>111.7</v>
       </c>
@@ -2766,7 +2781,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A183">
         <v>113.6</v>
       </c>
@@ -2778,7 +2793,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A184">
         <v>115.5</v>
       </c>
@@ -2790,7 +2805,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A185">
         <v>117.5</v>
       </c>
@@ -2802,7 +2817,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A186">
         <v>119.4</v>
       </c>
@@ -2814,7 +2829,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A187">
         <v>121.3</v>
       </c>
@@ -2826,7 +2841,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A188">
         <v>123.3</v>
       </c>
@@ -2838,7 +2853,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A189">
         <v>125.2</v>
       </c>
@@ -2850,7 +2865,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A190">
         <v>127.2</v>
       </c>
@@ -2862,7 +2877,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A191">
         <v>129.1</v>
       </c>
@@ -2874,7 +2889,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A192">
         <v>131</v>
       </c>
@@ -2886,7 +2901,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A193">
         <v>133</v>
       </c>
@@ -2898,7 +2913,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A194">
         <v>134.9</v>
       </c>
@@ -2910,7 +2925,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A195">
         <v>136.80000000000001</v>
       </c>
@@ -2922,7 +2937,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A196">
         <v>138.80000000000001</v>
       </c>
@@ -2934,7 +2949,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A197">
         <v>140.69999999999999</v>
       </c>
@@ -2946,7 +2961,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A198">
         <v>142.69999999999999</v>
       </c>
@@ -2958,7 +2973,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A199">
         <v>144.6</v>
       </c>
@@ -2970,7 +2985,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A200">
         <v>146.5</v>
       </c>
@@ -2982,7 +2997,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A201">
         <v>148.5</v>
       </c>
@@ -2994,7 +3009,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A202">
         <v>150.4</v>
       </c>
@@ -3006,7 +3021,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A203">
         <v>150.5</v>
       </c>
@@ -3018,7 +3033,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A204">
         <v>151.5</v>
       </c>
@@ -3030,7 +3045,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A205">
         <v>152.5</v>
       </c>
@@ -3042,7 +3057,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A206">
         <v>153.5</v>
       </c>
@@ -3054,7 +3069,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A207">
         <v>154.5</v>
       </c>
@@ -3066,7 +3081,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A208">
         <v>155.5</v>
       </c>
@@ -3078,7 +3093,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A209">
         <v>156.6</v>
       </c>
@@ -3090,7 +3105,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A210">
         <v>157.6</v>
       </c>
@@ -3102,7 +3117,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A211">
         <v>158.6</v>
       </c>
@@ -3114,7 +3129,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A212">
         <v>159.6</v>
       </c>
@@ -3126,7 +3141,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A213">
         <v>160.6</v>
       </c>
@@ -3138,7 +3153,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A214">
         <v>161.6</v>
       </c>
@@ -3150,7 +3165,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A215">
         <v>162.6</v>
       </c>
@@ -3162,7 +3177,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A216">
         <v>163.6</v>
       </c>
@@ -3174,7 +3189,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A217">
         <v>164.6</v>
       </c>
@@ -3186,7 +3201,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A218">
         <v>165.6</v>
       </c>
@@ -3198,7 +3213,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A219">
         <v>166.6</v>
       </c>
@@ -3210,7 +3225,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A220">
         <v>167.7</v>
       </c>
@@ -3222,7 +3237,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A221">
         <v>168.7</v>
       </c>
@@ -3234,7 +3249,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A222">
         <v>169.7</v>
       </c>
@@ -3246,7 +3261,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A223">
         <v>170.7</v>
       </c>
@@ -3258,7 +3273,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A224">
         <v>171.7</v>
       </c>
@@ -3270,7 +3285,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A225">
         <v>172.7</v>
       </c>
@@ -3282,7 +3297,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A226">
         <v>173.7</v>
       </c>
@@ -3294,7 +3309,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A227">
         <v>174.7</v>
       </c>
@@ -3306,7 +3321,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A228">
         <v>175.7</v>
       </c>
@@ -3318,7 +3333,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A229">
         <v>176.7</v>
       </c>
@@ -3330,7 +3345,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A230">
         <v>177.7</v>
       </c>
@@ -3342,7 +3357,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A231">
         <v>178.8</v>
       </c>
@@ -3354,7 +3369,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A232">
         <v>179.8</v>
       </c>
@@ -3366,7 +3381,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A233">
         <v>180.8</v>
       </c>
@@ -3378,7 +3393,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A234">
         <v>181.8</v>
       </c>
@@ -3390,7 +3405,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A235">
         <v>182.8</v>
       </c>
@@ -3402,7 +3417,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A236">
         <v>183.8</v>
       </c>
@@ -3414,7 +3429,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A237">
         <v>184.8</v>
       </c>
@@ -3426,7 +3441,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A238">
         <v>185.8</v>
       </c>
@@ -3438,7 +3453,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A239">
         <v>186.8</v>
       </c>
@@ -3450,7 +3465,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A240">
         <v>187.8</v>
       </c>
@@ -3462,7 +3477,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A241">
         <v>188.8</v>
       </c>
@@ -3474,7 +3489,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A242">
         <v>189.9</v>
       </c>
@@ -3486,7 +3501,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A243">
         <v>190.9</v>
       </c>
@@ -3498,7 +3513,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="244" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A244">
         <v>191.9</v>
       </c>
@@ -3510,7 +3525,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="245" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A245">
         <v>192.9</v>
       </c>
@@ -3522,7 +3537,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="246" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A246">
         <v>193.9</v>
       </c>
@@ -3534,7 +3549,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="247" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A247">
         <v>194.9</v>
       </c>
@@ -3546,7 +3561,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="248" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A248">
         <v>195.9</v>
       </c>
@@ -3558,7 +3573,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="249" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A249">
         <v>196.9</v>
       </c>
@@ -3570,7 +3585,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="250" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A250">
         <v>197.9</v>
       </c>
@@ -3582,7 +3597,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="251" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A251">
         <v>198.9</v>
       </c>
@@ -3594,7 +3609,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="252" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A252">
         <v>199.9</v>
       </c>
@@ -3606,7 +3621,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="253" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A253">
         <v>201</v>
       </c>
@@ -3618,7 +3633,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="254" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A254">
         <v>202</v>
       </c>
@@ -3630,7 +3645,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="255" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A255">
         <v>203</v>
       </c>
@@ -3642,7 +3657,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="256" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A256">
         <v>204</v>
       </c>
@@ -3654,7 +3669,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="257" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A257">
         <v>205</v>
       </c>
@@ -3666,7 +3681,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="258" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A258">
         <v>206</v>
       </c>
@@ -3678,7 +3693,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="259" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A259">
         <v>207</v>
       </c>
@@ -3690,7 +3705,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="260" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A260">
         <v>208</v>
       </c>
@@ -3702,7 +3717,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="261" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A261">
         <v>209</v>
       </c>
@@ -3714,7 +3729,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="262" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A262">
         <v>210</v>
       </c>
@@ -3726,7 +3741,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="263" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A263">
         <v>211</v>
       </c>
@@ -3738,7 +3753,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="264" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A264">
         <v>212.1</v>
       </c>
@@ -3750,7 +3765,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="265" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A265">
         <v>213.1</v>
       </c>
@@ -3762,7 +3777,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="266" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A266">
         <v>214.1</v>
       </c>
@@ -3774,7 +3789,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="267" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A267">
         <v>215.1</v>
       </c>
@@ -3786,7 +3801,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="268" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A268">
         <v>216.1</v>
       </c>
@@ -3798,7 +3813,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="269" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A269">
         <v>217.1</v>
       </c>
@@ -3810,7 +3825,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="270" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="270" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A270">
         <v>218.1</v>
       </c>
@@ -3822,7 +3837,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="271" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="271" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A271">
         <v>219.1</v>
       </c>
@@ -3834,7 +3849,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="272" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="272" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A272">
         <v>220.1</v>
       </c>
@@ -3846,7 +3861,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="273" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="273" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A273">
         <v>221.1</v>
       </c>
@@ -3858,7 +3873,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="274" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="274" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A274">
         <v>222.1</v>
       </c>
@@ -3870,7 +3885,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="275" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="275" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A275">
         <v>223.2</v>
       </c>
@@ -3882,7 +3897,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="276" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="276" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A276">
         <v>224.2</v>
       </c>
@@ -3894,7 +3909,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="277" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="277" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A277">
         <v>225.2</v>
       </c>
@@ -3906,7 +3921,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="278" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="278" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A278">
         <v>226.2</v>
       </c>
@@ -3918,7 +3933,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="279" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="279" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A279">
         <v>227.2</v>
       </c>
@@ -3930,7 +3945,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="280" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="280" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A280">
         <v>228.2</v>
       </c>
@@ -3942,7 +3957,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="281" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="281" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A281">
         <v>229.2</v>
       </c>
@@ -3954,7 +3969,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="282" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="282" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A282">
         <v>230.2</v>
       </c>
@@ -3966,7 +3981,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="283" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="283" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A283">
         <v>231.2</v>
       </c>
@@ -3978,7 +3993,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="284" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="284" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A284">
         <v>232.2</v>
       </c>
@@ -3990,7 +4005,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="285" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="285" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A285">
         <v>233.2</v>
       </c>
@@ -4002,7 +4017,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="286" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="286" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A286">
         <v>234.3</v>
       </c>
@@ -4014,7 +4029,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="287" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="287" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A287">
         <v>235.3</v>
       </c>
@@ -4026,7 +4041,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="288" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="288" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A288">
         <v>236.3</v>
       </c>
@@ -4038,7 +4053,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="289" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="289" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A289">
         <v>237.3</v>
       </c>
@@ -4050,7 +4065,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="290" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="290" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A290">
         <v>238.3</v>
       </c>
@@ -4062,7 +4077,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="291" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="291" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A291">
         <v>239.3</v>
       </c>
@@ -4074,7 +4089,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="292" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="292" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A292">
         <v>240.3</v>
       </c>
@@ -4086,7 +4101,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="293" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="293" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A293">
         <v>241.3</v>
       </c>
@@ -4098,7 +4113,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="294" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="294" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A294">
         <v>242.3</v>
       </c>
@@ -4110,7 +4125,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="295" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="295" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A295">
         <v>243.3</v>
       </c>
@@ -4122,7 +4137,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="296" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="296" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A296">
         <v>244.3</v>
       </c>
@@ -4134,7 +4149,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="297" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="297" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A297">
         <v>245.4</v>
       </c>
@@ -4146,7 +4161,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="298" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="298" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A298">
         <v>246.4</v>
       </c>
@@ -4158,7 +4173,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="299" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="299" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A299">
         <v>247.4</v>
       </c>
@@ -4170,7 +4185,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="300" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="300" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A300">
         <v>248.4</v>
       </c>
@@ -4182,7 +4197,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="301" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="301" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A301">
         <v>249.4</v>
       </c>
@@ -4194,7 +4209,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="302" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="302" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A302">
         <v>250.4</v>
       </c>
@@ -4206,7 +4221,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="303" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="303" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A303">
         <v>250.5</v>
       </c>
@@ -4218,7 +4233,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="304" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="304" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A304">
         <v>251.5</v>
       </c>
@@ -4230,7 +4245,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="305" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="305" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A305">
         <v>252.5</v>
       </c>
@@ -4242,7 +4257,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="306" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="306" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A306">
         <v>253.5</v>
       </c>
@@ -4254,7 +4269,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="307" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="307" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A307">
         <v>254.5</v>
       </c>
@@ -4266,7 +4281,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="308" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="308" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A308">
         <v>255.5</v>
       </c>
@@ -4278,7 +4293,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="309" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="309" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A309">
         <v>256.60000000000002</v>
       </c>
@@ -4290,7 +4305,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="310" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="310" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A310">
         <v>257.60000000000002</v>
       </c>
@@ -4302,7 +4317,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="311" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="311" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A311">
         <v>258.60000000000002</v>
       </c>
@@ -4314,7 +4329,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="312" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="312" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A312">
         <v>259.60000000000002</v>
       </c>
@@ -4326,7 +4341,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="313" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="313" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A313">
         <v>260.60000000000002</v>
       </c>
@@ -4338,7 +4353,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="314" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="314" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A314">
         <v>261.60000000000002</v>
       </c>
@@ -4350,7 +4365,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="315" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="315" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A315">
         <v>262.60000000000002</v>
       </c>
@@ -4362,7 +4377,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="316" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="316" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A316">
         <v>263.60000000000002</v>
       </c>
@@ -4374,7 +4389,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="317" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="317" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A317">
         <v>264.60000000000002</v>
       </c>
@@ -4386,7 +4401,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="318" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="318" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A318">
         <v>265.60000000000002</v>
       </c>
@@ -4398,7 +4413,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="319" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="319" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A319">
         <v>266.60000000000002</v>
       </c>
@@ -4410,7 +4425,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="320" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="320" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A320">
         <v>267.7</v>
       </c>
@@ -4422,7 +4437,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="321" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="321" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A321">
         <v>268.7</v>
       </c>
@@ -4434,7 +4449,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="322" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="322" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A322">
         <v>269.7</v>
       </c>
@@ -4446,7 +4461,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="323" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="323" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A323">
         <v>270.7</v>
       </c>
@@ -4458,7 +4473,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="324" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="324" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A324">
         <v>271.7</v>
       </c>
@@ -4470,7 +4485,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="325" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="325" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A325">
         <v>272.7</v>
       </c>
@@ -4482,7 +4497,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="326" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="326" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A326">
         <v>273.7</v>
       </c>
@@ -4494,7 +4509,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="327" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="327" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A327">
         <v>274.7</v>
       </c>
@@ -4506,7 +4521,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="328" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="328" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A328">
         <v>275.7</v>
       </c>
@@ -4518,7 +4533,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="329" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="329" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A329">
         <v>276.7</v>
       </c>
@@ -4530,7 +4545,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="330" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="330" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A330">
         <v>277.7</v>
       </c>
@@ -4542,7 +4557,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="331" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="331" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A331">
         <v>278.8</v>
       </c>
@@ -4554,7 +4569,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="332" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="332" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A332">
         <v>279.8</v>
       </c>
@@ -4566,7 +4581,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="333" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="333" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A333">
         <v>280.8</v>
       </c>
@@ -4578,7 +4593,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="334" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="334" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A334">
         <v>281.8</v>
       </c>
@@ -4590,7 +4605,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="335" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="335" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A335">
         <v>282.8</v>
       </c>
@@ -4602,7 +4617,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="336" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="336" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A336">
         <v>283.8</v>
       </c>
@@ -4614,7 +4629,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="337" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="337" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A337">
         <v>284.8</v>
       </c>
@@ -4626,7 +4641,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="338" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="338" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A338">
         <v>285.8</v>
       </c>
@@ -4638,7 +4653,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="339" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="339" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A339">
         <v>286.8</v>
       </c>
@@ -4650,7 +4665,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="340" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="340" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A340">
         <v>287.8</v>
       </c>
@@ -4662,7 +4677,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="341" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="341" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A341">
         <v>288.8</v>
       </c>
@@ -4674,7 +4689,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="342" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="342" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A342">
         <v>289.89999999999998</v>
       </c>
@@ -4686,7 +4701,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="343" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="343" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A343">
         <v>290.89999999999998</v>
       </c>
@@ -4698,7 +4713,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="344" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="344" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A344">
         <v>291.89999999999998</v>
       </c>
@@ -4710,7 +4725,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="345" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="345" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A345">
         <v>292.89999999999998</v>
       </c>
@@ -4722,7 +4737,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="346" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="346" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A346">
         <v>293.89999999999998</v>
       </c>
@@ -4734,7 +4749,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="347" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="347" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A347">
         <v>294.89999999999998</v>
       </c>
@@ -4746,7 +4761,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="348" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="348" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A348">
         <v>295.89999999999998</v>
       </c>
@@ -4758,7 +4773,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="349" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="349" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A349">
         <v>296.89999999999998</v>
       </c>
@@ -4770,7 +4785,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="350" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="350" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A350">
         <v>297.89999999999998</v>
       </c>
@@ -4782,7 +4797,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="351" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="351" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A351">
         <v>298.89999999999998</v>
       </c>
@@ -4794,7 +4809,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="352" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="352" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A352">
         <v>299.89999999999998</v>
       </c>
@@ -4806,7 +4821,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="353" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="353" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A353">
         <v>301</v>
       </c>
@@ -4818,7 +4833,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="354" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="354" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A354">
         <v>302</v>
       </c>
@@ -4830,7 +4845,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="355" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="355" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A355">
         <v>303</v>
       </c>
@@ -4842,7 +4857,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="356" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="356" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A356">
         <v>304</v>
       </c>
@@ -4854,7 +4869,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="357" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="357" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A357">
         <v>305</v>
       </c>
@@ -4866,7 +4881,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="358" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="358" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A358">
         <v>306</v>
       </c>
@@ -4878,7 +4893,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="359" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="359" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A359">
         <v>307</v>
       </c>
@@ -4890,7 +4905,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="360" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="360" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A360">
         <v>308</v>
       </c>
@@ -4902,7 +4917,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="361" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="361" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A361">
         <v>309</v>
       </c>
@@ -4914,7 +4929,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="362" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="362" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A362">
         <v>310</v>
       </c>
@@ -4926,7 +4941,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="363" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="363" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A363">
         <v>311</v>
       </c>
@@ -4938,7 +4953,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="364" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="364" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A364">
         <v>312.10000000000002</v>
       </c>
@@ -4950,7 +4965,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="365" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="365" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A365">
         <v>313.10000000000002</v>
       </c>
@@ -4962,7 +4977,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="366" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="366" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A366">
         <v>314.10000000000002</v>
       </c>
@@ -4974,7 +4989,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="367" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="367" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A367">
         <v>315.10000000000002</v>
       </c>
@@ -4986,7 +5001,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="368" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="368" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A368">
         <v>316.10000000000002</v>
       </c>
@@ -4998,7 +5013,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="369" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="369" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A369">
         <v>317.10000000000002</v>
       </c>
@@ -5010,7 +5025,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="370" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="370" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A370">
         <v>318.10000000000002</v>
       </c>
@@ -5022,7 +5037,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="371" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="371" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A371">
         <v>319.10000000000002</v>
       </c>
@@ -5034,7 +5049,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="372" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="372" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A372">
         <v>320.10000000000002</v>
       </c>
@@ -5046,7 +5061,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="373" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="373" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A373">
         <v>321.10000000000002</v>
       </c>
@@ -5058,7 +5073,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="374" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="374" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A374">
         <v>322.10000000000002</v>
       </c>
@@ -5070,7 +5085,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="375" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="375" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A375">
         <v>323.2</v>
       </c>
@@ -5082,7 +5097,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="376" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="376" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A376">
         <v>324.2</v>
       </c>
@@ -5094,7 +5109,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="377" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="377" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A377">
         <v>325.2</v>
       </c>
@@ -5106,7 +5121,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="378" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="378" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A378">
         <v>326.2</v>
       </c>
@@ -5118,7 +5133,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="379" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="379" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A379">
         <v>327.2</v>
       </c>
@@ -5130,7 +5145,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="380" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="380" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A380">
         <v>328.2</v>
       </c>
@@ -5142,7 +5157,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="381" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="381" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A381">
         <v>329.2</v>
       </c>
@@ -5154,7 +5169,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="382" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="382" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A382">
         <v>330.2</v>
       </c>
@@ -5166,7 +5181,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="383" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="383" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A383">
         <v>331.2</v>
       </c>
@@ -5178,7 +5193,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="384" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="384" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A384">
         <v>332.2</v>
       </c>
@@ -5190,7 +5205,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="385" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="385" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A385">
         <v>333.2</v>
       </c>
@@ -5202,7 +5217,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="386" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="386" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A386">
         <v>334.3</v>
       </c>
@@ -5214,7 +5229,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="387" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="387" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A387">
         <v>335.3</v>
       </c>
@@ -5226,7 +5241,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="388" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="388" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A388">
         <v>336.3</v>
       </c>
@@ -5238,7 +5253,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="389" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="389" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A389">
         <v>337.3</v>
       </c>
@@ -5250,7 +5265,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="390" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="390" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A390">
         <v>338.3</v>
       </c>
@@ -5262,7 +5277,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="391" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="391" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A391">
         <v>339.3</v>
       </c>
@@ -5274,7 +5289,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="392" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="392" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A392">
         <v>340.3</v>
       </c>
@@ -5286,7 +5301,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="393" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="393" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A393">
         <v>341.3</v>
       </c>
@@ -5298,7 +5313,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="394" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="394" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A394">
         <v>342.3</v>
       </c>
@@ -5310,7 +5325,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="395" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="395" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A395">
         <v>343.3</v>
       </c>
@@ -5322,7 +5337,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="396" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="396" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A396">
         <v>344.3</v>
       </c>
@@ -5334,7 +5349,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="397" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="397" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A397">
         <v>345.4</v>
       </c>
@@ -5346,7 +5361,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="398" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="398" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A398">
         <v>346.4</v>
       </c>
@@ -5358,7 +5373,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="399" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="399" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A399">
         <v>347.4</v>
       </c>
@@ -5370,7 +5385,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="400" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="400" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A400">
         <v>348.4</v>
       </c>
@@ -5382,7 +5397,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="401" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="401" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A401">
         <v>349.4</v>
       </c>
@@ -5394,7 +5409,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="402" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="402" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A402">
         <v>350.4</v>
       </c>
@@ -5406,7 +5421,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="403" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="403" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A403">
         <v>350.5</v>
       </c>
@@ -5418,7 +5433,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="404" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="404" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A404">
         <v>352</v>
       </c>
@@ -5430,7 +5445,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="405" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="405" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A405">
         <v>353.5</v>
       </c>
@@ -5442,7 +5457,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="406" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="406" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A406">
         <v>355</v>
       </c>
@@ -5454,7 +5469,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="407" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="407" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A407">
         <v>356.6</v>
       </c>
@@ -5466,7 +5481,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="408" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="408" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A408">
         <v>358.1</v>
       </c>
@@ -5478,7 +5493,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="409" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="409" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A409">
         <v>359.6</v>
       </c>
@@ -5490,7 +5505,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="410" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="410" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A410">
         <v>361.1</v>
       </c>
@@ -5502,7 +5517,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="411" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="411" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A411">
         <v>362.6</v>
       </c>
@@ -5514,7 +5529,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="412" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="412" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A412">
         <v>364.1</v>
       </c>
@@ -5526,7 +5541,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="413" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="413" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A413">
         <v>365.6</v>
       </c>
@@ -5538,7 +5553,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="414" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="414" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A414">
         <v>367.2</v>
       </c>
@@ -5550,7 +5565,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="415" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="415" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A415">
         <v>368.7</v>
       </c>
@@ -5562,7 +5577,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="416" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="416" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A416">
         <v>370.2</v>
       </c>
@@ -5574,7 +5589,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="417" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="417" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A417">
         <v>371.7</v>
       </c>
@@ -5586,7 +5601,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="418" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="418" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A418">
         <v>373.2</v>
       </c>
@@ -5598,7 +5613,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="419" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="419" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A419">
         <v>374.7</v>
       </c>
@@ -5610,7 +5625,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="420" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="420" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A420">
         <v>376.2</v>
       </c>
@@ -5622,7 +5637,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="421" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="421" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A421">
         <v>377.8</v>
       </c>
@@ -5634,7 +5649,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="422" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="422" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A422">
         <v>379.3</v>
       </c>
@@ -5646,7 +5661,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="423" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="423" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A423">
         <v>380.8</v>
       </c>
@@ -5658,7 +5673,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="424" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="424" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A424">
         <v>382.3</v>
       </c>
@@ -5670,7 +5685,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="425" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="425" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A425">
         <v>383.8</v>
       </c>
@@ -5682,7 +5697,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="426" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="426" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A426">
         <v>385.3</v>
       </c>
@@ -5694,7 +5709,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="427" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="427" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A427">
         <v>386.8</v>
       </c>
@@ -5706,7 +5721,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="428" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="428" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A428">
         <v>388.4</v>
       </c>
@@ -5718,7 +5733,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="429" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="429" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A429">
         <v>389.9</v>
       </c>
@@ -5730,7 +5745,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="430" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="430" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A430">
         <v>391.4</v>
       </c>
@@ -5742,7 +5757,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="431" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="431" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A431">
         <v>392.9</v>
       </c>
@@ -5754,7 +5769,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="432" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="432" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A432">
         <v>394.4</v>
       </c>
@@ -5766,7 +5781,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="433" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="433" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A433">
         <v>395.9</v>
       </c>
@@ -5778,7 +5793,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="434" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="434" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A434">
         <v>397.4</v>
       </c>
@@ -5790,7 +5805,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="435" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="435" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A435">
         <v>399</v>
       </c>
@@ -5802,7 +5817,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="436" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="436" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A436">
         <v>400.5</v>
       </c>
@@ -5814,7 +5829,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="437" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="437" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A437">
         <v>402</v>
       </c>
@@ -5826,7 +5841,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="438" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="438" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A438">
         <v>403.5</v>
       </c>
@@ -5838,7 +5853,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="439" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="439" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A439">
         <v>405</v>
       </c>
@@ -5850,7 +5865,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="440" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="440" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A440">
         <v>406.5</v>
       </c>
@@ -5862,7 +5877,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="441" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="441" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A441">
         <v>408</v>
       </c>
@@ -5874,7 +5889,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="442" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="442" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A442">
         <v>409.6</v>
       </c>
@@ -5886,7 +5901,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="443" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="443" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A443">
         <v>411.1</v>
       </c>
@@ -5898,7 +5913,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="444" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="444" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A444">
         <v>412.6</v>
       </c>
@@ -5910,7 +5925,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="445" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="445" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A445">
         <v>414.1</v>
       </c>
@@ -5922,7 +5937,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="446" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="446" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A446">
         <v>415.6</v>
       </c>
@@ -5934,7 +5949,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="447" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="447" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A447">
         <v>417.1</v>
       </c>
@@ -5946,7 +5961,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="448" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="448" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A448">
         <v>418.6</v>
       </c>
@@ -5958,7 +5973,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="449" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="449" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A449">
         <v>420.2</v>
       </c>
@@ -5970,7 +5985,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="450" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="450" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A450">
         <v>421.7</v>
       </c>
@@ -5982,7 +5997,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="451" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="451" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A451">
         <v>423.2</v>
       </c>
@@ -5994,7 +6009,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="452" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="452" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A452">
         <v>424.7</v>
       </c>
@@ -6006,7 +6021,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="453" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="453" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A453">
         <v>426.2</v>
       </c>
@@ -6018,7 +6033,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="454" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="454" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A454">
         <v>427.7</v>
       </c>
@@ -6030,7 +6045,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="455" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="455" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A455">
         <v>429.2</v>
       </c>
@@ -6042,7 +6057,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="456" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="456" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A456">
         <v>430.7</v>
       </c>
@@ -6054,7 +6069,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="457" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="457" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A457">
         <v>432.3</v>
       </c>
@@ -6066,7 +6081,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="458" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="458" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A458">
         <v>433.8</v>
       </c>
@@ -6078,7 +6093,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="459" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="459" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A459">
         <v>435.3</v>
       </c>
@@ -6090,7 +6105,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="460" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="460" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A460">
         <v>436.8</v>
       </c>
@@ -6102,7 +6117,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="461" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="461" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A461">
         <v>438.3</v>
       </c>
@@ -6114,7 +6129,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="462" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="462" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A462">
         <v>439.8</v>
       </c>
@@ -6126,7 +6141,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="463" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="463" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A463">
         <v>441.3</v>
       </c>
@@ -6138,7 +6153,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="464" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="464" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A464">
         <v>442.9</v>
       </c>
@@ -6150,7 +6165,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="465" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="465" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A465">
         <v>444.4</v>
       </c>
@@ -6162,7 +6177,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="466" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="466" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A466">
         <v>445.9</v>
       </c>
@@ -6174,7 +6189,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="467" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="467" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A467">
         <v>447.4</v>
       </c>
@@ -6186,7 +6201,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="468" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="468" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A468">
         <v>448.9</v>
       </c>
@@ -6198,7 +6213,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="469" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="469" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A469">
         <v>450.4</v>
       </c>
@@ -6210,7 +6225,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="470" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="470" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A470">
         <v>451.9</v>
       </c>
@@ -6222,7 +6237,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="471" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="471" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A471">
         <v>453.5</v>
       </c>
@@ -6234,7 +6249,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="472" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="472" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A472">
         <v>455</v>
       </c>
@@ -6246,7 +6261,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="473" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="473" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A473">
         <v>456.5</v>
       </c>
@@ -6258,7 +6273,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="474" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="474" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A474">
         <v>458</v>
       </c>
@@ -6270,7 +6285,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="475" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="475" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A475">
         <v>459.5</v>
       </c>
@@ -6282,7 +6297,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="476" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="476" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A476">
         <v>461</v>
       </c>
@@ -6294,7 +6309,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="477" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="477" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A477">
         <v>462.5</v>
       </c>
@@ -6306,7 +6321,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="478" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="478" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A478">
         <v>464.1</v>
       </c>
@@ -6318,7 +6333,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="479" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="479" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A479">
         <v>465.6</v>
       </c>
@@ -6330,7 +6345,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="480" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="480" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A480">
         <v>467.1</v>
       </c>
@@ -6342,7 +6357,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="481" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="481" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A481">
         <v>468.6</v>
       </c>
@@ -6354,7 +6369,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="482" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="482" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A482">
         <v>470.1</v>
       </c>
@@ -6366,7 +6381,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="483" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="483" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A483">
         <v>471.6</v>
       </c>
@@ -6378,7 +6393,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="484" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="484" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A484">
         <v>473.1</v>
       </c>
@@ -6390,7 +6405,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="485" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="485" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A485">
         <v>474.7</v>
       </c>
@@ -6402,7 +6417,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="486" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="486" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A486">
         <v>476.2</v>
       </c>
@@ -6414,7 +6429,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="487" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="487" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A487">
         <v>477.7</v>
       </c>
@@ -6426,7 +6441,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="488" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="488" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A488">
         <v>479.2</v>
       </c>
@@ -6438,7 +6453,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="489" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="489" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A489">
         <v>480.7</v>
       </c>
@@ -6450,7 +6465,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="490" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="490" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A490">
         <v>482.2</v>
       </c>
@@ -6462,7 +6477,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="491" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="491" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A491">
         <v>483.7</v>
       </c>
@@ -6474,7 +6489,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="492" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="492" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A492">
         <v>485.3</v>
       </c>
@@ -6486,7 +6501,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="493" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="493" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A493">
         <v>486.8</v>
       </c>
@@ -6498,7 +6513,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="494" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="494" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A494">
         <v>488.3</v>
       </c>
@@ -6510,7 +6525,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="495" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="495" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A495">
         <v>489.8</v>
       </c>
@@ -6522,7 +6537,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="496" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="496" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A496">
         <v>491.3</v>
       </c>
@@ -6534,7 +6549,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="497" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="497" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A497">
         <v>492.8</v>
       </c>
@@ -6546,7 +6561,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="498" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="498" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A498">
         <v>494.3</v>
       </c>
@@ -6558,7 +6573,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="499" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="499" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A499">
         <v>495.9</v>
       </c>
@@ -6570,7 +6585,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="500" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="500" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A500">
         <v>497.4</v>
       </c>
@@ -6582,7 +6597,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="501" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="501" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A501">
         <v>498.9</v>
       </c>
@@ -6594,7 +6609,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="502" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="502" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A502">
         <v>500.4</v>
       </c>
@@ -6619,12 +6634,12 @@
       <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="13.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>27</v>
       </c>
@@ -6635,7 +6650,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>0</v>
       </c>
@@ -6647,7 +6662,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
@@ -6659,7 +6674,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2</v>
       </c>
@@ -6671,7 +6686,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>3</v>
       </c>
@@ -6683,7 +6698,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>4</v>
       </c>
@@ -6695,7 +6710,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>5</v>
       </c>
@@ -6707,7 +6722,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>6</v>
       </c>
@@ -6719,7 +6734,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>7</v>
       </c>
@@ -6731,7 +6746,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>8</v>
       </c>
@@ -6743,7 +6758,7 @@
         <v>1.9</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>9</v>
       </c>
@@ -6755,7 +6770,7 @@
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>10</v>
       </c>
@@ -6767,7 +6782,7 @@
         <v>2.4</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>11</v>
       </c>
@@ -6779,7 +6794,7 @@
         <v>2.6</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>12</v>
       </c>
@@ -6791,7 +6806,7 @@
         <v>2.9</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>13</v>
       </c>
@@ -6803,7 +6818,7 @@
         <v>3.1</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>14</v>
       </c>
@@ -6815,7 +6830,7 @@
         <v>3.4</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>15</v>
       </c>
@@ -6827,7 +6842,7 @@
         <v>3.6</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>16</v>
       </c>
@@ -6839,7 +6854,7 @@
         <v>3.8</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>17</v>
       </c>
@@ -6851,7 +6866,7 @@
         <v>4.0999999999999996</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>18</v>
       </c>
@@ -6863,7 +6878,7 @@
         <v>4.3</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>19</v>
       </c>
@@ -6875,7 +6890,7 @@
         <v>4.5999999999999996</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>20</v>
       </c>
@@ -6887,7 +6902,7 @@
         <v>4.8</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>21</v>
       </c>
@@ -6899,7 +6914,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>22</v>
       </c>
@@ -6911,7 +6926,7 @@
         <v>5.3</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>23</v>
       </c>
@@ -6923,7 +6938,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>24</v>
       </c>
@@ -6935,7 +6950,7 @@
         <v>5.8</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>25</v>
       </c>
@@ -6947,7 +6962,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>26</v>
       </c>
@@ -6959,7 +6974,7 @@
         <v>6.2</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>27</v>
       </c>
@@ -6971,7 +6986,7 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>28</v>
       </c>
@@ -6983,7 +6998,7 @@
         <v>6.7</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>29</v>
       </c>
@@ -6995,7 +7010,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>30</v>
       </c>
@@ -7007,7 +7022,7 @@
         <v>7.2</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>31</v>
       </c>
@@ -7019,7 +7034,7 @@
         <v>7.4</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>32</v>
       </c>
@@ -7031,7 +7046,7 @@
         <v>7.7</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>33</v>
       </c>
@@ -7043,7 +7058,7 @@
         <v>7.9</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>34</v>
       </c>
@@ -7055,7 +7070,7 @@
         <v>8.1999999999999993</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>35</v>
       </c>
@@ -7067,7 +7082,7 @@
         <v>8.4</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>36</v>
       </c>
@@ -7079,7 +7094,7 @@
         <v>8.6</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>37</v>
       </c>
@@ -7091,7 +7106,7 @@
         <v>8.9</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>38</v>
       </c>
@@ -7103,7 +7118,7 @@
         <v>9.1</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>39</v>
       </c>
@@ -7115,7 +7130,7 @@
         <v>9.4</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>40</v>
       </c>
@@ -7127,7 +7142,7 @@
         <v>9.6</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>41</v>
       </c>
@@ -7139,7 +7154,7 @@
         <v>9.8000000000000007</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>42</v>
       </c>
@@ -7151,7 +7166,7 @@
         <v>10.1</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>43</v>
       </c>
@@ -7163,7 +7178,7 @@
         <v>10.3</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>44</v>
       </c>
@@ -7175,7 +7190,7 @@
         <v>10.6</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>45</v>
       </c>
@@ -7187,7 +7202,7 @@
         <v>10.8</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>46</v>
       </c>
@@ -7199,7 +7214,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>47</v>
       </c>
@@ -7211,7 +7226,7 @@
         <v>11.3</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>48</v>
       </c>
@@ -7223,7 +7238,7 @@
         <v>11.5</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>49</v>
       </c>
@@ -7235,7 +7250,7 @@
         <v>11.8</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>50</v>
       </c>
@@ -7247,7 +7262,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>51</v>
       </c>
@@ -7259,7 +7274,7 @@
         <v>12.1</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>52</v>
       </c>
@@ -7271,7 +7286,7 @@
         <v>12.6</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>53</v>
       </c>
@@ -7283,7 +7298,7 @@
         <v>13.1</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>54</v>
       </c>
@@ -7295,7 +7310,7 @@
         <v>13.5</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>55</v>
       </c>
@@ -7307,7 +7322,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>56</v>
       </c>
@@ -7319,7 +7334,7 @@
         <v>14.5</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>57</v>
       </c>
@@ -7331,7 +7346,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>58</v>
       </c>
@@ -7343,7 +7358,7 @@
         <v>15.4</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>59</v>
       </c>
@@ -7355,7 +7370,7 @@
         <v>15.9</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>60</v>
       </c>
@@ -7367,7 +7382,7 @@
         <v>16.399999999999999</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>61</v>
       </c>
@@ -7379,7 +7394,7 @@
         <v>16.899999999999999</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>62</v>
       </c>
@@ -7391,7 +7406,7 @@
         <v>17.3</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>63</v>
       </c>
@@ -7403,7 +7418,7 @@
         <v>17.8</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>64</v>
       </c>
@@ -7415,7 +7430,7 @@
         <v>18.3</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>65</v>
       </c>
@@ -7427,7 +7442,7 @@
         <v>18.8</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>66</v>
       </c>
@@ -7439,7 +7454,7 @@
         <v>19.2</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>67</v>
       </c>
@@ -7451,7 +7466,7 @@
         <v>19.7</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>68</v>
       </c>
@@ -7463,7 +7478,7 @@
         <v>20.2</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>69</v>
       </c>
@@ -7475,7 +7490,7 @@
         <v>20.7</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>70</v>
       </c>
@@ -7487,7 +7502,7 @@
         <v>21.1</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>71</v>
       </c>
@@ -7499,7 +7514,7 @@
         <v>21.6</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>72</v>
       </c>
@@ -7511,7 +7526,7 @@
         <v>22.1</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>73</v>
       </c>
@@ -7523,7 +7538,7 @@
         <v>22.6</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>74</v>
       </c>
@@ -7535,7 +7550,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>75</v>
       </c>
@@ -7547,7 +7562,7 @@
         <v>23.5</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>76</v>
       </c>
@@ -7559,7 +7574,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>77</v>
       </c>
@@ -7571,7 +7586,7 @@
         <v>24.5</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>78</v>
       </c>
@@ -7583,7 +7598,7 @@
         <v>24.9</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>79</v>
       </c>
@@ -7595,7 +7610,7 @@
         <v>25.4</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>80</v>
       </c>
@@ -7607,7 +7622,7 @@
         <v>25.9</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>81</v>
       </c>
@@ -7619,7 +7634,7 @@
         <v>26.4</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>82</v>
       </c>
@@ -7631,7 +7646,7 @@
         <v>26.8</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>83</v>
       </c>
@@ -7643,7 +7658,7 @@
         <v>27.3</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>84</v>
       </c>
@@ -7655,7 +7670,7 @@
         <v>27.8</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>85</v>
       </c>
@@ -7667,7 +7682,7 @@
         <v>28.3</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>86</v>
       </c>
@@ -7679,7 +7694,7 @@
         <v>28.7</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>87</v>
       </c>
@@ -7691,7 +7706,7 @@
         <v>29.2</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>88</v>
       </c>
@@ -7703,7 +7718,7 @@
         <v>29.7</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>89</v>
       </c>
@@ -7715,7 +7730,7 @@
         <v>30.2</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>90</v>
       </c>
@@ -7727,7 +7742,7 @@
         <v>30.6</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>91</v>
       </c>
@@ -7739,7 +7754,7 @@
         <v>31.1</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>92</v>
       </c>
@@ -7751,7 +7766,7 @@
         <v>31.6</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>93</v>
       </c>
@@ -7763,7 +7778,7 @@
         <v>32.1</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>94</v>
       </c>
@@ -7775,7 +7790,7 @@
         <v>32.5</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>95</v>
       </c>
@@ -7787,7 +7802,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>96</v>
       </c>
@@ -7799,7 +7814,7 @@
         <v>33.5</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>97</v>
       </c>
@@ -7811,7 +7826,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>98</v>
       </c>
@@ -7823,7 +7838,7 @@
         <v>34.4</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>99</v>
       </c>
@@ -7835,7 +7850,7 @@
         <v>34.9</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>100</v>
       </c>
@@ -7847,7 +7862,7 @@
         <v>35.4</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>101</v>
       </c>
@@ -7859,7 +7874,7 @@
         <v>35.5</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>102</v>
       </c>
@@ -7871,7 +7886,7 @@
         <v>35.9</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>103</v>
       </c>
@@ -7883,7 +7898,7 @@
         <v>36.299999999999997</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>104</v>
       </c>
@@ -7895,7 +7910,7 @@
         <v>36.700000000000003</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>105</v>
       </c>
@@ -7907,7 +7922,7 @@
         <v>37.1</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>106</v>
       </c>
@@ -7919,7 +7934,7 @@
         <v>37.5</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>107</v>
       </c>
@@ -7931,7 +7946,7 @@
         <v>37.9</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>108</v>
       </c>
@@ -7943,7 +7958,7 @@
         <v>38.299999999999997</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>109</v>
       </c>
@@ -7955,7 +7970,7 @@
         <v>38.700000000000003</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>110</v>
       </c>
@@ -7967,7 +7982,7 @@
         <v>39.200000000000003</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A113">
         <v>111</v>
       </c>
@@ -7979,7 +7994,7 @@
         <v>39.6</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A114">
         <v>112</v>
       </c>
@@ -7991,7 +8006,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A115">
         <v>113</v>
       </c>
@@ -8003,7 +8018,7 @@
         <v>40.4</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A116">
         <v>114</v>
       </c>
@@ -8015,7 +8030,7 @@
         <v>40.799999999999997</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A117">
         <v>115</v>
       </c>
@@ -8027,7 +8042,7 @@
         <v>41.2</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A118">
         <v>116</v>
       </c>
@@ -8039,7 +8054,7 @@
         <v>41.6</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A119">
         <v>117</v>
       </c>
@@ -8051,7 +8066,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A120">
         <v>118</v>
       </c>
@@ -8063,7 +8078,7 @@
         <v>42.4</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A121">
         <v>119</v>
       </c>
@@ -8075,7 +8090,7 @@
         <v>42.8</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A122">
         <v>120</v>
       </c>
@@ -8087,7 +8102,7 @@
         <v>43.2</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A123">
         <v>121</v>
       </c>
@@ -8099,7 +8114,7 @@
         <v>43.6</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A124">
         <v>122</v>
       </c>
@@ -8111,7 +8126,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A125">
         <v>123</v>
       </c>
@@ -8123,7 +8138,7 @@
         <v>44.4</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A126">
         <v>124</v>
       </c>
@@ -8135,7 +8150,7 @@
         <v>44.8</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A127">
         <v>125</v>
       </c>
@@ -8147,7 +8162,7 @@
         <v>45.2</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A128">
         <v>126</v>
       </c>
@@ -8159,7 +8174,7 @@
         <v>45.7</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A129">
         <v>127</v>
       </c>
@@ -8171,7 +8186,7 @@
         <v>46.1</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A130">
         <v>128</v>
       </c>
@@ -8183,7 +8198,7 @@
         <v>46.5</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A131">
         <v>129</v>
       </c>
@@ -8195,7 +8210,7 @@
         <v>46.9</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A132">
         <v>130</v>
       </c>
@@ -8207,7 +8222,7 @@
         <v>47.3</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A133">
         <v>131</v>
       </c>
@@ -8219,7 +8234,7 @@
         <v>47.7</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A134">
         <v>132</v>
       </c>
@@ -8231,7 +8246,7 @@
         <v>48.1</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A135">
         <v>133</v>
       </c>
@@ -8243,7 +8258,7 @@
         <v>48.5</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A136">
         <v>134</v>
       </c>
@@ -8255,7 +8270,7 @@
         <v>48.9</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A137">
         <v>135</v>
       </c>
@@ -8267,7 +8282,7 @@
         <v>49.3</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A138">
         <v>136</v>
       </c>
@@ -8279,7 +8294,7 @@
         <v>49.7</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A139">
         <v>137</v>
       </c>
@@ -8291,7 +8306,7 @@
         <v>50.1</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A140">
         <v>138</v>
       </c>
@@ -8303,7 +8318,7 @@
         <v>50.5</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A141">
         <v>139</v>
       </c>
@@ -8315,7 +8330,7 @@
         <v>50.9</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A142">
         <v>140</v>
       </c>
@@ -8327,7 +8342,7 @@
         <v>51.3</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A143">
         <v>141</v>
       </c>
@@ -8339,7 +8354,7 @@
         <v>51.7</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A144">
         <v>142</v>
       </c>
@@ -8351,7 +8366,7 @@
         <v>52.2</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A145">
         <v>143</v>
       </c>
@@ -8363,7 +8378,7 @@
         <v>52.6</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A146">
         <v>144</v>
       </c>
@@ -8375,7 +8390,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A147">
         <v>145</v>
       </c>
@@ -8387,7 +8402,7 @@
         <v>53.4</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A148">
         <v>146</v>
       </c>
@@ -8399,7 +8414,7 @@
         <v>53.8</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A149">
         <v>147</v>
       </c>
@@ -8411,7 +8426,7 @@
         <v>54.2</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A150">
         <v>148</v>
       </c>
@@ -8423,7 +8438,7 @@
         <v>54.6</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A151">
         <v>149</v>
       </c>
@@ -8435,7 +8450,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A152">
         <v>150</v>
       </c>
@@ -8447,7 +8462,7 @@
         <v>55.4</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A153">
         <v>151</v>
       </c>
@@ -8459,7 +8474,7 @@
         <v>55.5</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A154">
         <v>152</v>
       </c>
@@ -8471,7 +8486,7 @@
         <v>57.4</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A155">
         <v>153</v>
       </c>
@@ -8483,7 +8498,7 @@
         <v>59.4</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A156">
         <v>154</v>
       </c>
@@ -8495,7 +8510,7 @@
         <v>61.3</v>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A157">
         <v>155</v>
       </c>
@@ -8507,7 +8522,7 @@
         <v>63.2</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A158">
         <v>156</v>
       </c>
@@ -8519,7 +8534,7 @@
         <v>65.2</v>
       </c>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A159">
         <v>157</v>
       </c>
@@ -8531,7 +8546,7 @@
         <v>67.099999999999994</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A160">
         <v>158</v>
       </c>
@@ -8543,7 +8558,7 @@
         <v>69.099999999999994</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A161">
         <v>159</v>
       </c>
@@ -8555,7 +8570,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A162">
         <v>160</v>
       </c>
@@ -8567,7 +8582,7 @@
         <v>72.900000000000006</v>
       </c>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A163">
         <v>161</v>
       </c>
@@ -8579,7 +8594,7 @@
         <v>74.900000000000006</v>
       </c>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A164">
         <v>162</v>
       </c>
@@ -8591,7 +8606,7 @@
         <v>76.8</v>
       </c>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A165">
         <v>163</v>
       </c>
@@ -8603,7 +8618,7 @@
         <v>78.7</v>
       </c>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A166">
         <v>164</v>
       </c>
@@ -8615,7 +8630,7 @@
         <v>80.7</v>
       </c>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A167">
         <v>165</v>
       </c>
@@ -8627,7 +8642,7 @@
         <v>82.6</v>
       </c>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A168">
         <v>166</v>
       </c>
@@ -8639,7 +8654,7 @@
         <v>84.6</v>
       </c>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A169">
         <v>167</v>
       </c>
@@ -8651,7 +8666,7 @@
         <v>86.5</v>
       </c>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A170">
         <v>168</v>
       </c>
@@ -8663,7 +8678,7 @@
         <v>88.4</v>
       </c>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A171">
         <v>169</v>
       </c>
@@ -8675,7 +8690,7 @@
         <v>90.4</v>
       </c>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A172">
         <v>170</v>
       </c>
@@ -8687,7 +8702,7 @@
         <v>92.3</v>
       </c>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A173">
         <v>171</v>
       </c>
@@ -8699,7 +8714,7 @@
         <v>94.2</v>
       </c>
     </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A174">
         <v>172</v>
       </c>
@@ -8711,7 +8726,7 @@
         <v>96.2</v>
       </c>
     </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A175">
         <v>173</v>
       </c>
@@ -8723,7 +8738,7 @@
         <v>98.1</v>
       </c>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A176">
         <v>174</v>
       </c>
@@ -8735,7 +8750,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A177">
         <v>175</v>
       </c>
@@ -8747,7 +8762,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A178">
         <v>176</v>
       </c>
@@ -8759,7 +8774,7 @@
         <v>103.9</v>
       </c>
     </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A179">
         <v>177</v>
       </c>
@@ -8771,7 +8786,7 @@
         <v>105.9</v>
       </c>
     </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A180">
         <v>178</v>
       </c>
@@ -8783,7 +8798,7 @@
         <v>107.8</v>
       </c>
     </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A181">
         <v>179</v>
       </c>
@@ -8795,7 +8810,7 @@
         <v>109.7</v>
       </c>
     </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A182">
         <v>180</v>
       </c>
@@ -8807,7 +8822,7 @@
         <v>111.7</v>
       </c>
     </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A183">
         <v>181</v>
       </c>
@@ -8819,7 +8834,7 @@
         <v>113.6</v>
       </c>
     </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A184">
         <v>182</v>
       </c>
@@ -8831,7 +8846,7 @@
         <v>115.5</v>
       </c>
     </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A185">
         <v>183</v>
       </c>
@@ -8843,7 +8858,7 @@
         <v>117.5</v>
       </c>
     </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A186">
         <v>184</v>
       </c>
@@ -8855,7 +8870,7 @@
         <v>119.4</v>
       </c>
     </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A187">
         <v>185</v>
       </c>
@@ -8867,7 +8882,7 @@
         <v>121.3</v>
       </c>
     </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A188">
         <v>186</v>
       </c>
@@ -8879,7 +8894,7 @@
         <v>123.3</v>
       </c>
     </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A189">
         <v>187</v>
       </c>
@@ -8891,7 +8906,7 @@
         <v>125.2</v>
       </c>
     </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A190">
         <v>188</v>
       </c>
@@ -8903,7 +8918,7 @@
         <v>127.2</v>
       </c>
     </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A191">
         <v>189</v>
       </c>
@@ -8915,7 +8930,7 @@
         <v>129.1</v>
       </c>
     </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A192">
         <v>190</v>
       </c>
@@ -8927,7 +8942,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A193">
         <v>191</v>
       </c>
@@ -8939,7 +8954,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A194">
         <v>192</v>
       </c>
@@ -8951,7 +8966,7 @@
         <v>134.9</v>
       </c>
     </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A195">
         <v>193</v>
       </c>
@@ -8963,7 +8978,7 @@
         <v>136.80000000000001</v>
       </c>
     </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A196">
         <v>194</v>
       </c>
@@ -8975,7 +8990,7 @@
         <v>138.80000000000001</v>
       </c>
     </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A197">
         <v>195</v>
       </c>
@@ -8987,7 +9002,7 @@
         <v>140.69999999999999</v>
       </c>
     </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A198">
         <v>196</v>
       </c>
@@ -8999,7 +9014,7 @@
         <v>142.69999999999999</v>
       </c>
     </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A199">
         <v>197</v>
       </c>
@@ -9011,7 +9026,7 @@
         <v>144.6</v>
       </c>
     </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A200">
         <v>198</v>
       </c>
@@ -9023,7 +9038,7 @@
         <v>146.5</v>
       </c>
     </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A201">
         <v>199</v>
       </c>
@@ -9035,7 +9050,7 @@
         <v>148.5</v>
       </c>
     </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A202">
         <v>200</v>
       </c>
@@ -9047,7 +9062,7 @@
         <v>150.4</v>
       </c>
     </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A203">
         <v>201</v>
       </c>
@@ -9059,7 +9074,7 @@
         <v>150.5</v>
       </c>
     </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A204">
         <v>202</v>
       </c>
@@ -9071,7 +9086,7 @@
         <v>151.5</v>
       </c>
     </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A205">
         <v>203</v>
       </c>
@@ -9083,7 +9098,7 @@
         <v>152.5</v>
       </c>
     </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A206">
         <v>204</v>
       </c>
@@ -9095,7 +9110,7 @@
         <v>153.5</v>
       </c>
     </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A207">
         <v>205</v>
       </c>
@@ -9107,7 +9122,7 @@
         <v>154.5</v>
       </c>
     </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A208">
         <v>206</v>
       </c>
@@ -9119,7 +9134,7 @@
         <v>155.5</v>
       </c>
     </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A209">
         <v>207</v>
       </c>
@@ -9131,7 +9146,7 @@
         <v>156.6</v>
       </c>
     </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A210">
         <v>208</v>
       </c>
@@ -9143,7 +9158,7 @@
         <v>157.6</v>
       </c>
     </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A211">
         <v>209</v>
       </c>
@@ -9155,7 +9170,7 @@
         <v>158.6</v>
       </c>
     </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A212">
         <v>210</v>
       </c>
@@ -9167,7 +9182,7 @@
         <v>159.6</v>
       </c>
     </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A213">
         <v>211</v>
       </c>
@@ -9179,7 +9194,7 @@
         <v>160.6</v>
       </c>
     </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A214">
         <v>212</v>
       </c>
@@ -9191,7 +9206,7 @@
         <v>161.6</v>
       </c>
     </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A215">
         <v>213</v>
       </c>
@@ -9203,7 +9218,7 @@
         <v>162.6</v>
       </c>
     </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A216">
         <v>214</v>
       </c>
@@ -9215,7 +9230,7 @@
         <v>163.6</v>
       </c>
     </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A217">
         <v>215</v>
       </c>
@@ -9227,7 +9242,7 @@
         <v>164.6</v>
       </c>
     </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A218">
         <v>216</v>
       </c>
@@ -9239,7 +9254,7 @@
         <v>165.6</v>
       </c>
     </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A219">
         <v>217</v>
       </c>
@@ -9251,7 +9266,7 @@
         <v>166.6</v>
       </c>
     </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A220">
         <v>218</v>
       </c>
@@ -9263,7 +9278,7 @@
         <v>167.7</v>
       </c>
     </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A221">
         <v>219</v>
       </c>
@@ -9275,7 +9290,7 @@
         <v>168.7</v>
       </c>
     </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A222">
         <v>220</v>
       </c>
@@ -9287,7 +9302,7 @@
         <v>169.7</v>
       </c>
     </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A223">
         <v>221</v>
       </c>
@@ -9299,7 +9314,7 @@
         <v>170.7</v>
       </c>
     </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A224">
         <v>222</v>
       </c>
@@ -9311,7 +9326,7 @@
         <v>171.7</v>
       </c>
     </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A225">
         <v>223</v>
       </c>
@@ -9323,7 +9338,7 @@
         <v>172.7</v>
       </c>
     </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A226">
         <v>224</v>
       </c>
@@ -9335,7 +9350,7 @@
         <v>173.7</v>
       </c>
     </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A227">
         <v>225</v>
       </c>
@@ -9347,7 +9362,7 @@
         <v>174.7</v>
       </c>
     </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A228">
         <v>226</v>
       </c>
@@ -9359,7 +9374,7 @@
         <v>175.7</v>
       </c>
     </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A229">
         <v>227</v>
       </c>
@@ -9371,7 +9386,7 @@
         <v>176.7</v>
       </c>
     </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A230">
         <v>228</v>
       </c>
@@ -9383,7 +9398,7 @@
         <v>177.7</v>
       </c>
     </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A231">
         <v>229</v>
       </c>
@@ -9395,7 +9410,7 @@
         <v>178.8</v>
       </c>
     </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A232">
         <v>230</v>
       </c>
@@ -9407,7 +9422,7 @@
         <v>179.8</v>
       </c>
     </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A233">
         <v>231</v>
       </c>
@@ -9419,7 +9434,7 @@
         <v>180.8</v>
       </c>
     </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A234">
         <v>232</v>
       </c>
@@ -9431,7 +9446,7 @@
         <v>181.8</v>
       </c>
     </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A235">
         <v>233</v>
       </c>
@@ -9443,7 +9458,7 @@
         <v>182.8</v>
       </c>
     </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A236">
         <v>234</v>
       </c>
@@ -9455,7 +9470,7 @@
         <v>183.8</v>
       </c>
     </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A237">
         <v>235</v>
       </c>
@@ -9467,7 +9482,7 @@
         <v>184.8</v>
       </c>
     </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A238">
         <v>236</v>
       </c>
@@ -9479,7 +9494,7 @@
         <v>185.8</v>
       </c>
     </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A239">
         <v>237</v>
       </c>
@@ -9491,7 +9506,7 @@
         <v>186.8</v>
       </c>
     </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A240">
         <v>238</v>
       </c>
@@ -9503,7 +9518,7 @@
         <v>187.8</v>
       </c>
     </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A241">
         <v>239</v>
       </c>
@@ -9515,7 +9530,7 @@
         <v>188.8</v>
       </c>
     </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A242">
         <v>240</v>
       </c>
@@ -9527,7 +9542,7 @@
         <v>189.9</v>
       </c>
     </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A243">
         <v>241</v>
       </c>
@@ -9539,7 +9554,7 @@
         <v>190.9</v>
       </c>
     </row>
-    <row r="244" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A244">
         <v>242</v>
       </c>
@@ -9551,7 +9566,7 @@
         <v>191.9</v>
       </c>
     </row>
-    <row r="245" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A245">
         <v>243</v>
       </c>
@@ -9563,7 +9578,7 @@
         <v>192.9</v>
       </c>
     </row>
-    <row r="246" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A246">
         <v>244</v>
       </c>
@@ -9575,7 +9590,7 @@
         <v>193.9</v>
       </c>
     </row>
-    <row r="247" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A247">
         <v>245</v>
       </c>
@@ -9587,7 +9602,7 @@
         <v>194.9</v>
       </c>
     </row>
-    <row r="248" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A248">
         <v>246</v>
       </c>
@@ -9599,7 +9614,7 @@
         <v>195.9</v>
       </c>
     </row>
-    <row r="249" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A249">
         <v>247</v>
       </c>
@@ -9611,7 +9626,7 @@
         <v>196.9</v>
       </c>
     </row>
-    <row r="250" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A250">
         <v>248</v>
       </c>
@@ -9623,7 +9638,7 @@
         <v>197.9</v>
       </c>
     </row>
-    <row r="251" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A251">
         <v>249</v>
       </c>
@@ -9635,7 +9650,7 @@
         <v>198.9</v>
       </c>
     </row>
-    <row r="252" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A252">
         <v>250</v>
       </c>
@@ -9647,7 +9662,7 @@
         <v>199.9</v>
       </c>
     </row>
-    <row r="253" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A253">
         <v>251</v>
       </c>
@@ -9659,7 +9674,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="254" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A254">
         <v>252</v>
       </c>
@@ -9671,7 +9686,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="255" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A255">
         <v>253</v>
       </c>
@@ -9683,7 +9698,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="256" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A256">
         <v>254</v>
       </c>
@@ -9695,7 +9710,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="257" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A257">
         <v>255</v>
       </c>
@@ -9707,7 +9722,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="258" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A258">
         <v>256</v>
       </c>
@@ -9719,7 +9734,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="259" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A259">
         <v>257</v>
       </c>
@@ -9731,7 +9746,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="260" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A260">
         <v>258</v>
       </c>
@@ -9743,7 +9758,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="261" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A261">
         <v>259</v>
       </c>
@@ -9755,7 +9770,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="262" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A262">
         <v>260</v>
       </c>
@@ -9767,7 +9782,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="263" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A263">
         <v>261</v>
       </c>
@@ -9779,7 +9794,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="264" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A264">
         <v>262</v>
       </c>
@@ -9791,7 +9806,7 @@
         <v>212.1</v>
       </c>
     </row>
-    <row r="265" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A265">
         <v>263</v>
       </c>
@@ -9803,7 +9818,7 @@
         <v>213.1</v>
       </c>
     </row>
-    <row r="266" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A266">
         <v>264</v>
       </c>
@@ -9815,7 +9830,7 @@
         <v>214.1</v>
       </c>
     </row>
-    <row r="267" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A267">
         <v>265</v>
       </c>
@@ -9827,7 +9842,7 @@
         <v>215.1</v>
       </c>
     </row>
-    <row r="268" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A268">
         <v>266</v>
       </c>
@@ -9839,7 +9854,7 @@
         <v>216.1</v>
       </c>
     </row>
-    <row r="269" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A269">
         <v>267</v>
       </c>
@@ -9851,7 +9866,7 @@
         <v>217.1</v>
       </c>
     </row>
-    <row r="270" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="270" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A270">
         <v>268</v>
       </c>
@@ -9863,7 +9878,7 @@
         <v>218.1</v>
       </c>
     </row>
-    <row r="271" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="271" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A271">
         <v>269</v>
       </c>
@@ -9875,7 +9890,7 @@
         <v>219.1</v>
       </c>
     </row>
-    <row r="272" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="272" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A272">
         <v>270</v>
       </c>
@@ -9887,7 +9902,7 @@
         <v>220.1</v>
       </c>
     </row>
-    <row r="273" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="273" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A273">
         <v>271</v>
       </c>
@@ -9899,7 +9914,7 @@
         <v>221.1</v>
       </c>
     </row>
-    <row r="274" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="274" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A274">
         <v>272</v>
       </c>
@@ -9911,7 +9926,7 @@
         <v>222.1</v>
       </c>
     </row>
-    <row r="275" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="275" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A275">
         <v>273</v>
       </c>
@@ -9923,7 +9938,7 @@
         <v>223.2</v>
       </c>
     </row>
-    <row r="276" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="276" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A276">
         <v>274</v>
       </c>
@@ -9935,7 +9950,7 @@
         <v>224.2</v>
       </c>
     </row>
-    <row r="277" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="277" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A277">
         <v>275</v>
       </c>
@@ -9947,7 +9962,7 @@
         <v>225.2</v>
       </c>
     </row>
-    <row r="278" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="278" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A278">
         <v>276</v>
       </c>
@@ -9959,7 +9974,7 @@
         <v>226.2</v>
       </c>
     </row>
-    <row r="279" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="279" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A279">
         <v>277</v>
       </c>
@@ -9971,7 +9986,7 @@
         <v>227.2</v>
       </c>
     </row>
-    <row r="280" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="280" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A280">
         <v>278</v>
       </c>
@@ -9983,7 +9998,7 @@
         <v>228.2</v>
       </c>
     </row>
-    <row r="281" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="281" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A281">
         <v>279</v>
       </c>
@@ -9995,7 +10010,7 @@
         <v>229.2</v>
       </c>
     </row>
-    <row r="282" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="282" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A282">
         <v>280</v>
       </c>
@@ -10007,7 +10022,7 @@
         <v>230.2</v>
       </c>
     </row>
-    <row r="283" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="283" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A283">
         <v>281</v>
       </c>
@@ -10019,7 +10034,7 @@
         <v>231.2</v>
       </c>
     </row>
-    <row r="284" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="284" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A284">
         <v>282</v>
       </c>
@@ -10031,7 +10046,7 @@
         <v>232.2</v>
       </c>
     </row>
-    <row r="285" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="285" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A285">
         <v>283</v>
       </c>
@@ -10043,7 +10058,7 @@
         <v>233.2</v>
       </c>
     </row>
-    <row r="286" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="286" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A286">
         <v>284</v>
       </c>
@@ -10055,7 +10070,7 @@
         <v>234.3</v>
       </c>
     </row>
-    <row r="287" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="287" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A287">
         <v>285</v>
       </c>
@@ -10067,7 +10082,7 @@
         <v>235.3</v>
       </c>
     </row>
-    <row r="288" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="288" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A288">
         <v>286</v>
       </c>
@@ -10079,7 +10094,7 @@
         <v>236.3</v>
       </c>
     </row>
-    <row r="289" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="289" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A289">
         <v>287</v>
       </c>
@@ -10091,7 +10106,7 @@
         <v>237.3</v>
       </c>
     </row>
-    <row r="290" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="290" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A290">
         <v>288</v>
       </c>
@@ -10103,7 +10118,7 @@
         <v>238.3</v>
       </c>
     </row>
-    <row r="291" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="291" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A291">
         <v>289</v>
       </c>
@@ -10115,7 +10130,7 @@
         <v>239.3</v>
       </c>
     </row>
-    <row r="292" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="292" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A292">
         <v>290</v>
       </c>
@@ -10127,7 +10142,7 @@
         <v>240.3</v>
       </c>
     </row>
-    <row r="293" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="293" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A293">
         <v>291</v>
       </c>
@@ -10139,7 +10154,7 @@
         <v>241.3</v>
       </c>
     </row>
-    <row r="294" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="294" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A294">
         <v>292</v>
       </c>
@@ -10151,7 +10166,7 @@
         <v>242.3</v>
       </c>
     </row>
-    <row r="295" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="295" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A295">
         <v>293</v>
       </c>
@@ -10163,7 +10178,7 @@
         <v>243.3</v>
       </c>
     </row>
-    <row r="296" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="296" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A296">
         <v>294</v>
       </c>
@@ -10175,7 +10190,7 @@
         <v>244.3</v>
       </c>
     </row>
-    <row r="297" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="297" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A297">
         <v>295</v>
       </c>
@@ -10187,7 +10202,7 @@
         <v>245.4</v>
       </c>
     </row>
-    <row r="298" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="298" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A298">
         <v>296</v>
       </c>
@@ -10199,7 +10214,7 @@
         <v>246.4</v>
       </c>
     </row>
-    <row r="299" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="299" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A299">
         <v>297</v>
       </c>
@@ -10211,7 +10226,7 @@
         <v>247.4</v>
       </c>
     </row>
-    <row r="300" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="300" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A300">
         <v>298</v>
       </c>
@@ -10223,7 +10238,7 @@
         <v>248.4</v>
       </c>
     </row>
-    <row r="301" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="301" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A301">
         <v>299</v>
       </c>
@@ -10235,7 +10250,7 @@
         <v>249.4</v>
       </c>
     </row>
-    <row r="302" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="302" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A302">
         <v>300</v>
       </c>
@@ -10247,7 +10262,7 @@
         <v>250.4</v>
       </c>
     </row>
-    <row r="303" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="303" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A303">
         <v>301</v>
       </c>
@@ -10259,7 +10274,7 @@
         <v>250.5</v>
       </c>
     </row>
-    <row r="304" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="304" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A304">
         <v>302</v>
       </c>
@@ -10271,7 +10286,7 @@
         <v>251.5</v>
       </c>
     </row>
-    <row r="305" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="305" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A305">
         <v>303</v>
       </c>
@@ -10283,7 +10298,7 @@
         <v>252.5</v>
       </c>
     </row>
-    <row r="306" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="306" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A306">
         <v>304</v>
       </c>
@@ -10295,7 +10310,7 @@
         <v>253.5</v>
       </c>
     </row>
-    <row r="307" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="307" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A307">
         <v>305</v>
       </c>
@@ -10307,7 +10322,7 @@
         <v>254.5</v>
       </c>
     </row>
-    <row r="308" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="308" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A308">
         <v>306</v>
       </c>
@@ -10319,7 +10334,7 @@
         <v>255.5</v>
       </c>
     </row>
-    <row r="309" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="309" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A309">
         <v>307</v>
       </c>
@@ -10331,7 +10346,7 @@
         <v>256.60000000000002</v>
       </c>
     </row>
-    <row r="310" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="310" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A310">
         <v>308</v>
       </c>
@@ -10343,7 +10358,7 @@
         <v>257.60000000000002</v>
       </c>
     </row>
-    <row r="311" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="311" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A311">
         <v>309</v>
       </c>
@@ -10355,7 +10370,7 @@
         <v>258.60000000000002</v>
       </c>
     </row>
-    <row r="312" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="312" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A312">
         <v>310</v>
       </c>
@@ -10367,7 +10382,7 @@
         <v>259.60000000000002</v>
       </c>
     </row>
-    <row r="313" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="313" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A313">
         <v>311</v>
       </c>
@@ -10379,7 +10394,7 @@
         <v>260.60000000000002</v>
       </c>
     </row>
-    <row r="314" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="314" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A314">
         <v>312</v>
       </c>
@@ -10391,7 +10406,7 @@
         <v>261.60000000000002</v>
       </c>
     </row>
-    <row r="315" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="315" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A315">
         <v>313</v>
       </c>
@@ -10403,7 +10418,7 @@
         <v>262.60000000000002</v>
       </c>
     </row>
-    <row r="316" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="316" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A316">
         <v>314</v>
       </c>
@@ -10415,7 +10430,7 @@
         <v>263.60000000000002</v>
       </c>
     </row>
-    <row r="317" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="317" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A317">
         <v>315</v>
       </c>
@@ -10427,7 +10442,7 @@
         <v>264.60000000000002</v>
       </c>
     </row>
-    <row r="318" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="318" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A318">
         <v>316</v>
       </c>
@@ -10439,7 +10454,7 @@
         <v>265.60000000000002</v>
       </c>
     </row>
-    <row r="319" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="319" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A319">
         <v>317</v>
       </c>
@@ -10451,7 +10466,7 @@
         <v>266.60000000000002</v>
       </c>
     </row>
-    <row r="320" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="320" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A320">
         <v>318</v>
       </c>
@@ -10463,7 +10478,7 @@
         <v>267.7</v>
       </c>
     </row>
-    <row r="321" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="321" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A321">
         <v>319</v>
       </c>
@@ -10475,7 +10490,7 @@
         <v>268.7</v>
       </c>
     </row>
-    <row r="322" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="322" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A322">
         <v>320</v>
       </c>
@@ -10487,7 +10502,7 @@
         <v>269.7</v>
       </c>
     </row>
-    <row r="323" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="323" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A323">
         <v>321</v>
       </c>
@@ -10499,7 +10514,7 @@
         <v>270.7</v>
       </c>
     </row>
-    <row r="324" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="324" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A324">
         <v>322</v>
       </c>
@@ -10511,7 +10526,7 @@
         <v>271.7</v>
       </c>
     </row>
-    <row r="325" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="325" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A325">
         <v>323</v>
       </c>
@@ -10523,7 +10538,7 @@
         <v>272.7</v>
       </c>
     </row>
-    <row r="326" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="326" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A326">
         <v>324</v>
       </c>
@@ -10535,7 +10550,7 @@
         <v>273.7</v>
       </c>
     </row>
-    <row r="327" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="327" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A327">
         <v>325</v>
       </c>
@@ -10547,7 +10562,7 @@
         <v>274.7</v>
       </c>
     </row>
-    <row r="328" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="328" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A328">
         <v>326</v>
       </c>
@@ -10559,7 +10574,7 @@
         <v>275.7</v>
       </c>
     </row>
-    <row r="329" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="329" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A329">
         <v>327</v>
       </c>
@@ -10571,7 +10586,7 @@
         <v>276.7</v>
       </c>
     </row>
-    <row r="330" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="330" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A330">
         <v>328</v>
       </c>
@@ -10583,7 +10598,7 @@
         <v>277.7</v>
       </c>
     </row>
-    <row r="331" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="331" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A331">
         <v>329</v>
       </c>
@@ -10595,7 +10610,7 @@
         <v>278.8</v>
       </c>
     </row>
-    <row r="332" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="332" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A332">
         <v>330</v>
       </c>
@@ -10607,7 +10622,7 @@
         <v>279.8</v>
       </c>
     </row>
-    <row r="333" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="333" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A333">
         <v>331</v>
       </c>
@@ -10619,7 +10634,7 @@
         <v>280.8</v>
       </c>
     </row>
-    <row r="334" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="334" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A334">
         <v>332</v>
       </c>
@@ -10631,7 +10646,7 @@
         <v>281.8</v>
       </c>
     </row>
-    <row r="335" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="335" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A335">
         <v>333</v>
       </c>
@@ -10643,7 +10658,7 @@
         <v>282.8</v>
       </c>
     </row>
-    <row r="336" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="336" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A336">
         <v>334</v>
       </c>
@@ -10655,7 +10670,7 @@
         <v>283.8</v>
       </c>
     </row>
-    <row r="337" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="337" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A337">
         <v>335</v>
       </c>
@@ -10667,7 +10682,7 @@
         <v>284.8</v>
       </c>
     </row>
-    <row r="338" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="338" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A338">
         <v>336</v>
       </c>
@@ -10679,7 +10694,7 @@
         <v>285.8</v>
       </c>
     </row>
-    <row r="339" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="339" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A339">
         <v>337</v>
       </c>
@@ -10691,7 +10706,7 @@
         <v>286.8</v>
       </c>
     </row>
-    <row r="340" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="340" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A340">
         <v>338</v>
       </c>
@@ -10703,7 +10718,7 @@
         <v>287.8</v>
       </c>
     </row>
-    <row r="341" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="341" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A341">
         <v>339</v>
       </c>
@@ -10715,7 +10730,7 @@
         <v>288.8</v>
       </c>
     </row>
-    <row r="342" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="342" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A342">
         <v>340</v>
       </c>
@@ -10727,7 +10742,7 @@
         <v>289.89999999999998</v>
       </c>
     </row>
-    <row r="343" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="343" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A343">
         <v>341</v>
       </c>
@@ -10739,7 +10754,7 @@
         <v>290.89999999999998</v>
       </c>
     </row>
-    <row r="344" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="344" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A344">
         <v>342</v>
       </c>
@@ -10751,7 +10766,7 @@
         <v>291.89999999999998</v>
       </c>
     </row>
-    <row r="345" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="345" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A345">
         <v>343</v>
       </c>
@@ -10763,7 +10778,7 @@
         <v>292.89999999999998</v>
       </c>
     </row>
-    <row r="346" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="346" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A346">
         <v>344</v>
       </c>
@@ -10775,7 +10790,7 @@
         <v>293.89999999999998</v>
       </c>
     </row>
-    <row r="347" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="347" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A347">
         <v>345</v>
       </c>
@@ -10787,7 +10802,7 @@
         <v>294.89999999999998</v>
       </c>
     </row>
-    <row r="348" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="348" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A348">
         <v>346</v>
       </c>
@@ -10799,7 +10814,7 @@
         <v>295.89999999999998</v>
       </c>
     </row>
-    <row r="349" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="349" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A349">
         <v>347</v>
       </c>
@@ -10811,7 +10826,7 @@
         <v>296.89999999999998</v>
       </c>
     </row>
-    <row r="350" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="350" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A350">
         <v>348</v>
       </c>
@@ -10823,7 +10838,7 @@
         <v>297.89999999999998</v>
       </c>
     </row>
-    <row r="351" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="351" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A351">
         <v>349</v>
       </c>
@@ -10835,7 +10850,7 @@
         <v>298.89999999999998</v>
       </c>
     </row>
-    <row r="352" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="352" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A352">
         <v>350</v>
       </c>
@@ -10847,7 +10862,7 @@
         <v>299.89999999999998</v>
       </c>
     </row>
-    <row r="353" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="353" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A353">
         <v>351</v>
       </c>
@@ -10859,7 +10874,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="354" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="354" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A354">
         <v>352</v>
       </c>
@@ -10871,7 +10886,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="355" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="355" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A355">
         <v>353</v>
       </c>
@@ -10883,7 +10898,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="356" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="356" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A356">
         <v>354</v>
       </c>
@@ -10895,7 +10910,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="357" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="357" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A357">
         <v>355</v>
       </c>
@@ -10907,7 +10922,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="358" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="358" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A358">
         <v>356</v>
       </c>
@@ -10919,7 +10934,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="359" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="359" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A359">
         <v>357</v>
       </c>
@@ -10931,7 +10946,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="360" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="360" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A360">
         <v>358</v>
       </c>
@@ -10943,7 +10958,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="361" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="361" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A361">
         <v>359</v>
       </c>
@@ -10955,7 +10970,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="362" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="362" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A362">
         <v>360</v>
       </c>
@@ -10967,7 +10982,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="363" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="363" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A363">
         <v>361</v>
       </c>
@@ -10979,7 +10994,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="364" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="364" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A364">
         <v>362</v>
       </c>
@@ -10991,7 +11006,7 @@
         <v>312.10000000000002</v>
       </c>
     </row>
-    <row r="365" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="365" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A365">
         <v>363</v>
       </c>
@@ -11003,7 +11018,7 @@
         <v>313.10000000000002</v>
       </c>
     </row>
-    <row r="366" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="366" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A366">
         <v>364</v>
       </c>
@@ -11015,7 +11030,7 @@
         <v>314.10000000000002</v>
       </c>
     </row>
-    <row r="367" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="367" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A367">
         <v>365</v>
       </c>
@@ -11027,7 +11042,7 @@
         <v>315.10000000000002</v>
       </c>
     </row>
-    <row r="368" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="368" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A368">
         <v>366</v>
       </c>
@@ -11039,7 +11054,7 @@
         <v>316.10000000000002</v>
       </c>
     </row>
-    <row r="369" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="369" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A369">
         <v>367</v>
       </c>
@@ -11051,7 +11066,7 @@
         <v>317.10000000000002</v>
       </c>
     </row>
-    <row r="370" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="370" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A370">
         <v>368</v>
       </c>
@@ -11063,7 +11078,7 @@
         <v>318.10000000000002</v>
       </c>
     </row>
-    <row r="371" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="371" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A371">
         <v>369</v>
       </c>
@@ -11075,7 +11090,7 @@
         <v>319.10000000000002</v>
       </c>
     </row>
-    <row r="372" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="372" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A372">
         <v>370</v>
       </c>
@@ -11087,7 +11102,7 @@
         <v>320.10000000000002</v>
       </c>
     </row>
-    <row r="373" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="373" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A373">
         <v>371</v>
       </c>
@@ -11099,7 +11114,7 @@
         <v>321.10000000000002</v>
       </c>
     </row>
-    <row r="374" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="374" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A374">
         <v>372</v>
       </c>
@@ -11111,7 +11126,7 @@
         <v>322.10000000000002</v>
       </c>
     </row>
-    <row r="375" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="375" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A375">
         <v>373</v>
       </c>
@@ -11123,7 +11138,7 @@
         <v>323.2</v>
       </c>
     </row>
-    <row r="376" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="376" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A376">
         <v>374</v>
       </c>
@@ -11135,7 +11150,7 @@
         <v>324.2</v>
       </c>
     </row>
-    <row r="377" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="377" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A377">
         <v>375</v>
       </c>
@@ -11147,7 +11162,7 @@
         <v>325.2</v>
       </c>
     </row>
-    <row r="378" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="378" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A378">
         <v>376</v>
       </c>
@@ -11159,7 +11174,7 @@
         <v>326.2</v>
       </c>
     </row>
-    <row r="379" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="379" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A379">
         <v>377</v>
       </c>
@@ -11171,7 +11186,7 @@
         <v>327.2</v>
       </c>
     </row>
-    <row r="380" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="380" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A380">
         <v>378</v>
       </c>
@@ -11183,7 +11198,7 @@
         <v>328.2</v>
       </c>
     </row>
-    <row r="381" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="381" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A381">
         <v>379</v>
       </c>
@@ -11195,7 +11210,7 @@
         <v>329.2</v>
       </c>
     </row>
-    <row r="382" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="382" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A382">
         <v>380</v>
       </c>
@@ -11207,7 +11222,7 @@
         <v>330.2</v>
       </c>
     </row>
-    <row r="383" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="383" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A383">
         <v>381</v>
       </c>
@@ -11219,7 +11234,7 @@
         <v>331.2</v>
       </c>
     </row>
-    <row r="384" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="384" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A384">
         <v>382</v>
       </c>
@@ -11231,7 +11246,7 @@
         <v>332.2</v>
       </c>
     </row>
-    <row r="385" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="385" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A385">
         <v>383</v>
       </c>
@@ -11243,7 +11258,7 @@
         <v>333.2</v>
       </c>
     </row>
-    <row r="386" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="386" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A386">
         <v>384</v>
       </c>
@@ -11255,7 +11270,7 @@
         <v>334.3</v>
       </c>
     </row>
-    <row r="387" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="387" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A387">
         <v>385</v>
       </c>
@@ -11267,7 +11282,7 @@
         <v>335.3</v>
       </c>
     </row>
-    <row r="388" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="388" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A388">
         <v>386</v>
       </c>
@@ -11279,7 +11294,7 @@
         <v>336.3</v>
       </c>
     </row>
-    <row r="389" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="389" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A389">
         <v>387</v>
       </c>
@@ -11291,7 +11306,7 @@
         <v>337.3</v>
       </c>
     </row>
-    <row r="390" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="390" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A390">
         <v>388</v>
       </c>
@@ -11303,7 +11318,7 @@
         <v>338.3</v>
       </c>
     </row>
-    <row r="391" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="391" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A391">
         <v>389</v>
       </c>
@@ -11315,7 +11330,7 @@
         <v>339.3</v>
       </c>
     </row>
-    <row r="392" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="392" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A392">
         <v>390</v>
       </c>
@@ -11327,7 +11342,7 @@
         <v>340.3</v>
       </c>
     </row>
-    <row r="393" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="393" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A393">
         <v>391</v>
       </c>
@@ -11339,7 +11354,7 @@
         <v>341.3</v>
       </c>
     </row>
-    <row r="394" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="394" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A394">
         <v>392</v>
       </c>
@@ -11351,7 +11366,7 @@
         <v>342.3</v>
       </c>
     </row>
-    <row r="395" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="395" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A395">
         <v>393</v>
       </c>
@@ -11363,7 +11378,7 @@
         <v>343.3</v>
       </c>
     </row>
-    <row r="396" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="396" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A396">
         <v>394</v>
       </c>
@@ -11375,7 +11390,7 @@
         <v>344.3</v>
       </c>
     </row>
-    <row r="397" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="397" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A397">
         <v>395</v>
       </c>
@@ -11387,7 +11402,7 @@
         <v>345.4</v>
       </c>
     </row>
-    <row r="398" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="398" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A398">
         <v>396</v>
       </c>
@@ -11399,7 +11414,7 @@
         <v>346.4</v>
       </c>
     </row>
-    <row r="399" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="399" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A399">
         <v>397</v>
       </c>
@@ -11411,7 +11426,7 @@
         <v>347.4</v>
       </c>
     </row>
-    <row r="400" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="400" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A400">
         <v>398</v>
       </c>
@@ -11423,7 +11438,7 @@
         <v>348.4</v>
       </c>
     </row>
-    <row r="401" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="401" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A401">
         <v>399</v>
       </c>
@@ -11435,7 +11450,7 @@
         <v>349.4</v>
       </c>
     </row>
-    <row r="402" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="402" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A402">
         <v>400</v>
       </c>
@@ -11447,7 +11462,7 @@
         <v>350.4</v>
       </c>
     </row>
-    <row r="403" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="403" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A403">
         <v>401</v>
       </c>
@@ -11459,7 +11474,7 @@
         <v>350.5</v>
       </c>
     </row>
-    <row r="404" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="404" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A404">
         <v>402</v>
       </c>
@@ -11471,7 +11486,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="405" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="405" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A405">
         <v>403</v>
       </c>
@@ -11483,7 +11498,7 @@
         <v>353.5</v>
       </c>
     </row>
-    <row r="406" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="406" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A406">
         <v>404</v>
       </c>
@@ -11495,7 +11510,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="407" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="407" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A407">
         <v>405</v>
       </c>
@@ -11507,7 +11522,7 @@
         <v>356.6</v>
       </c>
     </row>
-    <row r="408" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="408" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A408">
         <v>406</v>
       </c>
@@ -11519,7 +11534,7 @@
         <v>358.1</v>
       </c>
     </row>
-    <row r="409" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="409" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A409">
         <v>407</v>
       </c>
@@ -11531,7 +11546,7 @@
         <v>359.6</v>
       </c>
     </row>
-    <row r="410" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="410" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A410">
         <v>408</v>
       </c>
@@ -11543,7 +11558,7 @@
         <v>361.1</v>
       </c>
     </row>
-    <row r="411" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="411" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A411">
         <v>409</v>
       </c>
@@ -11555,7 +11570,7 @@
         <v>362.6</v>
       </c>
     </row>
-    <row r="412" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="412" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A412">
         <v>410</v>
       </c>
@@ -11567,7 +11582,7 @@
         <v>364.1</v>
       </c>
     </row>
-    <row r="413" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="413" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A413">
         <v>411</v>
       </c>
@@ -11579,7 +11594,7 @@
         <v>365.6</v>
       </c>
     </row>
-    <row r="414" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="414" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A414">
         <v>412</v>
       </c>
@@ -11591,7 +11606,7 @@
         <v>367.2</v>
       </c>
     </row>
-    <row r="415" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="415" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A415">
         <v>413</v>
       </c>
@@ -11603,7 +11618,7 @@
         <v>368.7</v>
       </c>
     </row>
-    <row r="416" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="416" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A416">
         <v>414</v>
       </c>
@@ -11615,7 +11630,7 @@
         <v>370.2</v>
       </c>
     </row>
-    <row r="417" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="417" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A417">
         <v>415</v>
       </c>
@@ -11627,7 +11642,7 @@
         <v>371.7</v>
       </c>
     </row>
-    <row r="418" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="418" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A418">
         <v>416</v>
       </c>
@@ -11639,7 +11654,7 @@
         <v>373.2</v>
       </c>
     </row>
-    <row r="419" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="419" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A419">
         <v>417</v>
       </c>
@@ -11651,7 +11666,7 @@
         <v>374.7</v>
       </c>
     </row>
-    <row r="420" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="420" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A420">
         <v>418</v>
       </c>
@@ -11663,7 +11678,7 @@
         <v>376.2</v>
       </c>
     </row>
-    <row r="421" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="421" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A421">
         <v>419</v>
       </c>
@@ -11675,7 +11690,7 @@
         <v>377.8</v>
       </c>
     </row>
-    <row r="422" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="422" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A422">
         <v>420</v>
       </c>
@@ -11687,7 +11702,7 @@
         <v>379.3</v>
       </c>
     </row>
-    <row r="423" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="423" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A423">
         <v>421</v>
       </c>
@@ -11699,7 +11714,7 @@
         <v>380.8</v>
       </c>
     </row>
-    <row r="424" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="424" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A424">
         <v>422</v>
       </c>
@@ -11711,7 +11726,7 @@
         <v>382.3</v>
       </c>
     </row>
-    <row r="425" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="425" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A425">
         <v>423</v>
       </c>
@@ -11723,7 +11738,7 @@
         <v>383.8</v>
       </c>
     </row>
-    <row r="426" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="426" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A426">
         <v>424</v>
       </c>
@@ -11735,7 +11750,7 @@
         <v>385.3</v>
       </c>
     </row>
-    <row r="427" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="427" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A427">
         <v>425</v>
       </c>
@@ -11747,7 +11762,7 @@
         <v>386.8</v>
       </c>
     </row>
-    <row r="428" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="428" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A428">
         <v>426</v>
       </c>
@@ -11759,7 +11774,7 @@
         <v>388.4</v>
       </c>
     </row>
-    <row r="429" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="429" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A429">
         <v>427</v>
       </c>
@@ -11771,7 +11786,7 @@
         <v>389.9</v>
       </c>
     </row>
-    <row r="430" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="430" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A430">
         <v>428</v>
       </c>
@@ -11783,7 +11798,7 @@
         <v>391.4</v>
       </c>
     </row>
-    <row r="431" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="431" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A431">
         <v>429</v>
       </c>
@@ -11795,7 +11810,7 @@
         <v>392.9</v>
       </c>
     </row>
-    <row r="432" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="432" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A432">
         <v>430</v>
       </c>
@@ -11807,7 +11822,7 @@
         <v>394.4</v>
       </c>
     </row>
-    <row r="433" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="433" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A433">
         <v>431</v>
       </c>
@@ -11819,7 +11834,7 @@
         <v>395.9</v>
       </c>
     </row>
-    <row r="434" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="434" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A434">
         <v>432</v>
       </c>
@@ -11831,7 +11846,7 @@
         <v>397.4</v>
       </c>
     </row>
-    <row r="435" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="435" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A435">
         <v>433</v>
       </c>
@@ -11843,7 +11858,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="436" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="436" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A436">
         <v>434</v>
       </c>
@@ -11855,7 +11870,7 @@
         <v>400.5</v>
       </c>
     </row>
-    <row r="437" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="437" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A437">
         <v>435</v>
       </c>
@@ -11867,7 +11882,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="438" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="438" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A438">
         <v>436</v>
       </c>
@@ -11879,7 +11894,7 @@
         <v>403.5</v>
       </c>
     </row>
-    <row r="439" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="439" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A439">
         <v>437</v>
       </c>
@@ -11891,7 +11906,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="440" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="440" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A440">
         <v>438</v>
       </c>
@@ -11903,7 +11918,7 @@
         <v>406.5</v>
       </c>
     </row>
-    <row r="441" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="441" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A441">
         <v>439</v>
       </c>
@@ -11915,7 +11930,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="442" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="442" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A442">
         <v>440</v>
       </c>
@@ -11927,7 +11942,7 @@
         <v>409.6</v>
       </c>
     </row>
-    <row r="443" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="443" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A443">
         <v>441</v>
       </c>
@@ -11939,7 +11954,7 @@
         <v>411.1</v>
       </c>
     </row>
-    <row r="444" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="444" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A444">
         <v>442</v>
       </c>
@@ -11951,7 +11966,7 @@
         <v>412.6</v>
       </c>
     </row>
-    <row r="445" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="445" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A445">
         <v>443</v>
       </c>
@@ -11963,7 +11978,7 @@
         <v>414.1</v>
       </c>
     </row>
-    <row r="446" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="446" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A446">
         <v>444</v>
       </c>
@@ -11975,7 +11990,7 @@
         <v>415.6</v>
       </c>
     </row>
-    <row r="447" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="447" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A447">
         <v>445</v>
       </c>
@@ -11987,7 +12002,7 @@
         <v>417.1</v>
       </c>
     </row>
-    <row r="448" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="448" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A448">
         <v>446</v>
       </c>
@@ -11999,7 +12014,7 @@
         <v>418.6</v>
       </c>
     </row>
-    <row r="449" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="449" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A449">
         <v>447</v>
       </c>
@@ -12011,7 +12026,7 @@
         <v>420.2</v>
       </c>
     </row>
-    <row r="450" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="450" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A450">
         <v>448</v>
       </c>
@@ -12023,7 +12038,7 @@
         <v>421.7</v>
       </c>
     </row>
-    <row r="451" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="451" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A451">
         <v>449</v>
       </c>
@@ -12035,7 +12050,7 @@
         <v>423.2</v>
       </c>
     </row>
-    <row r="452" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="452" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A452">
         <v>450</v>
       </c>
@@ -12047,7 +12062,7 @@
         <v>424.7</v>
       </c>
     </row>
-    <row r="453" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="453" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A453">
         <v>451</v>
       </c>
@@ -12059,7 +12074,7 @@
         <v>426.2</v>
       </c>
     </row>
-    <row r="454" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="454" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A454">
         <v>452</v>
       </c>
@@ -12071,7 +12086,7 @@
         <v>427.7</v>
       </c>
     </row>
-    <row r="455" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="455" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A455">
         <v>453</v>
       </c>
@@ -12083,7 +12098,7 @@
         <v>429.2</v>
       </c>
     </row>
-    <row r="456" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="456" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A456">
         <v>454</v>
       </c>
@@ -12095,7 +12110,7 @@
         <v>430.7</v>
       </c>
     </row>
-    <row r="457" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="457" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A457">
         <v>455</v>
       </c>
@@ -12107,7 +12122,7 @@
         <v>432.3</v>
       </c>
     </row>
-    <row r="458" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="458" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A458">
         <v>456</v>
       </c>
@@ -12119,7 +12134,7 @@
         <v>433.8</v>
       </c>
     </row>
-    <row r="459" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="459" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A459">
         <v>457</v>
       </c>
@@ -12131,7 +12146,7 @@
         <v>435.3</v>
       </c>
     </row>
-    <row r="460" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="460" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A460">
         <v>458</v>
       </c>
@@ -12143,7 +12158,7 @@
         <v>436.8</v>
       </c>
     </row>
-    <row r="461" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="461" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A461">
         <v>459</v>
       </c>
@@ -12155,7 +12170,7 @@
         <v>438.3</v>
       </c>
     </row>
-    <row r="462" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="462" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A462">
         <v>460</v>
       </c>
@@ -12167,7 +12182,7 @@
         <v>439.8</v>
       </c>
     </row>
-    <row r="463" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="463" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A463">
         <v>461</v>
       </c>
@@ -12179,7 +12194,7 @@
         <v>441.3</v>
       </c>
     </row>
-    <row r="464" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="464" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A464">
         <v>462</v>
       </c>
@@ -12191,7 +12206,7 @@
         <v>442.9</v>
       </c>
     </row>
-    <row r="465" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="465" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A465">
         <v>463</v>
       </c>
@@ -12203,7 +12218,7 @@
         <v>444.4</v>
       </c>
     </row>
-    <row r="466" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="466" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A466">
         <v>464</v>
       </c>
@@ -12215,7 +12230,7 @@
         <v>445.9</v>
       </c>
     </row>
-    <row r="467" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="467" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A467">
         <v>465</v>
       </c>
@@ -12227,7 +12242,7 @@
         <v>447.4</v>
       </c>
     </row>
-    <row r="468" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="468" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A468">
         <v>466</v>
       </c>
@@ -12239,7 +12254,7 @@
         <v>448.9</v>
       </c>
     </row>
-    <row r="469" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="469" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A469">
         <v>467</v>
       </c>
@@ -12251,7 +12266,7 @@
         <v>450.4</v>
       </c>
     </row>
-    <row r="470" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="470" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A470">
         <v>468</v>
       </c>
@@ -12263,7 +12278,7 @@
         <v>451.9</v>
       </c>
     </row>
-    <row r="471" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="471" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A471">
         <v>469</v>
       </c>
@@ -12275,7 +12290,7 @@
         <v>453.5</v>
       </c>
     </row>
-    <row r="472" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="472" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A472">
         <v>470</v>
       </c>
@@ -12287,7 +12302,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="473" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="473" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A473">
         <v>471</v>
       </c>
@@ -12299,7 +12314,7 @@
         <v>456.5</v>
       </c>
     </row>
-    <row r="474" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="474" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A474">
         <v>472</v>
       </c>
@@ -12311,7 +12326,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="475" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="475" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A475">
         <v>473</v>
       </c>
@@ -12323,7 +12338,7 @@
         <v>459.5</v>
       </c>
     </row>
-    <row r="476" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="476" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A476">
         <v>474</v>
       </c>
@@ -12335,7 +12350,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="477" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="477" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A477">
         <v>475</v>
       </c>
@@ -12347,7 +12362,7 @@
         <v>462.5</v>
       </c>
     </row>
-    <row r="478" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="478" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A478">
         <v>476</v>
       </c>
@@ -12359,7 +12374,7 @@
         <v>464.1</v>
       </c>
     </row>
-    <row r="479" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="479" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A479">
         <v>477</v>
       </c>
@@ -12371,7 +12386,7 @@
         <v>465.6</v>
       </c>
     </row>
-    <row r="480" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="480" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A480">
         <v>478</v>
       </c>
@@ -12383,7 +12398,7 @@
         <v>467.1</v>
       </c>
     </row>
-    <row r="481" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="481" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A481">
         <v>479</v>
       </c>
@@ -12395,7 +12410,7 @@
         <v>468.6</v>
       </c>
     </row>
-    <row r="482" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="482" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A482">
         <v>480</v>
       </c>
@@ -12407,7 +12422,7 @@
         <v>470.1</v>
       </c>
     </row>
-    <row r="483" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="483" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A483">
         <v>481</v>
       </c>
@@ -12419,7 +12434,7 @@
         <v>471.6</v>
       </c>
     </row>
-    <row r="484" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="484" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A484">
         <v>482</v>
       </c>
@@ -12431,7 +12446,7 @@
         <v>473.1</v>
       </c>
     </row>
-    <row r="485" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="485" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A485">
         <v>483</v>
       </c>
@@ -12443,7 +12458,7 @@
         <v>474.7</v>
       </c>
     </row>
-    <row r="486" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="486" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A486">
         <v>484</v>
       </c>
@@ -12455,7 +12470,7 @@
         <v>476.2</v>
       </c>
     </row>
-    <row r="487" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="487" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A487">
         <v>485</v>
       </c>
@@ -12467,7 +12482,7 @@
         <v>477.7</v>
       </c>
     </row>
-    <row r="488" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="488" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A488">
         <v>486</v>
       </c>
@@ -12479,7 +12494,7 @@
         <v>479.2</v>
       </c>
     </row>
-    <row r="489" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="489" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A489">
         <v>487</v>
       </c>
@@ -12491,7 +12506,7 @@
         <v>480.7</v>
       </c>
     </row>
-    <row r="490" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="490" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A490">
         <v>488</v>
       </c>
@@ -12503,7 +12518,7 @@
         <v>482.2</v>
       </c>
     </row>
-    <row r="491" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="491" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A491">
         <v>489</v>
       </c>
@@ -12515,7 +12530,7 @@
         <v>483.7</v>
       </c>
     </row>
-    <row r="492" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="492" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A492">
         <v>490</v>
       </c>
@@ -12527,7 +12542,7 @@
         <v>485.3</v>
       </c>
     </row>
-    <row r="493" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="493" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A493">
         <v>491</v>
       </c>
@@ -12539,7 +12554,7 @@
         <v>486.8</v>
       </c>
     </row>
-    <row r="494" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="494" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A494">
         <v>492</v>
       </c>
@@ -12551,7 +12566,7 @@
         <v>488.3</v>
       </c>
     </row>
-    <row r="495" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="495" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A495">
         <v>493</v>
       </c>
@@ -12563,7 +12578,7 @@
         <v>489.8</v>
       </c>
     </row>
-    <row r="496" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="496" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A496">
         <v>494</v>
       </c>
@@ -12575,7 +12590,7 @@
         <v>491.3</v>
       </c>
     </row>
-    <row r="497" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="497" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A497">
         <v>495</v>
       </c>
@@ -12587,7 +12602,7 @@
         <v>492.8</v>
       </c>
     </row>
-    <row r="498" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="498" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A498">
         <v>496</v>
       </c>
@@ -12599,7 +12614,7 @@
         <v>494.3</v>
       </c>
     </row>
-    <row r="499" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="499" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A499">
         <v>497</v>
       </c>
@@ -12611,7 +12626,7 @@
         <v>495.9</v>
       </c>
     </row>
-    <row r="500" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="500" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A500">
         <v>498</v>
       </c>
@@ -12623,7 +12638,7 @@
         <v>497.4</v>
       </c>
     </row>
-    <row r="501" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="501" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A501">
         <v>499</v>
       </c>
@@ -12635,7 +12650,7 @@
         <v>498.9</v>
       </c>
     </row>
-    <row r="502" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="502" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A502">
         <v>500</v>
       </c>
@@ -12656,18 +12671,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE1A2EAF-D479-485D-97A9-FA69655BC991}">
   <dimension ref="A1:J21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F16" sqref="F16:G16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.26953125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="40.90625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="41.26953125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="40.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="41.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>23</v>
       </c>
@@ -12693,7 +12708,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>18</v>
       </c>
@@ -12724,7 +12739,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>58</v>
       </c>
@@ -12752,7 +12767,7 @@
         <v>0.99</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>66</v>
       </c>
@@ -12780,7 +12795,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>67</v>
       </c>
@@ -12808,7 +12823,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>61</v>
       </c>
@@ -12836,7 +12851,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>60</v>
       </c>
@@ -12858,7 +12873,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>59</v>
       </c>
@@ -12886,7 +12901,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
         <v>1</v>
       </c>
@@ -12894,7 +12909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B12">
         <v>500</v>
       </c>
@@ -12902,7 +12917,7 @@
         <v>500.4</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>22</v>
       </c>
@@ -12916,7 +12931,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>45</v>
       </c>
@@ -12930,7 +12945,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>46</v>
       </c>
@@ -12944,7 +12959,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>47</v>
       </c>
@@ -12958,7 +12973,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>48</v>
       </c>
@@ -12972,7 +12987,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>49</v>
       </c>
@@ -12986,7 +13001,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>55</v>
       </c>
@@ -13000,7 +13015,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>57</v>
       </c>
@@ -13012,6 +13027,59 @@
       </c>
       <c r="G21" s="2" t="s">
         <v>44</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D153E0F-50DE-E14C-9573-9C9A2030B973}">
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>200</v>
+      </c>
+      <c r="B2" s="3">
+        <f>ROUNDUP(IF(A2&lt;=35,(50-0)*(A2-0)/(35-0)+0,IF(A2&lt;=75,(100-50)*(A2-35)/(75-35)+50,IF(A2&lt;=115,(150-100)*(A2-75)/(115-75)+100,IF(A2&lt;=150,(200-150)*(A2-115)/(150-115)+150,IF(A2&lt;=250,(300-200)*(A2-150)/(250-150)+200))))),A2)</f>
+        <v>250</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>72</v>
+      </c>
+      <c r="B5" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>250</v>
+      </c>
+      <c r="B6">
+        <f>ROUNDUP(IF(A6&lt;=50,(35-0)*(A6-0)/(50-0)+0,IF(A6&lt;=100,(75-35)*(A6-50)/(100-50)+35,IF(A6&lt;=150,(115-75)*(A6-100)/(150-100)+75,IF(A6&lt;=200,(150-115)*(A6-150)/(200-150)+115,IF(A6&lt;=300,(250-150)*(A6-200)/(300-200)+150,IF(A6&lt;=400,(350-250)*(A6-150)/(400-300)+250,IF(A6&lt;=500,(500-350)*(A6-400)/(500-400)+350,A6))))))),0)</f>
+        <v>200</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/Formula for AQI-Conc.xlsx
+++ b/Excel/Formula for AQI-Conc.xlsx
@@ -3,36 +3,27 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10212"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB5BBA43-9166-C14B-AE84-F132EEF5C753}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B401E2B-DE96-C940-9BCD-45C6D193B1E6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14220" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Conc to AQI" sheetId="4" r:id="rId1"/>
-    <sheet name="AQI to Conc" sheetId="5" r:id="rId2"/>
+    <sheet name="Concentration to AQI (US)" sheetId="4" r:id="rId1"/>
+    <sheet name="AQI (US) to Concentration" sheetId="5" r:id="rId2"/>
     <sheet name="AQI (US)-Conc formulae" sheetId="2" r:id="rId3"/>
-    <sheet name="Conc to AQI (China)" sheetId="6" r:id="rId4"/>
+    <sheet name="Concentration to AQI (China)" sheetId="6" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="74">
   <si>
     <t>PM2.5</t>
   </si>
@@ -103,9 +94,6 @@
     <t>AQI Range</t>
   </si>
   <si>
-    <t>PM Range</t>
-  </si>
-  <si>
     <t>PM conc</t>
   </si>
   <si>
@@ -122,9 +110,6 @@
   </si>
   <si>
     <t>0 to 35</t>
-  </si>
-  <si>
-    <t>PM2.5 Levels</t>
   </si>
   <si>
     <t xml:space="preserve">y = (50/35)*x </t>
@@ -258,14 +243,16 @@
   <si>
     <t>Concentration (µg/m3) - calculated</t>
   </si>
+  <si>
+    <t>PM2.5 Concentration</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="0.000"/>
-    <numFmt numFmtId="169" formatCode="0.0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -304,9 +291,9 @@
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -589,8 +576,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0ED45915-54F0-4A99-8672-9018A088E5C9}">
   <dimension ref="A1:C502"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -600,20 +587,20 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" t="s">
         <v>24</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>25</v>
-      </c>
-      <c r="C1" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>0</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="3">
         <f t="shared" ref="B2:B65" si="0">_xlfn.IFS(A2&lt;=12,4.16*A2+0.0096,AND(A2&gt;12,A2&lt;=35.4),2.11*A2+25.3943,AND(A2&gt;35.4,A2&lt;=55.4),2.46*A2+13.706,AND(A2&gt;55.4,A2&lt;=150.4),0.516*A2+122.348,AND(A2&gt;150.4,A2&lt;=350.4),0.998*A2+50.621,AND(A2&gt;350.4,A2&lt;500.5),0.66*A2+169.507)</f>
         <v>9.5999999999999992E-3</v>
       </c>
@@ -625,7 +612,7 @@
       <c r="A3">
         <v>0.2</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="3">
         <f t="shared" si="0"/>
         <v>0.84160000000000013</v>
       </c>
@@ -637,7 +624,7 @@
       <c r="A4">
         <v>0.5</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="3">
         <f t="shared" si="0"/>
         <v>2.0895999999999999</v>
       </c>
@@ -649,7 +636,7 @@
       <c r="A5">
         <v>0.7</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="3">
         <f t="shared" si="0"/>
         <v>2.9215999999999998</v>
       </c>
@@ -661,7 +648,7 @@
       <c r="A6">
         <v>1</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="3">
         <f t="shared" si="0"/>
         <v>4.1696</v>
       </c>
@@ -673,7 +660,7 @@
       <c r="A7">
         <v>1.2</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="3">
         <f t="shared" si="0"/>
         <v>5.0015999999999998</v>
       </c>
@@ -685,7 +672,7 @@
       <c r="A8">
         <v>1.4</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="3">
         <f t="shared" si="0"/>
         <v>5.8335999999999997</v>
       </c>
@@ -697,7 +684,7 @@
       <c r="A9">
         <v>1.7</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="3">
         <f t="shared" si="0"/>
         <v>7.0815999999999999</v>
       </c>
@@ -709,7 +696,7 @@
       <c r="A10">
         <v>1.9</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="3">
         <f t="shared" si="0"/>
         <v>7.9135999999999997</v>
       </c>
@@ -721,7 +708,7 @@
       <c r="A11">
         <v>2.2000000000000002</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="3">
         <f t="shared" si="0"/>
         <v>9.1616000000000017</v>
       </c>
@@ -733,7 +720,7 @@
       <c r="A12">
         <v>2.4</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="3">
         <f t="shared" si="0"/>
         <v>9.9936000000000007</v>
       </c>
@@ -745,7 +732,7 @@
       <c r="A13">
         <v>2.6</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="3">
         <f t="shared" si="0"/>
         <v>10.825600000000001</v>
       </c>
@@ -757,7 +744,7 @@
       <c r="A14">
         <v>2.9</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="3">
         <f t="shared" si="0"/>
         <v>12.073600000000001</v>
       </c>
@@ -769,7 +756,7 @@
       <c r="A15">
         <v>3.1</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="3">
         <f t="shared" si="0"/>
         <v>12.905600000000002</v>
       </c>
@@ -781,7 +768,7 @@
       <c r="A16">
         <v>3.4</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="3">
         <f t="shared" si="0"/>
         <v>14.153600000000001</v>
       </c>
@@ -793,7 +780,7 @@
       <c r="A17">
         <v>3.6</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="3">
         <f t="shared" si="0"/>
         <v>14.985600000000002</v>
       </c>
@@ -805,7 +792,7 @@
       <c r="A18">
         <v>3.8</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="3">
         <f t="shared" si="0"/>
         <v>15.817600000000001</v>
       </c>
@@ -817,7 +804,7 @@
       <c r="A19">
         <v>4.0999999999999996</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="3">
         <f t="shared" si="0"/>
         <v>17.065599999999996</v>
       </c>
@@ -829,7 +816,7 @@
       <c r="A20">
         <v>4.3</v>
       </c>
-      <c r="B20">
+      <c r="B20" s="3">
         <f t="shared" si="0"/>
         <v>17.897599999999997</v>
       </c>
@@ -841,7 +828,7 @@
       <c r="A21">
         <v>4.5999999999999996</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="3">
         <f t="shared" si="0"/>
         <v>19.145599999999998</v>
       </c>
@@ -853,7 +840,7 @@
       <c r="A22">
         <v>4.8</v>
       </c>
-      <c r="B22">
+      <c r="B22" s="3">
         <f t="shared" si="0"/>
         <v>19.977599999999999</v>
       </c>
@@ -865,7 +852,7 @@
       <c r="A23">
         <v>5</v>
       </c>
-      <c r="B23">
+      <c r="B23" s="3">
         <f t="shared" si="0"/>
         <v>20.8096</v>
       </c>
@@ -877,7 +864,7 @@
       <c r="A24">
         <v>5.3</v>
       </c>
-      <c r="B24">
+      <c r="B24" s="3">
         <f t="shared" si="0"/>
         <v>22.057599999999997</v>
       </c>
@@ -889,7 +876,7 @@
       <c r="A25">
         <v>5.5</v>
       </c>
-      <c r="B25">
+      <c r="B25" s="3">
         <f t="shared" si="0"/>
         <v>22.889600000000002</v>
       </c>
@@ -901,7 +888,7 @@
       <c r="A26">
         <v>5.8</v>
       </c>
-      <c r="B26">
+      <c r="B26" s="3">
         <f t="shared" si="0"/>
         <v>24.137599999999999</v>
       </c>
@@ -913,7 +900,7 @@
       <c r="A27">
         <v>6</v>
       </c>
-      <c r="B27">
+      <c r="B27" s="3">
         <f t="shared" si="0"/>
         <v>24.9696</v>
       </c>
@@ -925,7 +912,7 @@
       <c r="A28">
         <v>6.2</v>
       </c>
-      <c r="B28">
+      <c r="B28" s="3">
         <f t="shared" si="0"/>
         <v>25.801600000000001</v>
       </c>
@@ -937,7 +924,7 @@
       <c r="A29">
         <v>6.5</v>
       </c>
-      <c r="B29">
+      <c r="B29" s="3">
         <f t="shared" si="0"/>
         <v>27.049599999999998</v>
       </c>
@@ -949,7 +936,7 @@
       <c r="A30">
         <v>6.7</v>
       </c>
-      <c r="B30">
+      <c r="B30" s="3">
         <f t="shared" si="0"/>
         <v>27.881600000000002</v>
       </c>
@@ -961,7 +948,7 @@
       <c r="A31">
         <v>7</v>
       </c>
-      <c r="B31">
+      <c r="B31" s="3">
         <f t="shared" si="0"/>
         <v>29.1296</v>
       </c>
@@ -973,7 +960,7 @@
       <c r="A32">
         <v>7.2</v>
       </c>
-      <c r="B32">
+      <c r="B32" s="3">
         <f t="shared" si="0"/>
         <v>29.961600000000001</v>
       </c>
@@ -985,7 +972,7 @@
       <c r="A33">
         <v>7.4</v>
       </c>
-      <c r="B33">
+      <c r="B33" s="3">
         <f t="shared" si="0"/>
         <v>30.793600000000001</v>
       </c>
@@ -997,7 +984,7 @@
       <c r="A34">
         <v>7.7</v>
       </c>
-      <c r="B34">
+      <c r="B34" s="3">
         <f t="shared" si="0"/>
         <v>32.041600000000003</v>
       </c>
@@ -1009,7 +996,7 @@
       <c r="A35">
         <v>7.9</v>
       </c>
-      <c r="B35">
+      <c r="B35" s="3">
         <f t="shared" si="0"/>
         <v>32.873600000000003</v>
       </c>
@@ -1021,7 +1008,7 @@
       <c r="A36">
         <v>8.1999999999999993</v>
       </c>
-      <c r="B36">
+      <c r="B36" s="3">
         <f t="shared" si="0"/>
         <v>34.121599999999994</v>
       </c>
@@ -1033,7 +1020,7 @@
       <c r="A37">
         <v>8.4</v>
       </c>
-      <c r="B37">
+      <c r="B37" s="3">
         <f t="shared" si="0"/>
         <v>34.953600000000002</v>
       </c>
@@ -1045,7 +1032,7 @@
       <c r="A38">
         <v>8.6</v>
       </c>
-      <c r="B38">
+      <c r="B38" s="3">
         <f t="shared" si="0"/>
         <v>35.785599999999995</v>
       </c>
@@ -1057,7 +1044,7 @@
       <c r="A39">
         <v>8.9</v>
       </c>
-      <c r="B39">
+      <c r="B39" s="3">
         <f t="shared" si="0"/>
         <v>37.0336</v>
       </c>
@@ -1069,7 +1056,7 @@
       <c r="A40">
         <v>9.1</v>
       </c>
-      <c r="B40">
+      <c r="B40" s="3">
         <f t="shared" si="0"/>
         <v>37.865600000000001</v>
       </c>
@@ -1081,7 +1068,7 @@
       <c r="A41">
         <v>9.4</v>
       </c>
-      <c r="B41">
+      <c r="B41" s="3">
         <f t="shared" si="0"/>
         <v>39.113600000000005</v>
       </c>
@@ -1093,7 +1080,7 @@
       <c r="A42">
         <v>9.6</v>
       </c>
-      <c r="B42">
+      <c r="B42" s="3">
         <f t="shared" si="0"/>
         <v>39.945599999999999</v>
       </c>
@@ -1105,7 +1092,7 @@
       <c r="A43">
         <v>9.8000000000000007</v>
       </c>
-      <c r="B43">
+      <c r="B43" s="3">
         <f t="shared" si="0"/>
         <v>40.777600000000007</v>
       </c>
@@ -1117,7 +1104,7 @@
       <c r="A44">
         <v>10.1</v>
       </c>
-      <c r="B44">
+      <c r="B44" s="3">
         <f t="shared" si="0"/>
         <v>42.025599999999997</v>
       </c>
@@ -1129,7 +1116,7 @@
       <c r="A45">
         <v>10.3</v>
       </c>
-      <c r="B45">
+      <c r="B45" s="3">
         <f t="shared" si="0"/>
         <v>42.857600000000005</v>
       </c>
@@ -1141,7 +1128,7 @@
       <c r="A46">
         <v>10.6</v>
       </c>
-      <c r="B46">
+      <c r="B46" s="3">
         <f t="shared" si="0"/>
         <v>44.105599999999995</v>
       </c>
@@ -1153,7 +1140,7 @@
       <c r="A47">
         <v>10.8</v>
       </c>
-      <c r="B47">
+      <c r="B47" s="3">
         <f t="shared" si="0"/>
         <v>44.937600000000003</v>
       </c>
@@ -1165,7 +1152,7 @@
       <c r="A48">
         <v>11</v>
       </c>
-      <c r="B48">
+      <c r="B48" s="3">
         <f t="shared" si="0"/>
         <v>45.769600000000004</v>
       </c>
@@ -1177,7 +1164,7 @@
       <c r="A49">
         <v>11.3</v>
       </c>
-      <c r="B49">
+      <c r="B49" s="3">
         <f t="shared" si="0"/>
         <v>47.017600000000002</v>
       </c>
@@ -1189,7 +1176,7 @@
       <c r="A50">
         <v>11.5</v>
       </c>
-      <c r="B50">
+      <c r="B50" s="3">
         <f t="shared" si="0"/>
         <v>47.849600000000002</v>
       </c>
@@ -1201,7 +1188,7 @@
       <c r="A51">
         <v>11.8</v>
       </c>
-      <c r="B51">
+      <c r="B51" s="3">
         <f t="shared" si="0"/>
         <v>49.097600000000007</v>
       </c>
@@ -1213,7 +1200,7 @@
       <c r="A52">
         <v>12</v>
       </c>
-      <c r="B52">
+      <c r="B52" s="3">
         <f t="shared" si="0"/>
         <v>49.929600000000001</v>
       </c>
@@ -1225,7 +1212,7 @@
       <c r="A53">
         <v>12.1</v>
       </c>
-      <c r="B53">
+      <c r="B53" s="3">
         <f t="shared" si="0"/>
         <v>50.9253</v>
       </c>
@@ -1237,7 +1224,7 @@
       <c r="A54">
         <v>12.6</v>
       </c>
-      <c r="B54">
+      <c r="B54" s="3">
         <f t="shared" si="0"/>
         <v>51.9803</v>
       </c>
@@ -1249,7 +1236,7 @@
       <c r="A55">
         <v>13.1</v>
       </c>
-      <c r="B55">
+      <c r="B55" s="3">
         <f t="shared" si="0"/>
         <v>53.035299999999999</v>
       </c>
@@ -1261,7 +1248,7 @@
       <c r="A56">
         <v>13.5</v>
       </c>
-      <c r="B56">
+      <c r="B56" s="3">
         <f t="shared" si="0"/>
         <v>53.879300000000001</v>
       </c>
@@ -1273,7 +1260,7 @@
       <c r="A57">
         <v>14</v>
       </c>
-      <c r="B57">
+      <c r="B57" s="3">
         <f t="shared" si="0"/>
         <v>54.9343</v>
       </c>
@@ -1285,7 +1272,7 @@
       <c r="A58">
         <v>14.5</v>
       </c>
-      <c r="B58">
+      <c r="B58" s="3">
         <f t="shared" si="0"/>
         <v>55.9893</v>
       </c>
@@ -1297,7 +1284,7 @@
       <c r="A59">
         <v>15</v>
       </c>
-      <c r="B59">
+      <c r="B59" s="3">
         <f t="shared" si="0"/>
         <v>57.0443</v>
       </c>
@@ -1309,7 +1296,7 @@
       <c r="A60">
         <v>15.4</v>
       </c>
-      <c r="B60">
+      <c r="B60" s="3">
         <f t="shared" si="0"/>
         <v>57.888300000000001</v>
       </c>
@@ -1321,7 +1308,7 @@
       <c r="A61">
         <v>15.9</v>
       </c>
-      <c r="B61">
+      <c r="B61" s="3">
         <f t="shared" si="0"/>
         <v>58.943300000000001</v>
       </c>
@@ -1333,7 +1320,7 @@
       <c r="A62">
         <v>16.399999999999999</v>
       </c>
-      <c r="B62">
+      <c r="B62" s="3">
         <f t="shared" si="0"/>
         <v>59.998299999999993</v>
       </c>
@@ -1345,7 +1332,7 @@
       <c r="A63">
         <v>16.899999999999999</v>
       </c>
-      <c r="B63">
+      <c r="B63" s="3">
         <f t="shared" si="0"/>
         <v>61.053299999999993</v>
       </c>
@@ -1357,7 +1344,7 @@
       <c r="A64">
         <v>17.3</v>
       </c>
-      <c r="B64">
+      <c r="B64" s="3">
         <f t="shared" si="0"/>
         <v>61.897300000000001</v>
       </c>
@@ -1369,7 +1356,7 @@
       <c r="A65">
         <v>17.8</v>
       </c>
-      <c r="B65">
+      <c r="B65" s="3">
         <f t="shared" si="0"/>
         <v>62.952300000000001</v>
       </c>
@@ -1381,7 +1368,7 @@
       <c r="A66">
         <v>18.3</v>
       </c>
-      <c r="B66">
+      <c r="B66" s="3">
         <f t="shared" ref="B66:B129" si="1">_xlfn.IFS(A66&lt;=12,4.16*A66+0.0096,AND(A66&gt;12,A66&lt;=35.4),2.11*A66+25.3943,AND(A66&gt;35.4,A66&lt;=55.4),2.46*A66+13.706,AND(A66&gt;55.4,A66&lt;=150.4),0.516*A66+122.348,AND(A66&gt;150.4,A66&lt;=350.4),0.998*A66+50.621,AND(A66&gt;350.4,A66&lt;500.5),0.66*A66+169.507)</f>
         <v>64.007300000000001</v>
       </c>
@@ -1393,7 +1380,7 @@
       <c r="A67">
         <v>18.8</v>
       </c>
-      <c r="B67">
+      <c r="B67" s="3">
         <f t="shared" si="1"/>
         <v>65.062299999999993</v>
       </c>
@@ -1405,7 +1392,7 @@
       <c r="A68">
         <v>19.2</v>
       </c>
-      <c r="B68">
+      <c r="B68" s="3">
         <f t="shared" si="1"/>
         <v>65.906299999999987</v>
       </c>
@@ -1417,7 +1404,7 @@
       <c r="A69">
         <v>19.7</v>
       </c>
-      <c r="B69">
+      <c r="B69" s="3">
         <f t="shared" si="1"/>
         <v>66.961299999999994</v>
       </c>
@@ -1429,7 +1416,7 @@
       <c r="A70">
         <v>20.2</v>
       </c>
-      <c r="B70">
+      <c r="B70" s="3">
         <f t="shared" si="1"/>
         <v>68.016300000000001</v>
       </c>
@@ -1441,7 +1428,7 @@
       <c r="A71">
         <v>20.7</v>
       </c>
-      <c r="B71">
+      <c r="B71" s="3">
         <f t="shared" si="1"/>
         <v>69.071299999999994</v>
       </c>
@@ -1453,7 +1440,7 @@
       <c r="A72">
         <v>21.1</v>
       </c>
-      <c r="B72">
+      <c r="B72" s="3">
         <f t="shared" si="1"/>
         <v>69.915300000000002</v>
       </c>
@@ -1465,7 +1452,7 @@
       <c r="A73">
         <v>21.6</v>
       </c>
-      <c r="B73">
+      <c r="B73" s="3">
         <f t="shared" si="1"/>
         <v>70.970300000000009</v>
       </c>
@@ -1477,7 +1464,7 @@
       <c r="A74">
         <v>22.1</v>
       </c>
-      <c r="B74">
+      <c r="B74" s="3">
         <f t="shared" si="1"/>
         <v>72.025300000000001</v>
       </c>
@@ -1489,7 +1476,7 @@
       <c r="A75">
         <v>22.6</v>
       </c>
-      <c r="B75">
+      <c r="B75" s="3">
         <f t="shared" si="1"/>
         <v>73.080299999999994</v>
       </c>
@@ -1501,7 +1488,7 @@
       <c r="A76">
         <v>23</v>
       </c>
-      <c r="B76">
+      <c r="B76" s="3">
         <f t="shared" si="1"/>
         <v>73.924299999999988</v>
       </c>
@@ -1513,7 +1500,7 @@
       <c r="A77">
         <v>23.5</v>
       </c>
-      <c r="B77">
+      <c r="B77" s="3">
         <f t="shared" si="1"/>
         <v>74.979299999999995</v>
       </c>
@@ -1525,7 +1512,7 @@
       <c r="A78">
         <v>24</v>
       </c>
-      <c r="B78">
+      <c r="B78" s="3">
         <f t="shared" si="1"/>
         <v>76.034300000000002</v>
       </c>
@@ -1537,7 +1524,7 @@
       <c r="A79">
         <v>24.5</v>
       </c>
-      <c r="B79">
+      <c r="B79" s="3">
         <f t="shared" si="1"/>
         <v>77.089300000000009</v>
       </c>
@@ -1549,7 +1536,7 @@
       <c r="A80">
         <v>24.9</v>
       </c>
-      <c r="B80">
+      <c r="B80" s="3">
         <f t="shared" si="1"/>
         <v>77.933300000000003</v>
       </c>
@@ -1561,7 +1548,7 @@
       <c r="A81">
         <v>25.4</v>
       </c>
-      <c r="B81">
+      <c r="B81" s="3">
         <f t="shared" si="1"/>
         <v>78.988299999999995</v>
       </c>
@@ -1573,7 +1560,7 @@
       <c r="A82">
         <v>25.9</v>
       </c>
-      <c r="B82">
+      <c r="B82" s="3">
         <f t="shared" si="1"/>
         <v>80.043299999999988</v>
       </c>
@@ -1585,7 +1572,7 @@
       <c r="A83">
         <v>26.4</v>
       </c>
-      <c r="B83">
+      <c r="B83" s="3">
         <f t="shared" si="1"/>
         <v>81.098299999999995</v>
       </c>
@@ -1597,7 +1584,7 @@
       <c r="A84">
         <v>26.8</v>
       </c>
-      <c r="B84">
+      <c r="B84" s="3">
         <f t="shared" si="1"/>
         <v>81.942299999999989</v>
       </c>
@@ -1609,7 +1596,7 @@
       <c r="A85">
         <v>27.3</v>
       </c>
-      <c r="B85">
+      <c r="B85" s="3">
         <f t="shared" si="1"/>
         <v>82.997299999999996</v>
       </c>
@@ -1621,7 +1608,7 @@
       <c r="A86">
         <v>27.8</v>
       </c>
-      <c r="B86">
+      <c r="B86" s="3">
         <f t="shared" si="1"/>
         <v>84.052300000000002</v>
       </c>
@@ -1633,7 +1620,7 @@
       <c r="A87">
         <v>28.3</v>
       </c>
-      <c r="B87">
+      <c r="B87" s="3">
         <f t="shared" si="1"/>
         <v>85.107300000000009</v>
       </c>
@@ -1645,7 +1632,7 @@
       <c r="A88">
         <v>28.7</v>
       </c>
-      <c r="B88">
+      <c r="B88" s="3">
         <f t="shared" si="1"/>
         <v>85.951300000000003</v>
       </c>
@@ -1657,7 +1644,7 @@
       <c r="A89">
         <v>29.2</v>
       </c>
-      <c r="B89">
+      <c r="B89" s="3">
         <f t="shared" si="1"/>
         <v>87.006299999999996</v>
       </c>
@@ -1669,7 +1656,7 @@
       <c r="A90">
         <v>29.7</v>
       </c>
-      <c r="B90">
+      <c r="B90" s="3">
         <f t="shared" si="1"/>
         <v>88.061299999999989</v>
       </c>
@@ -1681,7 +1668,7 @@
       <c r="A91">
         <v>30.2</v>
       </c>
-      <c r="B91">
+      <c r="B91" s="3">
         <f t="shared" si="1"/>
         <v>89.116299999999995</v>
       </c>
@@ -1693,7 +1680,7 @@
       <c r="A92">
         <v>30.6</v>
       </c>
-      <c r="B92">
+      <c r="B92" s="3">
         <f t="shared" si="1"/>
         <v>89.960300000000004</v>
       </c>
@@ -1705,7 +1692,7 @@
       <c r="A93">
         <v>31.1</v>
       </c>
-      <c r="B93">
+      <c r="B93" s="3">
         <f t="shared" si="1"/>
         <v>91.015299999999996</v>
       </c>
@@ -1717,7 +1704,7 @@
       <c r="A94">
         <v>31.6</v>
       </c>
-      <c r="B94">
+      <c r="B94" s="3">
         <f t="shared" si="1"/>
         <v>92.070300000000003</v>
       </c>
@@ -1729,7 +1716,7 @@
       <c r="A95">
         <v>32.1</v>
       </c>
-      <c r="B95">
+      <c r="B95" s="3">
         <f t="shared" si="1"/>
         <v>93.125299999999996</v>
       </c>
@@ -1741,7 +1728,7 @@
       <c r="A96">
         <v>32.5</v>
       </c>
-      <c r="B96">
+      <c r="B96" s="3">
         <f t="shared" si="1"/>
         <v>93.969300000000004</v>
       </c>
@@ -1753,7 +1740,7 @@
       <c r="A97">
         <v>33</v>
       </c>
-      <c r="B97">
+      <c r="B97" s="3">
         <f t="shared" si="1"/>
         <v>95.024299999999997</v>
       </c>
@@ -1765,7 +1752,7 @@
       <c r="A98">
         <v>33.5</v>
       </c>
-      <c r="B98">
+      <c r="B98" s="3">
         <f t="shared" si="1"/>
         <v>96.079300000000003</v>
       </c>
@@ -1777,7 +1764,7 @@
       <c r="A99">
         <v>34</v>
       </c>
-      <c r="B99">
+      <c r="B99" s="3">
         <f t="shared" si="1"/>
         <v>97.134299999999996</v>
       </c>
@@ -1789,7 +1776,7 @@
       <c r="A100">
         <v>34.4</v>
       </c>
-      <c r="B100">
+      <c r="B100" s="3">
         <f t="shared" si="1"/>
         <v>97.97829999999999</v>
       </c>
@@ -1801,7 +1788,7 @@
       <c r="A101">
         <v>34.9</v>
       </c>
-      <c r="B101">
+      <c r="B101" s="3">
         <f t="shared" si="1"/>
         <v>99.033299999999997</v>
       </c>
@@ -1813,7 +1800,7 @@
       <c r="A102">
         <v>35.4</v>
       </c>
-      <c r="B102">
+      <c r="B102" s="3">
         <f t="shared" si="1"/>
         <v>100.08829999999999</v>
       </c>
@@ -1825,7 +1812,7 @@
       <c r="A103">
         <v>35.5</v>
       </c>
-      <c r="B103">
+      <c r="B103" s="3">
         <f t="shared" si="1"/>
         <v>101.036</v>
       </c>
@@ -1837,7 +1824,7 @@
       <c r="A104">
         <v>35.9</v>
       </c>
-      <c r="B104">
+      <c r="B104" s="3">
         <f t="shared" si="1"/>
         <v>102.02</v>
       </c>
@@ -1849,7 +1836,7 @@
       <c r="A105">
         <v>36.299999999999997</v>
       </c>
-      <c r="B105">
+      <c r="B105" s="3">
         <f t="shared" si="1"/>
         <v>103.00399999999999</v>
       </c>
@@ -1861,7 +1848,7 @@
       <c r="A106">
         <v>36.700000000000003</v>
       </c>
-      <c r="B106">
+      <c r="B106" s="3">
         <f t="shared" si="1"/>
         <v>103.98800000000001</v>
       </c>
@@ -1873,7 +1860,7 @@
       <c r="A107">
         <v>37.1</v>
       </c>
-      <c r="B107">
+      <c r="B107" s="3">
         <f t="shared" si="1"/>
         <v>104.97200000000001</v>
       </c>
@@ -1885,7 +1872,7 @@
       <c r="A108">
         <v>37.5</v>
       </c>
-      <c r="B108">
+      <c r="B108" s="3">
         <f t="shared" si="1"/>
         <v>105.956</v>
       </c>
@@ -1897,7 +1884,7 @@
       <c r="A109">
         <v>37.9</v>
       </c>
-      <c r="B109">
+      <c r="B109" s="3">
         <f t="shared" si="1"/>
         <v>106.94</v>
       </c>
@@ -1909,7 +1896,7 @@
       <c r="A110">
         <v>38.299999999999997</v>
       </c>
-      <c r="B110">
+      <c r="B110" s="3">
         <f t="shared" si="1"/>
         <v>107.92399999999999</v>
       </c>
@@ -1921,7 +1908,7 @@
       <c r="A111">
         <v>38.700000000000003</v>
       </c>
-      <c r="B111">
+      <c r="B111" s="3">
         <f t="shared" si="1"/>
         <v>108.90800000000002</v>
       </c>
@@ -1933,7 +1920,7 @@
       <c r="A112">
         <v>39.200000000000003</v>
       </c>
-      <c r="B112">
+      <c r="B112" s="3">
         <f t="shared" si="1"/>
         <v>110.13800000000001</v>
       </c>
@@ -1945,7 +1932,7 @@
       <c r="A113">
         <v>39.6</v>
       </c>
-      <c r="B113">
+      <c r="B113" s="3">
         <f t="shared" si="1"/>
         <v>111.122</v>
       </c>
@@ -1957,7 +1944,7 @@
       <c r="A114">
         <v>40</v>
       </c>
-      <c r="B114">
+      <c r="B114" s="3">
         <f t="shared" si="1"/>
         <v>112.10600000000001</v>
       </c>
@@ -1969,7 +1956,7 @@
       <c r="A115">
         <v>40.4</v>
       </c>
-      <c r="B115">
+      <c r="B115" s="3">
         <f t="shared" si="1"/>
         <v>113.09</v>
       </c>
@@ -1981,7 +1968,7 @@
       <c r="A116">
         <v>40.799999999999997</v>
       </c>
-      <c r="B116">
+      <c r="B116" s="3">
         <f t="shared" si="1"/>
         <v>114.074</v>
       </c>
@@ -1993,7 +1980,7 @@
       <c r="A117">
         <v>41.2</v>
       </c>
-      <c r="B117">
+      <c r="B117" s="3">
         <f t="shared" si="1"/>
         <v>115.05800000000001</v>
       </c>
@@ -2005,7 +1992,7 @@
       <c r="A118">
         <v>41.6</v>
       </c>
-      <c r="B118">
+      <c r="B118" s="3">
         <f t="shared" si="1"/>
         <v>116.042</v>
       </c>
@@ -2017,7 +2004,7 @@
       <c r="A119">
         <v>42</v>
       </c>
-      <c r="B119">
+      <c r="B119" s="3">
         <f t="shared" si="1"/>
         <v>117.026</v>
       </c>
@@ -2029,7 +2016,7 @@
       <c r="A120">
         <v>42.4</v>
       </c>
-      <c r="B120">
+      <c r="B120" s="3">
         <f t="shared" si="1"/>
         <v>118.01</v>
       </c>
@@ -2041,7 +2028,7 @@
       <c r="A121">
         <v>42.8</v>
       </c>
-      <c r="B121">
+      <c r="B121" s="3">
         <f t="shared" si="1"/>
         <v>118.994</v>
       </c>
@@ -2053,7 +2040,7 @@
       <c r="A122">
         <v>43.2</v>
       </c>
-      <c r="B122">
+      <c r="B122" s="3">
         <f t="shared" si="1"/>
         <v>119.97800000000001</v>
       </c>
@@ -2065,7 +2052,7 @@
       <c r="A123">
         <v>43.6</v>
       </c>
-      <c r="B123">
+      <c r="B123" s="3">
         <f t="shared" si="1"/>
         <v>120.962</v>
       </c>
@@ -2077,7 +2064,7 @@
       <c r="A124">
         <v>44</v>
       </c>
-      <c r="B124">
+      <c r="B124" s="3">
         <f t="shared" si="1"/>
         <v>121.946</v>
       </c>
@@ -2089,7 +2076,7 @@
       <c r="A125">
         <v>44.4</v>
       </c>
-      <c r="B125">
+      <c r="B125" s="3">
         <f t="shared" si="1"/>
         <v>122.92999999999999</v>
       </c>
@@ -2101,7 +2088,7 @@
       <c r="A126">
         <v>44.8</v>
       </c>
-      <c r="B126">
+      <c r="B126" s="3">
         <f t="shared" si="1"/>
         <v>123.914</v>
       </c>
@@ -2113,7 +2100,7 @@
       <c r="A127">
         <v>45.2</v>
       </c>
-      <c r="B127">
+      <c r="B127" s="3">
         <f t="shared" si="1"/>
         <v>124.89800000000001</v>
       </c>
@@ -2125,7 +2112,7 @@
       <c r="A128">
         <v>45.7</v>
       </c>
-      <c r="B128">
+      <c r="B128" s="3">
         <f t="shared" si="1"/>
         <v>126.12800000000001</v>
       </c>
@@ -2137,7 +2124,7 @@
       <c r="A129">
         <v>46.1</v>
       </c>
-      <c r="B129">
+      <c r="B129" s="3">
         <f t="shared" si="1"/>
         <v>127.11200000000001</v>
       </c>
@@ -2149,7 +2136,7 @@
       <c r="A130">
         <v>46.5</v>
       </c>
-      <c r="B130">
+      <c r="B130" s="3">
         <f t="shared" ref="B130:B193" si="2">_xlfn.IFS(A130&lt;=12,4.16*A130+0.0096,AND(A130&gt;12,A130&lt;=35.4),2.11*A130+25.3943,AND(A130&gt;35.4,A130&lt;=55.4),2.46*A130+13.706,AND(A130&gt;55.4,A130&lt;=150.4),0.516*A130+122.348,AND(A130&gt;150.4,A130&lt;=350.4),0.998*A130+50.621,AND(A130&gt;350.4,A130&lt;500.5),0.66*A130+169.507)</f>
         <v>128.096</v>
       </c>
@@ -2161,7 +2148,7 @@
       <c r="A131">
         <v>46.9</v>
       </c>
-      <c r="B131">
+      <c r="B131" s="3">
         <f t="shared" si="2"/>
         <v>129.07999999999998</v>
       </c>
@@ -2173,7 +2160,7 @@
       <c r="A132">
         <v>47.3</v>
       </c>
-      <c r="B132">
+      <c r="B132" s="3">
         <f t="shared" si="2"/>
         <v>130.06399999999999</v>
       </c>
@@ -2185,7 +2172,7 @@
       <c r="A133">
         <v>47.7</v>
       </c>
-      <c r="B133">
+      <c r="B133" s="3">
         <f t="shared" si="2"/>
         <v>131.048</v>
       </c>
@@ -2197,7 +2184,7 @@
       <c r="A134">
         <v>48.1</v>
       </c>
-      <c r="B134">
+      <c r="B134" s="3">
         <f t="shared" si="2"/>
         <v>132.03200000000001</v>
       </c>
@@ -2209,7 +2196,7 @@
       <c r="A135">
         <v>48.5</v>
       </c>
-      <c r="B135">
+      <c r="B135" s="3">
         <f t="shared" si="2"/>
         <v>133.01599999999999</v>
       </c>
@@ -2221,7 +2208,7 @@
       <c r="A136">
         <v>48.9</v>
       </c>
-      <c r="B136">
+      <c r="B136" s="3">
         <f t="shared" si="2"/>
         <v>134</v>
       </c>
@@ -2233,7 +2220,7 @@
       <c r="A137">
         <v>49.3</v>
       </c>
-      <c r="B137">
+      <c r="B137" s="3">
         <f t="shared" si="2"/>
         <v>134.98399999999998</v>
       </c>
@@ -2245,7 +2232,7 @@
       <c r="A138">
         <v>49.7</v>
       </c>
-      <c r="B138">
+      <c r="B138" s="3">
         <f t="shared" si="2"/>
         <v>135.96799999999999</v>
       </c>
@@ -2257,7 +2244,7 @@
       <c r="A139">
         <v>50.1</v>
       </c>
-      <c r="B139">
+      <c r="B139" s="3">
         <f t="shared" si="2"/>
         <v>136.952</v>
       </c>
@@ -2269,7 +2256,7 @@
       <c r="A140">
         <v>50.5</v>
       </c>
-      <c r="B140">
+      <c r="B140" s="3">
         <f t="shared" si="2"/>
         <v>137.93600000000001</v>
       </c>
@@ -2281,7 +2268,7 @@
       <c r="A141">
         <v>50.9</v>
       </c>
-      <c r="B141">
+      <c r="B141" s="3">
         <f t="shared" si="2"/>
         <v>138.91999999999999</v>
       </c>
@@ -2293,7 +2280,7 @@
       <c r="A142">
         <v>51.3</v>
       </c>
-      <c r="B142">
+      <c r="B142" s="3">
         <f t="shared" si="2"/>
         <v>139.904</v>
       </c>
@@ -2305,7 +2292,7 @@
       <c r="A143">
         <v>51.7</v>
       </c>
-      <c r="B143">
+      <c r="B143" s="3">
         <f t="shared" si="2"/>
         <v>140.88800000000001</v>
       </c>
@@ -2317,7 +2304,7 @@
       <c r="A144">
         <v>52.2</v>
       </c>
-      <c r="B144">
+      <c r="B144" s="3">
         <f t="shared" si="2"/>
         <v>142.11799999999999</v>
       </c>
@@ -2329,7 +2316,7 @@
       <c r="A145">
         <v>52.6</v>
       </c>
-      <c r="B145">
+      <c r="B145" s="3">
         <f t="shared" si="2"/>
         <v>143.102</v>
       </c>
@@ -2341,7 +2328,7 @@
       <c r="A146">
         <v>53</v>
       </c>
-      <c r="B146">
+      <c r="B146" s="3">
         <f t="shared" si="2"/>
         <v>144.08599999999998</v>
       </c>
@@ -2353,7 +2340,7 @@
       <c r="A147">
         <v>53.4</v>
       </c>
-      <c r="B147">
+      <c r="B147" s="3">
         <f t="shared" si="2"/>
         <v>145.07</v>
       </c>
@@ -2365,7 +2352,7 @@
       <c r="A148">
         <v>53.8</v>
       </c>
-      <c r="B148">
+      <c r="B148" s="3">
         <f t="shared" si="2"/>
         <v>146.05399999999997</v>
       </c>
@@ -2377,7 +2364,7 @@
       <c r="A149">
         <v>54.2</v>
       </c>
-      <c r="B149">
+      <c r="B149" s="3">
         <f t="shared" si="2"/>
         <v>147.03799999999998</v>
       </c>
@@ -2389,7 +2376,7 @@
       <c r="A150">
         <v>54.6</v>
       </c>
-      <c r="B150">
+      <c r="B150" s="3">
         <f t="shared" si="2"/>
         <v>148.02199999999999</v>
       </c>
@@ -2401,7 +2388,7 @@
       <c r="A151">
         <v>55</v>
       </c>
-      <c r="B151">
+      <c r="B151" s="3">
         <f t="shared" si="2"/>
         <v>149.006</v>
       </c>
@@ -2413,7 +2400,7 @@
       <c r="A152">
         <v>55.4</v>
       </c>
-      <c r="B152">
+      <c r="B152" s="3">
         <f t="shared" si="2"/>
         <v>149.98999999999998</v>
       </c>
@@ -2425,7 +2412,7 @@
       <c r="A153">
         <v>55.5</v>
       </c>
-      <c r="B153">
+      <c r="B153" s="3">
         <f t="shared" si="2"/>
         <v>150.98599999999999</v>
       </c>
@@ -2437,7 +2424,7 @@
       <c r="A154">
         <v>57.4</v>
       </c>
-      <c r="B154">
+      <c r="B154" s="3">
         <f t="shared" si="2"/>
         <v>151.96639999999999</v>
       </c>
@@ -2449,7 +2436,7 @@
       <c r="A155">
         <v>59.4</v>
       </c>
-      <c r="B155">
+      <c r="B155" s="3">
         <f t="shared" si="2"/>
         <v>152.9984</v>
       </c>
@@ -2461,7 +2448,7 @@
       <c r="A156">
         <v>61.3</v>
       </c>
-      <c r="B156">
+      <c r="B156" s="3">
         <f t="shared" si="2"/>
         <v>153.97880000000001</v>
       </c>
@@ -2473,7 +2460,7 @@
       <c r="A157">
         <v>63.2</v>
       </c>
-      <c r="B157">
+      <c r="B157" s="3">
         <f t="shared" si="2"/>
         <v>154.95920000000001</v>
       </c>
@@ -2485,7 +2472,7 @@
       <c r="A158">
         <v>65.2</v>
       </c>
-      <c r="B158">
+      <c r="B158" s="3">
         <f t="shared" si="2"/>
         <v>155.99119999999999</v>
       </c>
@@ -2497,7 +2484,7 @@
       <c r="A159">
         <v>67.099999999999994</v>
       </c>
-      <c r="B159">
+      <c r="B159" s="3">
         <f t="shared" si="2"/>
         <v>156.9716</v>
       </c>
@@ -2509,7 +2496,7 @@
       <c r="A160">
         <v>69.099999999999994</v>
       </c>
-      <c r="B160">
+      <c r="B160" s="3">
         <f t="shared" si="2"/>
         <v>158.00360000000001</v>
       </c>
@@ -2521,7 +2508,7 @@
       <c r="A161">
         <v>71</v>
       </c>
-      <c r="B161">
+      <c r="B161" s="3">
         <f t="shared" si="2"/>
         <v>158.98400000000001</v>
       </c>
@@ -2533,7 +2520,7 @@
       <c r="A162">
         <v>72.900000000000006</v>
       </c>
-      <c r="B162">
+      <c r="B162" s="3">
         <f t="shared" si="2"/>
         <v>159.96440000000001</v>
       </c>
@@ -2545,7 +2532,7 @@
       <c r="A163">
         <v>74.900000000000006</v>
       </c>
-      <c r="B163">
+      <c r="B163" s="3">
         <f t="shared" si="2"/>
         <v>160.99639999999999</v>
       </c>
@@ -2557,7 +2544,7 @@
       <c r="A164">
         <v>76.8</v>
       </c>
-      <c r="B164">
+      <c r="B164" s="3">
         <f t="shared" si="2"/>
         <v>161.9768</v>
       </c>
@@ -2569,7 +2556,7 @@
       <c r="A165">
         <v>78.7</v>
       </c>
-      <c r="B165">
+      <c r="B165" s="3">
         <f t="shared" si="2"/>
         <v>162.9572</v>
       </c>
@@ -2581,7 +2568,7 @@
       <c r="A166">
         <v>80.7</v>
       </c>
-      <c r="B166">
+      <c r="B166" s="3">
         <f t="shared" si="2"/>
         <v>163.98920000000001</v>
       </c>
@@ -2593,7 +2580,7 @@
       <c r="A167">
         <v>82.6</v>
       </c>
-      <c r="B167">
+      <c r="B167" s="3">
         <f t="shared" si="2"/>
         <v>164.96960000000001</v>
       </c>
@@ -2605,7 +2592,7 @@
       <c r="A168">
         <v>84.6</v>
       </c>
-      <c r="B168">
+      <c r="B168" s="3">
         <f t="shared" si="2"/>
         <v>166.0016</v>
       </c>
@@ -2617,7 +2604,7 @@
       <c r="A169">
         <v>86.5</v>
       </c>
-      <c r="B169">
+      <c r="B169" s="3">
         <f t="shared" si="2"/>
         <v>166.982</v>
       </c>
@@ -2629,7 +2616,7 @@
       <c r="A170">
         <v>88.4</v>
       </c>
-      <c r="B170">
+      <c r="B170" s="3">
         <f t="shared" si="2"/>
         <v>167.9624</v>
       </c>
@@ -2641,7 +2628,7 @@
       <c r="A171">
         <v>90.4</v>
       </c>
-      <c r="B171">
+      <c r="B171" s="3">
         <f t="shared" si="2"/>
         <v>168.99440000000001</v>
       </c>
@@ -2653,7 +2640,7 @@
       <c r="A172">
         <v>92.3</v>
       </c>
-      <c r="B172">
+      <c r="B172" s="3">
         <f t="shared" si="2"/>
         <v>169.97480000000002</v>
       </c>
@@ -2665,7 +2652,7 @@
       <c r="A173">
         <v>94.2</v>
       </c>
-      <c r="B173">
+      <c r="B173" s="3">
         <f t="shared" si="2"/>
         <v>170.95519999999999</v>
       </c>
@@ -2677,7 +2664,7 @@
       <c r="A174">
         <v>96.2</v>
       </c>
-      <c r="B174">
+      <c r="B174" s="3">
         <f t="shared" si="2"/>
         <v>171.9872</v>
       </c>
@@ -2689,7 +2676,7 @@
       <c r="A175">
         <v>98.1</v>
       </c>
-      <c r="B175">
+      <c r="B175" s="3">
         <f t="shared" si="2"/>
         <v>172.9676</v>
       </c>
@@ -2701,7 +2688,7 @@
       <c r="A176">
         <v>100</v>
       </c>
-      <c r="B176">
+      <c r="B176" s="3">
         <f t="shared" si="2"/>
         <v>173.94800000000001</v>
       </c>
@@ -2713,7 +2700,7 @@
       <c r="A177">
         <v>102</v>
       </c>
-      <c r="B177">
+      <c r="B177" s="3">
         <f t="shared" si="2"/>
         <v>174.98000000000002</v>
       </c>
@@ -2725,7 +2712,7 @@
       <c r="A178">
         <v>103.9</v>
       </c>
-      <c r="B178">
+      <c r="B178" s="3">
         <f t="shared" si="2"/>
         <v>175.96039999999999</v>
       </c>
@@ -2737,7 +2724,7 @@
       <c r="A179">
         <v>105.9</v>
       </c>
-      <c r="B179">
+      <c r="B179" s="3">
         <f t="shared" si="2"/>
         <v>176.9924</v>
       </c>
@@ -2749,7 +2736,7 @@
       <c r="A180">
         <v>107.8</v>
       </c>
-      <c r="B180">
+      <c r="B180" s="3">
         <f t="shared" si="2"/>
         <v>177.97280000000001</v>
       </c>
@@ -2761,7 +2748,7 @@
       <c r="A181">
         <v>109.7</v>
       </c>
-      <c r="B181">
+      <c r="B181" s="3">
         <f t="shared" si="2"/>
         <v>178.95320000000001</v>
       </c>
@@ -2773,7 +2760,7 @@
       <c r="A182">
         <v>111.7</v>
       </c>
-      <c r="B182">
+      <c r="B182" s="3">
         <f t="shared" si="2"/>
         <v>179.98519999999999</v>
       </c>
@@ -2785,7 +2772,7 @@
       <c r="A183">
         <v>113.6</v>
       </c>
-      <c r="B183">
+      <c r="B183" s="3">
         <f t="shared" si="2"/>
         <v>180.96559999999999</v>
       </c>
@@ -2797,7 +2784,7 @@
       <c r="A184">
         <v>115.5</v>
       </c>
-      <c r="B184">
+      <c r="B184" s="3">
         <f t="shared" si="2"/>
         <v>181.946</v>
       </c>
@@ -2809,7 +2796,7 @@
       <c r="A185">
         <v>117.5</v>
       </c>
-      <c r="B185">
+      <c r="B185" s="3">
         <f t="shared" si="2"/>
         <v>182.97800000000001</v>
       </c>
@@ -2821,7 +2808,7 @@
       <c r="A186">
         <v>119.4</v>
       </c>
-      <c r="B186">
+      <c r="B186" s="3">
         <f t="shared" si="2"/>
         <v>183.95840000000001</v>
       </c>
@@ -2833,7 +2820,7 @@
       <c r="A187">
         <v>121.3</v>
       </c>
-      <c r="B187">
+      <c r="B187" s="3">
         <f t="shared" si="2"/>
         <v>184.93880000000001</v>
       </c>
@@ -2845,7 +2832,7 @@
       <c r="A188">
         <v>123.3</v>
       </c>
-      <c r="B188">
+      <c r="B188" s="3">
         <f t="shared" si="2"/>
         <v>185.9708</v>
       </c>
@@ -2857,7 +2844,7 @@
       <c r="A189">
         <v>125.2</v>
       </c>
-      <c r="B189">
+      <c r="B189" s="3">
         <f t="shared" si="2"/>
         <v>186.9512</v>
       </c>
@@ -2869,7 +2856,7 @@
       <c r="A190">
         <v>127.2</v>
       </c>
-      <c r="B190">
+      <c r="B190" s="3">
         <f t="shared" si="2"/>
         <v>187.98320000000001</v>
       </c>
@@ -2881,7 +2868,7 @@
       <c r="A191">
         <v>129.1</v>
       </c>
-      <c r="B191">
+      <c r="B191" s="3">
         <f t="shared" si="2"/>
         <v>188.96359999999999</v>
       </c>
@@ -2893,7 +2880,7 @@
       <c r="A192">
         <v>131</v>
       </c>
-      <c r="B192">
+      <c r="B192" s="3">
         <f t="shared" si="2"/>
         <v>189.94400000000002</v>
       </c>
@@ -2905,7 +2892,7 @@
       <c r="A193">
         <v>133</v>
       </c>
-      <c r="B193">
+      <c r="B193" s="3">
         <f t="shared" si="2"/>
         <v>190.976</v>
       </c>
@@ -2917,7 +2904,7 @@
       <c r="A194">
         <v>134.9</v>
       </c>
-      <c r="B194">
+      <c r="B194" s="3">
         <f t="shared" ref="B194:B257" si="3">_xlfn.IFS(A194&lt;=12,4.16*A194+0.0096,AND(A194&gt;12,A194&lt;=35.4),2.11*A194+25.3943,AND(A194&gt;35.4,A194&lt;=55.4),2.46*A194+13.706,AND(A194&gt;55.4,A194&lt;=150.4),0.516*A194+122.348,AND(A194&gt;150.4,A194&lt;=350.4),0.998*A194+50.621,AND(A194&gt;350.4,A194&lt;500.5),0.66*A194+169.507)</f>
         <v>191.9564</v>
       </c>
@@ -2929,7 +2916,7 @@
       <c r="A195">
         <v>136.80000000000001</v>
       </c>
-      <c r="B195">
+      <c r="B195" s="3">
         <f t="shared" si="3"/>
         <v>192.93680000000001</v>
       </c>
@@ -2941,7 +2928,7 @@
       <c r="A196">
         <v>138.80000000000001</v>
       </c>
-      <c r="B196">
+      <c r="B196" s="3">
         <f t="shared" si="3"/>
         <v>193.96879999999999</v>
       </c>
@@ -2953,7 +2940,7 @@
       <c r="A197">
         <v>140.69999999999999</v>
       </c>
-      <c r="B197">
+      <c r="B197" s="3">
         <f t="shared" si="3"/>
         <v>194.94919999999999</v>
       </c>
@@ -2965,7 +2952,7 @@
       <c r="A198">
         <v>142.69999999999999</v>
       </c>
-      <c r="B198">
+      <c r="B198" s="3">
         <f t="shared" si="3"/>
         <v>195.9812</v>
       </c>
@@ -2977,7 +2964,7 @@
       <c r="A199">
         <v>144.6</v>
       </c>
-      <c r="B199">
+      <c r="B199" s="3">
         <f t="shared" si="3"/>
         <v>196.9616</v>
       </c>
@@ -2989,7 +2976,7 @@
       <c r="A200">
         <v>146.5</v>
       </c>
-      <c r="B200">
+      <c r="B200" s="3">
         <f t="shared" si="3"/>
         <v>197.94200000000001</v>
       </c>
@@ -3001,7 +2988,7 @@
       <c r="A201">
         <v>148.5</v>
       </c>
-      <c r="B201">
+      <c r="B201" s="3">
         <f t="shared" si="3"/>
         <v>198.97399999999999</v>
       </c>
@@ -3013,7 +3000,7 @@
       <c r="A202">
         <v>150.4</v>
       </c>
-      <c r="B202">
+      <c r="B202" s="3">
         <f t="shared" si="3"/>
         <v>199.95440000000002</v>
       </c>
@@ -3025,7 +3012,7 @@
       <c r="A203">
         <v>150.5</v>
       </c>
-      <c r="B203">
+      <c r="B203" s="3">
         <f t="shared" si="3"/>
         <v>200.82000000000002</v>
       </c>
@@ -3037,7 +3024,7 @@
       <c r="A204">
         <v>151.5</v>
       </c>
-      <c r="B204">
+      <c r="B204" s="3">
         <f t="shared" si="3"/>
         <v>201.81800000000001</v>
       </c>
@@ -3049,7 +3036,7 @@
       <c r="A205">
         <v>152.5</v>
       </c>
-      <c r="B205">
+      <c r="B205" s="3">
         <f t="shared" si="3"/>
         <v>202.816</v>
       </c>
@@ -3061,7 +3048,7 @@
       <c r="A206">
         <v>153.5</v>
       </c>
-      <c r="B206">
+      <c r="B206" s="3">
         <f t="shared" si="3"/>
         <v>203.81400000000002</v>
       </c>
@@ -3073,7 +3060,7 @@
       <c r="A207">
         <v>154.5</v>
       </c>
-      <c r="B207">
+      <c r="B207" s="3">
         <f t="shared" si="3"/>
         <v>204.81200000000001</v>
       </c>
@@ -3085,7 +3072,7 @@
       <c r="A208">
         <v>155.5</v>
       </c>
-      <c r="B208">
+      <c r="B208" s="3">
         <f t="shared" si="3"/>
         <v>205.81</v>
       </c>
@@ -3097,7 +3084,7 @@
       <c r="A209">
         <v>156.6</v>
       </c>
-      <c r="B209">
+      <c r="B209" s="3">
         <f t="shared" si="3"/>
         <v>206.90780000000001</v>
       </c>
@@ -3109,7 +3096,7 @@
       <c r="A210">
         <v>157.6</v>
       </c>
-      <c r="B210">
+      <c r="B210" s="3">
         <f t="shared" si="3"/>
         <v>207.9058</v>
       </c>
@@ -3121,7 +3108,7 @@
       <c r="A211">
         <v>158.6</v>
       </c>
-      <c r="B211">
+      <c r="B211" s="3">
         <f t="shared" si="3"/>
         <v>208.90379999999999</v>
       </c>
@@ -3133,7 +3120,7 @@
       <c r="A212">
         <v>159.6</v>
       </c>
-      <c r="B212">
+      <c r="B212" s="3">
         <f t="shared" si="3"/>
         <v>209.90180000000001</v>
       </c>
@@ -3145,7 +3132,7 @@
       <c r="A213">
         <v>160.6</v>
       </c>
-      <c r="B213">
+      <c r="B213" s="3">
         <f t="shared" si="3"/>
         <v>210.8998</v>
       </c>
@@ -3157,7 +3144,7 @@
       <c r="A214">
         <v>161.6</v>
       </c>
-      <c r="B214">
+      <c r="B214" s="3">
         <f t="shared" si="3"/>
         <v>211.89779999999999</v>
       </c>
@@ -3169,7 +3156,7 @@
       <c r="A215">
         <v>162.6</v>
       </c>
-      <c r="B215">
+      <c r="B215" s="3">
         <f t="shared" si="3"/>
         <v>212.89580000000001</v>
       </c>
@@ -3181,7 +3168,7 @@
       <c r="A216">
         <v>163.6</v>
       </c>
-      <c r="B216">
+      <c r="B216" s="3">
         <f t="shared" si="3"/>
         <v>213.8938</v>
       </c>
@@ -3193,7 +3180,7 @@
       <c r="A217">
         <v>164.6</v>
       </c>
-      <c r="B217">
+      <c r="B217" s="3">
         <f t="shared" si="3"/>
         <v>214.89179999999999</v>
       </c>
@@ -3205,7 +3192,7 @@
       <c r="A218">
         <v>165.6</v>
       </c>
-      <c r="B218">
+      <c r="B218" s="3">
         <f t="shared" si="3"/>
         <v>215.88980000000001</v>
       </c>
@@ -3217,7 +3204,7 @@
       <c r="A219">
         <v>166.6</v>
       </c>
-      <c r="B219">
+      <c r="B219" s="3">
         <f t="shared" si="3"/>
         <v>216.8878</v>
       </c>
@@ -3229,7 +3216,7 @@
       <c r="A220">
         <v>167.7</v>
       </c>
-      <c r="B220">
+      <c r="B220" s="3">
         <f t="shared" si="3"/>
         <v>217.98560000000001</v>
       </c>
@@ -3241,7 +3228,7 @@
       <c r="A221">
         <v>168.7</v>
       </c>
-      <c r="B221">
+      <c r="B221" s="3">
         <f t="shared" si="3"/>
         <v>218.9836</v>
       </c>
@@ -3253,7 +3240,7 @@
       <c r="A222">
         <v>169.7</v>
       </c>
-      <c r="B222">
+      <c r="B222" s="3">
         <f t="shared" si="3"/>
         <v>219.98159999999999</v>
       </c>
@@ -3265,7 +3252,7 @@
       <c r="A223">
         <v>170.7</v>
       </c>
-      <c r="B223">
+      <c r="B223" s="3">
         <f t="shared" si="3"/>
         <v>220.9796</v>
       </c>
@@ -3277,7 +3264,7 @@
       <c r="A224">
         <v>171.7</v>
       </c>
-      <c r="B224">
+      <c r="B224" s="3">
         <f t="shared" si="3"/>
         <v>221.9776</v>
       </c>
@@ -3289,7 +3276,7 @@
       <c r="A225">
         <v>172.7</v>
       </c>
-      <c r="B225">
+      <c r="B225" s="3">
         <f t="shared" si="3"/>
         <v>222.97559999999999</v>
       </c>
@@ -3301,7 +3288,7 @@
       <c r="A226">
         <v>173.7</v>
       </c>
-      <c r="B226">
+      <c r="B226" s="3">
         <f t="shared" si="3"/>
         <v>223.9736</v>
       </c>
@@ -3313,7 +3300,7 @@
       <c r="A227">
         <v>174.7</v>
       </c>
-      <c r="B227">
+      <c r="B227" s="3">
         <f t="shared" si="3"/>
         <v>224.9716</v>
       </c>
@@ -3325,7 +3312,7 @@
       <c r="A228">
         <v>175.7</v>
       </c>
-      <c r="B228">
+      <c r="B228" s="3">
         <f t="shared" si="3"/>
         <v>225.96959999999999</v>
       </c>
@@ -3337,7 +3324,7 @@
       <c r="A229">
         <v>176.7</v>
       </c>
-      <c r="B229">
+      <c r="B229" s="3">
         <f t="shared" si="3"/>
         <v>226.9676</v>
       </c>
@@ -3349,7 +3336,7 @@
       <c r="A230">
         <v>177.7</v>
       </c>
-      <c r="B230">
+      <c r="B230" s="3">
         <f t="shared" si="3"/>
         <v>227.96559999999999</v>
       </c>
@@ -3361,7 +3348,7 @@
       <c r="A231">
         <v>178.8</v>
       </c>
-      <c r="B231">
+      <c r="B231" s="3">
         <f t="shared" si="3"/>
         <v>229.06340000000003</v>
       </c>
@@ -3373,7 +3360,7 @@
       <c r="A232">
         <v>179.8</v>
       </c>
-      <c r="B232">
+      <c r="B232" s="3">
         <f t="shared" si="3"/>
         <v>230.06140000000002</v>
       </c>
@@ -3385,7 +3372,7 @@
       <c r="A233">
         <v>180.8</v>
       </c>
-      <c r="B233">
+      <c r="B233" s="3">
         <f t="shared" si="3"/>
         <v>231.05940000000001</v>
       </c>
@@ -3397,7 +3384,7 @@
       <c r="A234">
         <v>181.8</v>
       </c>
-      <c r="B234">
+      <c r="B234" s="3">
         <f t="shared" si="3"/>
         <v>232.05740000000003</v>
       </c>
@@ -3409,7 +3396,7 @@
       <c r="A235">
         <v>182.8</v>
       </c>
-      <c r="B235">
+      <c r="B235" s="3">
         <f t="shared" si="3"/>
         <v>233.05540000000002</v>
       </c>
@@ -3421,7 +3408,7 @@
       <c r="A236">
         <v>183.8</v>
       </c>
-      <c r="B236">
+      <c r="B236" s="3">
         <f t="shared" si="3"/>
         <v>234.05340000000001</v>
       </c>
@@ -3433,7 +3420,7 @@
       <c r="A237">
         <v>184.8</v>
       </c>
-      <c r="B237">
+      <c r="B237" s="3">
         <f t="shared" si="3"/>
         <v>235.05140000000003</v>
       </c>
@@ -3445,7 +3432,7 @@
       <c r="A238">
         <v>185.8</v>
       </c>
-      <c r="B238">
+      <c r="B238" s="3">
         <f t="shared" si="3"/>
         <v>236.04940000000002</v>
       </c>
@@ -3457,7 +3444,7 @@
       <c r="A239">
         <v>186.8</v>
       </c>
-      <c r="B239">
+      <c r="B239" s="3">
         <f t="shared" si="3"/>
         <v>237.04740000000001</v>
       </c>
@@ -3469,7 +3456,7 @@
       <c r="A240">
         <v>187.8</v>
       </c>
-      <c r="B240">
+      <c r="B240" s="3">
         <f t="shared" si="3"/>
         <v>238.04540000000003</v>
       </c>
@@ -3481,7 +3468,7 @@
       <c r="A241">
         <v>188.8</v>
       </c>
-      <c r="B241">
+      <c r="B241" s="3">
         <f t="shared" si="3"/>
         <v>239.04340000000002</v>
       </c>
@@ -3493,7 +3480,7 @@
       <c r="A242">
         <v>189.9</v>
       </c>
-      <c r="B242">
+      <c r="B242" s="3">
         <f t="shared" si="3"/>
         <v>240.14120000000003</v>
       </c>
@@ -3505,7 +3492,7 @@
       <c r="A243">
         <v>190.9</v>
       </c>
-      <c r="B243">
+      <c r="B243" s="3">
         <f t="shared" si="3"/>
         <v>241.13920000000002</v>
       </c>
@@ -3517,7 +3504,7 @@
       <c r="A244">
         <v>191.9</v>
       </c>
-      <c r="B244">
+      <c r="B244" s="3">
         <f t="shared" si="3"/>
         <v>242.13720000000001</v>
       </c>
@@ -3529,7 +3516,7 @@
       <c r="A245">
         <v>192.9</v>
       </c>
-      <c r="B245">
+      <c r="B245" s="3">
         <f t="shared" si="3"/>
         <v>243.13520000000003</v>
       </c>
@@ -3541,7 +3528,7 @@
       <c r="A246">
         <v>193.9</v>
       </c>
-      <c r="B246">
+      <c r="B246" s="3">
         <f t="shared" si="3"/>
         <v>244.13320000000002</v>
       </c>
@@ -3553,7 +3540,7 @@
       <c r="A247">
         <v>194.9</v>
       </c>
-      <c r="B247">
+      <c r="B247" s="3">
         <f t="shared" si="3"/>
         <v>245.13120000000001</v>
       </c>
@@ -3565,7 +3552,7 @@
       <c r="A248">
         <v>195.9</v>
       </c>
-      <c r="B248">
+      <c r="B248" s="3">
         <f t="shared" si="3"/>
         <v>246.12920000000003</v>
       </c>
@@ -3577,7 +3564,7 @@
       <c r="A249">
         <v>196.9</v>
       </c>
-      <c r="B249">
+      <c r="B249" s="3">
         <f t="shared" si="3"/>
         <v>247.12720000000002</v>
       </c>
@@ -3589,7 +3576,7 @@
       <c r="A250">
         <v>197.9</v>
       </c>
-      <c r="B250">
+      <c r="B250" s="3">
         <f t="shared" si="3"/>
         <v>248.12520000000001</v>
       </c>
@@ -3601,7 +3588,7 @@
       <c r="A251">
         <v>198.9</v>
       </c>
-      <c r="B251">
+      <c r="B251" s="3">
         <f t="shared" si="3"/>
         <v>249.12320000000003</v>
       </c>
@@ -3613,7 +3600,7 @@
       <c r="A252">
         <v>199.9</v>
       </c>
-      <c r="B252">
+      <c r="B252" s="3">
         <f t="shared" si="3"/>
         <v>250.12120000000002</v>
       </c>
@@ -3625,7 +3612,7 @@
       <c r="A253">
         <v>201</v>
       </c>
-      <c r="B253">
+      <c r="B253" s="3">
         <f t="shared" si="3"/>
         <v>251.21900000000002</v>
       </c>
@@ -3637,7 +3624,7 @@
       <c r="A254">
         <v>202</v>
       </c>
-      <c r="B254">
+      <c r="B254" s="3">
         <f t="shared" si="3"/>
         <v>252.21700000000001</v>
       </c>
@@ -3649,7 +3636,7 @@
       <c r="A255">
         <v>203</v>
       </c>
-      <c r="B255">
+      <c r="B255" s="3">
         <f t="shared" si="3"/>
         <v>253.215</v>
       </c>
@@ -3661,7 +3648,7 @@
       <c r="A256">
         <v>204</v>
       </c>
-      <c r="B256">
+      <c r="B256" s="3">
         <f t="shared" si="3"/>
         <v>254.21300000000002</v>
       </c>
@@ -3673,7 +3660,7 @@
       <c r="A257">
         <v>205</v>
       </c>
-      <c r="B257">
+      <c r="B257" s="3">
         <f t="shared" si="3"/>
         <v>255.21100000000001</v>
       </c>
@@ -3685,7 +3672,7 @@
       <c r="A258">
         <v>206</v>
       </c>
-      <c r="B258">
+      <c r="B258" s="3">
         <f t="shared" ref="B258:B321" si="4">_xlfn.IFS(A258&lt;=12,4.16*A258+0.0096,AND(A258&gt;12,A258&lt;=35.4),2.11*A258+25.3943,AND(A258&gt;35.4,A258&lt;=55.4),2.46*A258+13.706,AND(A258&gt;55.4,A258&lt;=150.4),0.516*A258+122.348,AND(A258&gt;150.4,A258&lt;=350.4),0.998*A258+50.621,AND(A258&gt;350.4,A258&lt;500.5),0.66*A258+169.507)</f>
         <v>256.209</v>
       </c>
@@ -3697,7 +3684,7 @@
       <c r="A259">
         <v>207</v>
       </c>
-      <c r="B259">
+      <c r="B259" s="3">
         <f t="shared" si="4"/>
         <v>257.20699999999999</v>
       </c>
@@ -3709,7 +3696,7 @@
       <c r="A260">
         <v>208</v>
       </c>
-      <c r="B260">
+      <c r="B260" s="3">
         <f t="shared" si="4"/>
         <v>258.20499999999998</v>
       </c>
@@ -3721,7 +3708,7 @@
       <c r="A261">
         <v>209</v>
       </c>
-      <c r="B261">
+      <c r="B261" s="3">
         <f t="shared" si="4"/>
         <v>259.20299999999997</v>
       </c>
@@ -3733,7 +3720,7 @@
       <c r="A262">
         <v>210</v>
       </c>
-      <c r="B262">
+      <c r="B262" s="3">
         <f t="shared" si="4"/>
         <v>260.20100000000002</v>
       </c>
@@ -3745,7 +3732,7 @@
       <c r="A263">
         <v>211</v>
       </c>
-      <c r="B263">
+      <c r="B263" s="3">
         <f t="shared" si="4"/>
         <v>261.19900000000001</v>
       </c>
@@ -3757,7 +3744,7 @@
       <c r="A264">
         <v>212.1</v>
       </c>
-      <c r="B264">
+      <c r="B264" s="3">
         <f t="shared" si="4"/>
         <v>262.29679999999996</v>
       </c>
@@ -3769,7 +3756,7 @@
       <c r="A265">
         <v>213.1</v>
       </c>
-      <c r="B265">
+      <c r="B265" s="3">
         <f t="shared" si="4"/>
         <v>263.29480000000001</v>
       </c>
@@ -3781,7 +3768,7 @@
       <c r="A266">
         <v>214.1</v>
       </c>
-      <c r="B266">
+      <c r="B266" s="3">
         <f t="shared" si="4"/>
         <v>264.2928</v>
       </c>
@@ -3793,7 +3780,7 @@
       <c r="A267">
         <v>215.1</v>
       </c>
-      <c r="B267">
+      <c r="B267" s="3">
         <f t="shared" si="4"/>
         <v>265.29079999999999</v>
       </c>
@@ -3805,7 +3792,7 @@
       <c r="A268">
         <v>216.1</v>
       </c>
-      <c r="B268">
+      <c r="B268" s="3">
         <f t="shared" si="4"/>
         <v>266.28879999999998</v>
       </c>
@@ -3817,7 +3804,7 @@
       <c r="A269">
         <v>217.1</v>
       </c>
-      <c r="B269">
+      <c r="B269" s="3">
         <f t="shared" si="4"/>
         <v>267.28679999999997</v>
       </c>
@@ -3829,7 +3816,7 @@
       <c r="A270">
         <v>218.1</v>
       </c>
-      <c r="B270">
+      <c r="B270" s="3">
         <f t="shared" si="4"/>
         <v>268.28479999999996</v>
       </c>
@@ -3841,7 +3828,7 @@
       <c r="A271">
         <v>219.1</v>
       </c>
-      <c r="B271">
+      <c r="B271" s="3">
         <f t="shared" si="4"/>
         <v>269.28280000000001</v>
       </c>
@@ -3853,7 +3840,7 @@
       <c r="A272">
         <v>220.1</v>
       </c>
-      <c r="B272">
+      <c r="B272" s="3">
         <f t="shared" si="4"/>
         <v>270.2808</v>
       </c>
@@ -3865,7 +3852,7 @@
       <c r="A273">
         <v>221.1</v>
       </c>
-      <c r="B273">
+      <c r="B273" s="3">
         <f t="shared" si="4"/>
         <v>271.27879999999999</v>
       </c>
@@ -3877,7 +3864,7 @@
       <c r="A274">
         <v>222.1</v>
       </c>
-      <c r="B274">
+      <c r="B274" s="3">
         <f t="shared" si="4"/>
         <v>272.27679999999998</v>
       </c>
@@ -3889,7 +3876,7 @@
       <c r="A275">
         <v>223.2</v>
       </c>
-      <c r="B275">
+      <c r="B275" s="3">
         <f t="shared" si="4"/>
         <v>273.37459999999999</v>
       </c>
@@ -3901,7 +3888,7 @@
       <c r="A276">
         <v>224.2</v>
       </c>
-      <c r="B276">
+      <c r="B276" s="3">
         <f t="shared" si="4"/>
         <v>274.37259999999998</v>
       </c>
@@ -3913,7 +3900,7 @@
       <c r="A277">
         <v>225.2</v>
       </c>
-      <c r="B277">
+      <c r="B277" s="3">
         <f t="shared" si="4"/>
         <v>275.37059999999997</v>
       </c>
@@ -3925,7 +3912,7 @@
       <c r="A278">
         <v>226.2</v>
       </c>
-      <c r="B278">
+      <c r="B278" s="3">
         <f t="shared" si="4"/>
         <v>276.36859999999996</v>
       </c>
@@ -3937,7 +3924,7 @@
       <c r="A279">
         <v>227.2</v>
       </c>
-      <c r="B279">
+      <c r="B279" s="3">
         <f t="shared" si="4"/>
         <v>277.36660000000001</v>
       </c>
@@ -3949,7 +3936,7 @@
       <c r="A280">
         <v>228.2</v>
       </c>
-      <c r="B280">
+      <c r="B280" s="3">
         <f t="shared" si="4"/>
         <v>278.3646</v>
       </c>
@@ -3961,7 +3948,7 @@
       <c r="A281">
         <v>229.2</v>
       </c>
-      <c r="B281">
+      <c r="B281" s="3">
         <f t="shared" si="4"/>
         <v>279.36259999999999</v>
       </c>
@@ -3973,7 +3960,7 @@
       <c r="A282">
         <v>230.2</v>
       </c>
-      <c r="B282">
+      <c r="B282" s="3">
         <f t="shared" si="4"/>
         <v>280.36059999999998</v>
       </c>
@@ -3985,7 +3972,7 @@
       <c r="A283">
         <v>231.2</v>
       </c>
-      <c r="B283">
+      <c r="B283" s="3">
         <f t="shared" si="4"/>
         <v>281.35859999999997</v>
       </c>
@@ -3997,7 +3984,7 @@
       <c r="A284">
         <v>232.2</v>
       </c>
-      <c r="B284">
+      <c r="B284" s="3">
         <f t="shared" si="4"/>
         <v>282.35659999999996</v>
       </c>
@@ -4009,7 +3996,7 @@
       <c r="A285">
         <v>233.2</v>
       </c>
-      <c r="B285">
+      <c r="B285" s="3">
         <f t="shared" si="4"/>
         <v>283.3546</v>
       </c>
@@ -4021,7 +4008,7 @@
       <c r="A286">
         <v>234.3</v>
       </c>
-      <c r="B286">
+      <c r="B286" s="3">
         <f t="shared" si="4"/>
         <v>284.45240000000001</v>
       </c>
@@ -4033,7 +4020,7 @@
       <c r="A287">
         <v>235.3</v>
       </c>
-      <c r="B287">
+      <c r="B287" s="3">
         <f t="shared" si="4"/>
         <v>285.4504</v>
       </c>
@@ -4045,7 +4032,7 @@
       <c r="A288">
         <v>236.3</v>
       </c>
-      <c r="B288">
+      <c r="B288" s="3">
         <f t="shared" si="4"/>
         <v>286.44839999999999</v>
       </c>
@@ -4057,7 +4044,7 @@
       <c r="A289">
         <v>237.3</v>
       </c>
-      <c r="B289">
+      <c r="B289" s="3">
         <f t="shared" si="4"/>
         <v>287.44639999999998</v>
       </c>
@@ -4069,7 +4056,7 @@
       <c r="A290">
         <v>238.3</v>
       </c>
-      <c r="B290">
+      <c r="B290" s="3">
         <f t="shared" si="4"/>
         <v>288.44440000000003</v>
       </c>
@@ -4081,7 +4068,7 @@
       <c r="A291">
         <v>239.3</v>
       </c>
-      <c r="B291">
+      <c r="B291" s="3">
         <f t="shared" si="4"/>
         <v>289.44240000000002</v>
       </c>
@@ -4093,7 +4080,7 @@
       <c r="A292">
         <v>240.3</v>
       </c>
-      <c r="B292">
+      <c r="B292" s="3">
         <f t="shared" si="4"/>
         <v>290.44040000000001</v>
       </c>
@@ -4105,7 +4092,7 @@
       <c r="A293">
         <v>241.3</v>
       </c>
-      <c r="B293">
+      <c r="B293" s="3">
         <f t="shared" si="4"/>
         <v>291.4384</v>
       </c>
@@ -4117,7 +4104,7 @@
       <c r="A294">
         <v>242.3</v>
       </c>
-      <c r="B294">
+      <c r="B294" s="3">
         <f t="shared" si="4"/>
         <v>292.43639999999999</v>
       </c>
@@ -4129,7 +4116,7 @@
       <c r="A295">
         <v>243.3</v>
       </c>
-      <c r="B295">
+      <c r="B295" s="3">
         <f t="shared" si="4"/>
         <v>293.43439999999998</v>
       </c>
@@ -4141,7 +4128,7 @@
       <c r="A296">
         <v>244.3</v>
       </c>
-      <c r="B296">
+      <c r="B296" s="3">
         <f t="shared" si="4"/>
         <v>294.43240000000003</v>
       </c>
@@ -4153,7 +4140,7 @@
       <c r="A297">
         <v>245.4</v>
       </c>
-      <c r="B297">
+      <c r="B297" s="3">
         <f t="shared" si="4"/>
         <v>295.53019999999998</v>
       </c>
@@ -4165,7 +4152,7 @@
       <c r="A298">
         <v>246.4</v>
       </c>
-      <c r="B298">
+      <c r="B298" s="3">
         <f t="shared" si="4"/>
         <v>296.52820000000003</v>
       </c>
@@ -4177,7 +4164,7 @@
       <c r="A299">
         <v>247.4</v>
       </c>
-      <c r="B299">
+      <c r="B299" s="3">
         <f t="shared" si="4"/>
         <v>297.52620000000002</v>
       </c>
@@ -4189,7 +4176,7 @@
       <c r="A300">
         <v>248.4</v>
       </c>
-      <c r="B300">
+      <c r="B300" s="3">
         <f t="shared" si="4"/>
         <v>298.52420000000001</v>
       </c>
@@ -4201,7 +4188,7 @@
       <c r="A301">
         <v>249.4</v>
       </c>
-      <c r="B301">
+      <c r="B301" s="3">
         <f t="shared" si="4"/>
         <v>299.5222</v>
       </c>
@@ -4213,7 +4200,7 @@
       <c r="A302">
         <v>250.4</v>
       </c>
-      <c r="B302">
+      <c r="B302" s="3">
         <f t="shared" si="4"/>
         <v>300.52019999999999</v>
       </c>
@@ -4225,7 +4212,7 @@
       <c r="A303">
         <v>250.5</v>
       </c>
-      <c r="B303">
+      <c r="B303" s="3">
         <f t="shared" si="4"/>
         <v>300.62</v>
       </c>
@@ -4237,7 +4224,7 @@
       <c r="A304">
         <v>251.5</v>
       </c>
-      <c r="B304">
+      <c r="B304" s="3">
         <f t="shared" si="4"/>
         <v>301.61799999999999</v>
       </c>
@@ -4249,7 +4236,7 @@
       <c r="A305">
         <v>252.5</v>
       </c>
-      <c r="B305">
+      <c r="B305" s="3">
         <f t="shared" si="4"/>
         <v>302.61599999999999</v>
       </c>
@@ -4261,7 +4248,7 @@
       <c r="A306">
         <v>253.5</v>
       </c>
-      <c r="B306">
+      <c r="B306" s="3">
         <f t="shared" si="4"/>
         <v>303.61399999999998</v>
       </c>
@@ -4273,7 +4260,7 @@
       <c r="A307">
         <v>254.5</v>
       </c>
-      <c r="B307">
+      <c r="B307" s="3">
         <f t="shared" si="4"/>
         <v>304.61199999999997</v>
       </c>
@@ -4285,7 +4272,7 @@
       <c r="A308">
         <v>255.5</v>
       </c>
-      <c r="B308">
+      <c r="B308" s="3">
         <f t="shared" si="4"/>
         <v>305.61</v>
       </c>
@@ -4297,7 +4284,7 @@
       <c r="A309">
         <v>256.60000000000002</v>
       </c>
-      <c r="B309">
+      <c r="B309" s="3">
         <f t="shared" si="4"/>
         <v>306.70780000000002</v>
       </c>
@@ -4309,7 +4296,7 @@
       <c r="A310">
         <v>257.60000000000002</v>
       </c>
-      <c r="B310">
+      <c r="B310" s="3">
         <f t="shared" si="4"/>
         <v>307.70580000000001</v>
       </c>
@@ -4321,7 +4308,7 @@
       <c r="A311">
         <v>258.60000000000002</v>
       </c>
-      <c r="B311">
+      <c r="B311" s="3">
         <f t="shared" si="4"/>
         <v>308.7038</v>
       </c>
@@ -4333,7 +4320,7 @@
       <c r="A312">
         <v>259.60000000000002</v>
       </c>
-      <c r="B312">
+      <c r="B312" s="3">
         <f t="shared" si="4"/>
         <v>309.70179999999999</v>
       </c>
@@ -4345,7 +4332,7 @@
       <c r="A313">
         <v>260.60000000000002</v>
       </c>
-      <c r="B313">
+      <c r="B313" s="3">
         <f t="shared" si="4"/>
         <v>310.69979999999998</v>
       </c>
@@ -4357,7 +4344,7 @@
       <c r="A314">
         <v>261.60000000000002</v>
       </c>
-      <c r="B314">
+      <c r="B314" s="3">
         <f t="shared" si="4"/>
         <v>311.69780000000003</v>
       </c>
@@ -4369,7 +4356,7 @@
       <c r="A315">
         <v>262.60000000000002</v>
       </c>
-      <c r="B315">
+      <c r="B315" s="3">
         <f t="shared" si="4"/>
         <v>312.69580000000002</v>
       </c>
@@ -4381,7 +4368,7 @@
       <c r="A316">
         <v>263.60000000000002</v>
       </c>
-      <c r="B316">
+      <c r="B316" s="3">
         <f t="shared" si="4"/>
         <v>313.69380000000001</v>
       </c>
@@ -4393,7 +4380,7 @@
       <c r="A317">
         <v>264.60000000000002</v>
       </c>
-      <c r="B317">
+      <c r="B317" s="3">
         <f t="shared" si="4"/>
         <v>314.6918</v>
       </c>
@@ -4405,7 +4392,7 @@
       <c r="A318">
         <v>265.60000000000002</v>
       </c>
-      <c r="B318">
+      <c r="B318" s="3">
         <f t="shared" si="4"/>
         <v>315.68979999999999</v>
       </c>
@@ -4417,7 +4404,7 @@
       <c r="A319">
         <v>266.60000000000002</v>
       </c>
-      <c r="B319">
+      <c r="B319" s="3">
         <f t="shared" si="4"/>
         <v>316.68779999999998</v>
       </c>
@@ -4429,7 +4416,7 @@
       <c r="A320">
         <v>267.7</v>
       </c>
-      <c r="B320">
+      <c r="B320" s="3">
         <f t="shared" si="4"/>
         <v>317.78559999999999</v>
       </c>
@@ -4441,7 +4428,7 @@
       <c r="A321">
         <v>268.7</v>
       </c>
-      <c r="B321">
+      <c r="B321" s="3">
         <f t="shared" si="4"/>
         <v>318.78359999999998</v>
       </c>
@@ -4453,7 +4440,7 @@
       <c r="A322">
         <v>269.7</v>
       </c>
-      <c r="B322">
+      <c r="B322" s="3">
         <f t="shared" ref="B322:B385" si="5">_xlfn.IFS(A322&lt;=12,4.16*A322+0.0096,AND(A322&gt;12,A322&lt;=35.4),2.11*A322+25.3943,AND(A322&gt;35.4,A322&lt;=55.4),2.46*A322+13.706,AND(A322&gt;55.4,A322&lt;=150.4),0.516*A322+122.348,AND(A322&gt;150.4,A322&lt;=350.4),0.998*A322+50.621,AND(A322&gt;350.4,A322&lt;500.5),0.66*A322+169.507)</f>
         <v>319.78159999999997</v>
       </c>
@@ -4465,7 +4452,7 @@
       <c r="A323">
         <v>270.7</v>
       </c>
-      <c r="B323">
+      <c r="B323" s="3">
         <f t="shared" si="5"/>
         <v>320.77959999999996</v>
       </c>
@@ -4477,7 +4464,7 @@
       <c r="A324">
         <v>271.7</v>
       </c>
-      <c r="B324">
+      <c r="B324" s="3">
         <f t="shared" si="5"/>
         <v>321.77759999999995</v>
       </c>
@@ -4489,7 +4476,7 @@
       <c r="A325">
         <v>272.7</v>
       </c>
-      <c r="B325">
+      <c r="B325" s="3">
         <f t="shared" si="5"/>
         <v>322.7756</v>
       </c>
@@ -4501,7 +4488,7 @@
       <c r="A326">
         <v>273.7</v>
       </c>
-      <c r="B326">
+      <c r="B326" s="3">
         <f t="shared" si="5"/>
         <v>323.77359999999999</v>
       </c>
@@ -4513,7 +4500,7 @@
       <c r="A327">
         <v>274.7</v>
       </c>
-      <c r="B327">
+      <c r="B327" s="3">
         <f t="shared" si="5"/>
         <v>324.77159999999998</v>
       </c>
@@ -4525,7 +4512,7 @@
       <c r="A328">
         <v>275.7</v>
       </c>
-      <c r="B328">
+      <c r="B328" s="3">
         <f t="shared" si="5"/>
         <v>325.76959999999997</v>
       </c>
@@ -4537,7 +4524,7 @@
       <c r="A329">
         <v>276.7</v>
       </c>
-      <c r="B329">
+      <c r="B329" s="3">
         <f t="shared" si="5"/>
         <v>326.76759999999996</v>
       </c>
@@ -4549,7 +4536,7 @@
       <c r="A330">
         <v>277.7</v>
       </c>
-      <c r="B330">
+      <c r="B330" s="3">
         <f t="shared" si="5"/>
         <v>327.76559999999995</v>
       </c>
@@ -4561,7 +4548,7 @@
       <c r="A331">
         <v>278.8</v>
       </c>
-      <c r="B331">
+      <c r="B331" s="3">
         <f t="shared" si="5"/>
         <v>328.86340000000001</v>
       </c>
@@ -4573,7 +4560,7 @@
       <c r="A332">
         <v>279.8</v>
       </c>
-      <c r="B332">
+      <c r="B332" s="3">
         <f t="shared" si="5"/>
         <v>329.8614</v>
       </c>
@@ -4585,7 +4572,7 @@
       <c r="A333">
         <v>280.8</v>
       </c>
-      <c r="B333">
+      <c r="B333" s="3">
         <f t="shared" si="5"/>
         <v>330.85939999999999</v>
       </c>
@@ -4597,7 +4584,7 @@
       <c r="A334">
         <v>281.8</v>
       </c>
-      <c r="B334">
+      <c r="B334" s="3">
         <f t="shared" si="5"/>
         <v>331.85739999999998</v>
       </c>
@@ -4609,7 +4596,7 @@
       <c r="A335">
         <v>282.8</v>
       </c>
-      <c r="B335">
+      <c r="B335" s="3">
         <f t="shared" si="5"/>
         <v>332.85539999999997</v>
       </c>
@@ -4621,7 +4608,7 @@
       <c r="A336">
         <v>283.8</v>
       </c>
-      <c r="B336">
+      <c r="B336" s="3">
         <f t="shared" si="5"/>
         <v>333.85339999999997</v>
       </c>
@@ -4633,7 +4620,7 @@
       <c r="A337">
         <v>284.8</v>
       </c>
-      <c r="B337">
+      <c r="B337" s="3">
         <f t="shared" si="5"/>
         <v>334.85140000000001</v>
       </c>
@@ -4645,7 +4632,7 @@
       <c r="A338">
         <v>285.8</v>
       </c>
-      <c r="B338">
+      <c r="B338" s="3">
         <f t="shared" si="5"/>
         <v>335.8494</v>
       </c>
@@ -4657,7 +4644,7 @@
       <c r="A339">
         <v>286.8</v>
       </c>
-      <c r="B339">
+      <c r="B339" s="3">
         <f t="shared" si="5"/>
         <v>336.84739999999999</v>
       </c>
@@ -4669,7 +4656,7 @@
       <c r="A340">
         <v>287.8</v>
       </c>
-      <c r="B340">
+      <c r="B340" s="3">
         <f t="shared" si="5"/>
         <v>337.84539999999998</v>
       </c>
@@ -4681,7 +4668,7 @@
       <c r="A341">
         <v>288.8</v>
       </c>
-      <c r="B341">
+      <c r="B341" s="3">
         <f t="shared" si="5"/>
         <v>338.84339999999997</v>
       </c>
@@ -4693,7 +4680,7 @@
       <c r="A342">
         <v>289.89999999999998</v>
       </c>
-      <c r="B342">
+      <c r="B342" s="3">
         <f t="shared" si="5"/>
         <v>339.94119999999998</v>
       </c>
@@ -4705,7 +4692,7 @@
       <c r="A343">
         <v>290.89999999999998</v>
       </c>
-      <c r="B343">
+      <c r="B343" s="3">
         <f t="shared" si="5"/>
         <v>340.93919999999997</v>
       </c>
@@ -4717,7 +4704,7 @@
       <c r="A344">
         <v>291.89999999999998</v>
       </c>
-      <c r="B344">
+      <c r="B344" s="3">
         <f t="shared" si="5"/>
         <v>341.93719999999996</v>
       </c>
@@ -4729,7 +4716,7 @@
       <c r="A345">
         <v>292.89999999999998</v>
       </c>
-      <c r="B345">
+      <c r="B345" s="3">
         <f t="shared" si="5"/>
         <v>342.93519999999995</v>
       </c>
@@ -4741,7 +4728,7 @@
       <c r="A346">
         <v>293.89999999999998</v>
       </c>
-      <c r="B346">
+      <c r="B346" s="3">
         <f t="shared" si="5"/>
         <v>343.93319999999994</v>
       </c>
@@ -4753,7 +4740,7 @@
       <c r="A347">
         <v>294.89999999999998</v>
       </c>
-      <c r="B347">
+      <c r="B347" s="3">
         <f t="shared" si="5"/>
         <v>344.93119999999993</v>
       </c>
@@ -4765,7 +4752,7 @@
       <c r="A348">
         <v>295.89999999999998</v>
       </c>
-      <c r="B348">
+      <c r="B348" s="3">
         <f t="shared" si="5"/>
         <v>345.92919999999998</v>
       </c>
@@ -4777,7 +4764,7 @@
       <c r="A349">
         <v>296.89999999999998</v>
       </c>
-      <c r="B349">
+      <c r="B349" s="3">
         <f t="shared" si="5"/>
         <v>346.92719999999997</v>
       </c>
@@ -4789,7 +4776,7 @@
       <c r="A350">
         <v>297.89999999999998</v>
       </c>
-      <c r="B350">
+      <c r="B350" s="3">
         <f t="shared" si="5"/>
         <v>347.92519999999996</v>
       </c>
@@ -4801,7 +4788,7 @@
       <c r="A351">
         <v>298.89999999999998</v>
       </c>
-      <c r="B351">
+      <c r="B351" s="3">
         <f t="shared" si="5"/>
         <v>348.92319999999995</v>
       </c>
@@ -4813,7 +4800,7 @@
       <c r="A352">
         <v>299.89999999999998</v>
       </c>
-      <c r="B352">
+      <c r="B352" s="3">
         <f t="shared" si="5"/>
         <v>349.92119999999994</v>
       </c>
@@ -4825,7 +4812,7 @@
       <c r="A353">
         <v>301</v>
       </c>
-      <c r="B353">
+      <c r="B353" s="3">
         <f t="shared" si="5"/>
         <v>351.01900000000001</v>
       </c>
@@ -4837,7 +4824,7 @@
       <c r="A354">
         <v>302</v>
       </c>
-      <c r="B354">
+      <c r="B354" s="3">
         <f t="shared" si="5"/>
         <v>352.017</v>
       </c>
@@ -4849,7 +4836,7 @@
       <c r="A355">
         <v>303</v>
       </c>
-      <c r="B355">
+      <c r="B355" s="3">
         <f t="shared" si="5"/>
         <v>353.01499999999999</v>
       </c>
@@ -4861,7 +4848,7 @@
       <c r="A356">
         <v>304</v>
       </c>
-      <c r="B356">
+      <c r="B356" s="3">
         <f t="shared" si="5"/>
         <v>354.01299999999998</v>
       </c>
@@ -4873,7 +4860,7 @@
       <c r="A357">
         <v>305</v>
       </c>
-      <c r="B357">
+      <c r="B357" s="3">
         <f t="shared" si="5"/>
         <v>355.01099999999997</v>
       </c>
@@ -4885,7 +4872,7 @@
       <c r="A358">
         <v>306</v>
       </c>
-      <c r="B358">
+      <c r="B358" s="3">
         <f t="shared" si="5"/>
         <v>356.00899999999996</v>
       </c>
@@ -4897,7 +4884,7 @@
       <c r="A359">
         <v>307</v>
       </c>
-      <c r="B359">
+      <c r="B359" s="3">
         <f t="shared" si="5"/>
         <v>357.00700000000001</v>
       </c>
@@ -4909,7 +4896,7 @@
       <c r="A360">
         <v>308</v>
       </c>
-      <c r="B360">
+      <c r="B360" s="3">
         <f t="shared" si="5"/>
         <v>358.005</v>
       </c>
@@ -4921,7 +4908,7 @@
       <c r="A361">
         <v>309</v>
       </c>
-      <c r="B361">
+      <c r="B361" s="3">
         <f t="shared" si="5"/>
         <v>359.00299999999999</v>
       </c>
@@ -4933,7 +4920,7 @@
       <c r="A362">
         <v>310</v>
       </c>
-      <c r="B362">
+      <c r="B362" s="3">
         <f t="shared" si="5"/>
         <v>360.00099999999998</v>
       </c>
@@ -4945,7 +4932,7 @@
       <c r="A363">
         <v>311</v>
       </c>
-      <c r="B363">
+      <c r="B363" s="3">
         <f t="shared" si="5"/>
         <v>360.99899999999997</v>
       </c>
@@ -4957,7 +4944,7 @@
       <c r="A364">
         <v>312.10000000000002</v>
       </c>
-      <c r="B364">
+      <c r="B364" s="3">
         <f t="shared" si="5"/>
         <v>362.09680000000003</v>
       </c>
@@ -4969,7 +4956,7 @@
       <c r="A365">
         <v>313.10000000000002</v>
       </c>
-      <c r="B365">
+      <c r="B365" s="3">
         <f t="shared" si="5"/>
         <v>363.09480000000002</v>
       </c>
@@ -4981,7 +4968,7 @@
       <c r="A366">
         <v>314.10000000000002</v>
       </c>
-      <c r="B366">
+      <c r="B366" s="3">
         <f t="shared" si="5"/>
         <v>364.09280000000001</v>
       </c>
@@ -4993,7 +4980,7 @@
       <c r="A367">
         <v>315.10000000000002</v>
       </c>
-      <c r="B367">
+      <c r="B367" s="3">
         <f t="shared" si="5"/>
         <v>365.0908</v>
       </c>
@@ -5005,7 +4992,7 @@
       <c r="A368">
         <v>316.10000000000002</v>
       </c>
-      <c r="B368">
+      <c r="B368" s="3">
         <f t="shared" si="5"/>
         <v>366.08879999999999</v>
       </c>
@@ -5017,7 +5004,7 @@
       <c r="A369">
         <v>317.10000000000002</v>
       </c>
-      <c r="B369">
+      <c r="B369" s="3">
         <f t="shared" si="5"/>
         <v>367.08679999999998</v>
       </c>
@@ -5029,7 +5016,7 @@
       <c r="A370">
         <v>318.10000000000002</v>
       </c>
-      <c r="B370">
+      <c r="B370" s="3">
         <f t="shared" si="5"/>
         <v>368.08480000000003</v>
       </c>
@@ -5041,7 +5028,7 @@
       <c r="A371">
         <v>319.10000000000002</v>
       </c>
-      <c r="B371">
+      <c r="B371" s="3">
         <f t="shared" si="5"/>
         <v>369.08280000000002</v>
       </c>
@@ -5053,7 +5040,7 @@
       <c r="A372">
         <v>320.10000000000002</v>
       </c>
-      <c r="B372">
+      <c r="B372" s="3">
         <f t="shared" si="5"/>
         <v>370.08080000000001</v>
       </c>
@@ -5065,7 +5052,7 @@
       <c r="A373">
         <v>321.10000000000002</v>
       </c>
-      <c r="B373">
+      <c r="B373" s="3">
         <f t="shared" si="5"/>
         <v>371.0788</v>
       </c>
@@ -5077,7 +5064,7 @@
       <c r="A374">
         <v>322.10000000000002</v>
       </c>
-      <c r="B374">
+      <c r="B374" s="3">
         <f t="shared" si="5"/>
         <v>372.07679999999999</v>
       </c>
@@ -5089,7 +5076,7 @@
       <c r="A375">
         <v>323.2</v>
       </c>
-      <c r="B375">
+      <c r="B375" s="3">
         <f t="shared" si="5"/>
         <v>373.17459999999994</v>
       </c>
@@ -5101,7 +5088,7 @@
       <c r="A376">
         <v>324.2</v>
       </c>
-      <c r="B376">
+      <c r="B376" s="3">
         <f t="shared" si="5"/>
         <v>374.17259999999999</v>
       </c>
@@ -5113,7 +5100,7 @@
       <c r="A377">
         <v>325.2</v>
       </c>
-      <c r="B377">
+      <c r="B377" s="3">
         <f t="shared" si="5"/>
         <v>375.17059999999998</v>
       </c>
@@ -5125,7 +5112,7 @@
       <c r="A378">
         <v>326.2</v>
       </c>
-      <c r="B378">
+      <c r="B378" s="3">
         <f t="shared" si="5"/>
         <v>376.16859999999997</v>
       </c>
@@ -5137,7 +5124,7 @@
       <c r="A379">
         <v>327.2</v>
       </c>
-      <c r="B379">
+      <c r="B379" s="3">
         <f t="shared" si="5"/>
         <v>377.16659999999996</v>
       </c>
@@ -5149,7 +5136,7 @@
       <c r="A380">
         <v>328.2</v>
       </c>
-      <c r="B380">
+      <c r="B380" s="3">
         <f t="shared" si="5"/>
         <v>378.16459999999995</v>
       </c>
@@ -5161,7 +5148,7 @@
       <c r="A381">
         <v>329.2</v>
       </c>
-      <c r="B381">
+      <c r="B381" s="3">
         <f t="shared" si="5"/>
         <v>379.16259999999994</v>
       </c>
@@ -5173,7 +5160,7 @@
       <c r="A382">
         <v>330.2</v>
       </c>
-      <c r="B382">
+      <c r="B382" s="3">
         <f t="shared" si="5"/>
         <v>380.16059999999999</v>
       </c>
@@ -5185,7 +5172,7 @@
       <c r="A383">
         <v>331.2</v>
       </c>
-      <c r="B383">
+      <c r="B383" s="3">
         <f t="shared" si="5"/>
         <v>381.15859999999998</v>
       </c>
@@ -5197,7 +5184,7 @@
       <c r="A384">
         <v>332.2</v>
       </c>
-      <c r="B384">
+      <c r="B384" s="3">
         <f t="shared" si="5"/>
         <v>382.15659999999997</v>
       </c>
@@ -5209,7 +5196,7 @@
       <c r="A385">
         <v>333.2</v>
       </c>
-      <c r="B385">
+      <c r="B385" s="3">
         <f t="shared" si="5"/>
         <v>383.15459999999996</v>
       </c>
@@ -5221,7 +5208,7 @@
       <c r="A386">
         <v>334.3</v>
       </c>
-      <c r="B386">
+      <c r="B386" s="3">
         <f t="shared" ref="B386:B449" si="6">_xlfn.IFS(A386&lt;=12,4.16*A386+0.0096,AND(A386&gt;12,A386&lt;=35.4),2.11*A386+25.3943,AND(A386&gt;35.4,A386&lt;=55.4),2.46*A386+13.706,AND(A386&gt;55.4,A386&lt;=150.4),0.516*A386+122.348,AND(A386&gt;150.4,A386&lt;=350.4),0.998*A386+50.621,AND(A386&gt;350.4,A386&lt;500.5),0.66*A386+169.507)</f>
         <v>384.25239999999997</v>
       </c>
@@ -5233,7 +5220,7 @@
       <c r="A387">
         <v>335.3</v>
       </c>
-      <c r="B387">
+      <c r="B387" s="3">
         <f t="shared" si="6"/>
         <v>385.25040000000001</v>
       </c>
@@ -5245,7 +5232,7 @@
       <c r="A388">
         <v>336.3</v>
       </c>
-      <c r="B388">
+      <c r="B388" s="3">
         <f t="shared" si="6"/>
         <v>386.2484</v>
       </c>
@@ -5257,7 +5244,7 @@
       <c r="A389">
         <v>337.3</v>
       </c>
-      <c r="B389">
+      <c r="B389" s="3">
         <f t="shared" si="6"/>
         <v>387.24639999999999</v>
       </c>
@@ -5269,7 +5256,7 @@
       <c r="A390">
         <v>338.3</v>
       </c>
-      <c r="B390">
+      <c r="B390" s="3">
         <f t="shared" si="6"/>
         <v>388.24439999999998</v>
       </c>
@@ -5281,7 +5268,7 @@
       <c r="A391">
         <v>339.3</v>
       </c>
-      <c r="B391">
+      <c r="B391" s="3">
         <f t="shared" si="6"/>
         <v>389.24239999999998</v>
       </c>
@@ -5293,7 +5280,7 @@
       <c r="A392">
         <v>340.3</v>
       </c>
-      <c r="B392">
+      <c r="B392" s="3">
         <f t="shared" si="6"/>
         <v>390.24039999999997</v>
       </c>
@@ -5305,7 +5292,7 @@
       <c r="A393">
         <v>341.3</v>
       </c>
-      <c r="B393">
+      <c r="B393" s="3">
         <f t="shared" si="6"/>
         <v>391.23840000000001</v>
       </c>
@@ -5317,7 +5304,7 @@
       <c r="A394">
         <v>342.3</v>
       </c>
-      <c r="B394">
+      <c r="B394" s="3">
         <f t="shared" si="6"/>
         <v>392.2364</v>
       </c>
@@ -5329,7 +5316,7 @@
       <c r="A395">
         <v>343.3</v>
       </c>
-      <c r="B395">
+      <c r="B395" s="3">
         <f t="shared" si="6"/>
         <v>393.23439999999999</v>
       </c>
@@ -5341,7 +5328,7 @@
       <c r="A396">
         <v>344.3</v>
       </c>
-      <c r="B396">
+      <c r="B396" s="3">
         <f t="shared" si="6"/>
         <v>394.23239999999998</v>
       </c>
@@ -5353,7 +5340,7 @@
       <c r="A397">
         <v>345.4</v>
       </c>
-      <c r="B397">
+      <c r="B397" s="3">
         <f t="shared" si="6"/>
         <v>395.33019999999993</v>
       </c>
@@ -5365,7 +5352,7 @@
       <c r="A398">
         <v>346.4</v>
       </c>
-      <c r="B398">
+      <c r="B398" s="3">
         <f t="shared" si="6"/>
         <v>396.32819999999998</v>
       </c>
@@ -5377,7 +5364,7 @@
       <c r="A399">
         <v>347.4</v>
       </c>
-      <c r="B399">
+      <c r="B399" s="3">
         <f t="shared" si="6"/>
         <v>397.32619999999997</v>
       </c>
@@ -5389,7 +5376,7 @@
       <c r="A400">
         <v>348.4</v>
       </c>
-      <c r="B400">
+      <c r="B400" s="3">
         <f t="shared" si="6"/>
         <v>398.32419999999996</v>
       </c>
@@ -5401,7 +5388,7 @@
       <c r="A401">
         <v>349.4</v>
       </c>
-      <c r="B401">
+      <c r="B401" s="3">
         <f t="shared" si="6"/>
         <v>399.32219999999995</v>
       </c>
@@ -5413,7 +5400,7 @@
       <c r="A402">
         <v>350.4</v>
       </c>
-      <c r="B402">
+      <c r="B402" s="3">
         <f t="shared" si="6"/>
         <v>400.32019999999994</v>
       </c>
@@ -5425,7 +5412,7 @@
       <c r="A403">
         <v>350.5</v>
       </c>
-      <c r="B403">
+      <c r="B403" s="3">
         <f t="shared" si="6"/>
         <v>400.83699999999999</v>
       </c>
@@ -5437,7 +5424,7 @@
       <c r="A404">
         <v>352</v>
       </c>
-      <c r="B404">
+      <c r="B404" s="3">
         <f t="shared" si="6"/>
         <v>401.827</v>
       </c>
@@ -5449,7 +5436,7 @@
       <c r="A405">
         <v>353.5</v>
       </c>
-      <c r="B405">
+      <c r="B405" s="3">
         <f t="shared" si="6"/>
         <v>402.81700000000001</v>
       </c>
@@ -5461,7 +5448,7 @@
       <c r="A406">
         <v>355</v>
       </c>
-      <c r="B406">
+      <c r="B406" s="3">
         <f t="shared" si="6"/>
         <v>403.80700000000002</v>
       </c>
@@ -5473,7 +5460,7 @@
       <c r="A407">
         <v>356.6</v>
       </c>
-      <c r="B407">
+      <c r="B407" s="3">
         <f t="shared" si="6"/>
         <v>404.86300000000006</v>
       </c>
@@ -5485,7 +5472,7 @@
       <c r="A408">
         <v>358.1</v>
       </c>
-      <c r="B408">
+      <c r="B408" s="3">
         <f t="shared" si="6"/>
         <v>405.85300000000007</v>
       </c>
@@ -5497,7 +5484,7 @@
       <c r="A409">
         <v>359.6</v>
       </c>
-      <c r="B409">
+      <c r="B409" s="3">
         <f t="shared" si="6"/>
         <v>406.84300000000002</v>
       </c>
@@ -5509,7 +5496,7 @@
       <c r="A410">
         <v>361.1</v>
       </c>
-      <c r="B410">
+      <c r="B410" s="3">
         <f t="shared" si="6"/>
         <v>407.83300000000003</v>
       </c>
@@ -5521,7 +5508,7 @@
       <c r="A411">
         <v>362.6</v>
       </c>
-      <c r="B411">
+      <c r="B411" s="3">
         <f t="shared" si="6"/>
         <v>408.82300000000004</v>
       </c>
@@ -5533,7 +5520,7 @@
       <c r="A412">
         <v>364.1</v>
       </c>
-      <c r="B412">
+      <c r="B412" s="3">
         <f t="shared" si="6"/>
         <v>409.81300000000005</v>
       </c>
@@ -5545,7 +5532,7 @@
       <c r="A413">
         <v>365.6</v>
       </c>
-      <c r="B413">
+      <c r="B413" s="3">
         <f t="shared" si="6"/>
         <v>410.803</v>
       </c>
@@ -5557,7 +5544,7 @@
       <c r="A414">
         <v>367.2</v>
       </c>
-      <c r="B414">
+      <c r="B414" s="3">
         <f t="shared" si="6"/>
         <v>411.85900000000004</v>
       </c>
@@ -5569,7 +5556,7 @@
       <c r="A415">
         <v>368.7</v>
       </c>
-      <c r="B415">
+      <c r="B415" s="3">
         <f t="shared" si="6"/>
         <v>412.84900000000005</v>
       </c>
@@ -5581,7 +5568,7 @@
       <c r="A416">
         <v>370.2</v>
       </c>
-      <c r="B416">
+      <c r="B416" s="3">
         <f t="shared" si="6"/>
         <v>413.839</v>
       </c>
@@ -5593,7 +5580,7 @@
       <c r="A417">
         <v>371.7</v>
       </c>
-      <c r="B417">
+      <c r="B417" s="3">
         <f t="shared" si="6"/>
         <v>414.82900000000001</v>
       </c>
@@ -5605,7 +5592,7 @@
       <c r="A418">
         <v>373.2</v>
       </c>
-      <c r="B418">
+      <c r="B418" s="3">
         <f t="shared" si="6"/>
         <v>415.81900000000002</v>
       </c>
@@ -5617,7 +5604,7 @@
       <c r="A419">
         <v>374.7</v>
       </c>
-      <c r="B419">
+      <c r="B419" s="3">
         <f t="shared" si="6"/>
         <v>416.80899999999997</v>
       </c>
@@ -5629,7 +5616,7 @@
       <c r="A420">
         <v>376.2</v>
       </c>
-      <c r="B420">
+      <c r="B420" s="3">
         <f t="shared" si="6"/>
         <v>417.79899999999998</v>
       </c>
@@ -5641,7 +5628,7 @@
       <c r="A421">
         <v>377.8</v>
       </c>
-      <c r="B421">
+      <c r="B421" s="3">
         <f t="shared" si="6"/>
         <v>418.85500000000002</v>
       </c>
@@ -5653,7 +5640,7 @@
       <c r="A422">
         <v>379.3</v>
       </c>
-      <c r="B422">
+      <c r="B422" s="3">
         <f t="shared" si="6"/>
         <v>419.84500000000003</v>
       </c>
@@ -5665,7 +5652,7 @@
       <c r="A423">
         <v>380.8</v>
       </c>
-      <c r="B423">
+      <c r="B423" s="3">
         <f t="shared" si="6"/>
         <v>420.83500000000004</v>
       </c>
@@ -5677,7 +5664,7 @@
       <c r="A424">
         <v>382.3</v>
       </c>
-      <c r="B424">
+      <c r="B424" s="3">
         <f t="shared" si="6"/>
         <v>421.82500000000005</v>
       </c>
@@ -5689,7 +5676,7 @@
       <c r="A425">
         <v>383.8</v>
       </c>
-      <c r="B425">
+      <c r="B425" s="3">
         <f t="shared" si="6"/>
         <v>422.81500000000005</v>
       </c>
@@ -5701,7 +5688,7 @@
       <c r="A426">
         <v>385.3</v>
       </c>
-      <c r="B426">
+      <c r="B426" s="3">
         <f t="shared" si="6"/>
         <v>423.80500000000006</v>
       </c>
@@ -5713,7 +5700,7 @@
       <c r="A427">
         <v>386.8</v>
       </c>
-      <c r="B427">
+      <c r="B427" s="3">
         <f t="shared" si="6"/>
         <v>424.79500000000002</v>
       </c>
@@ -5725,7 +5712,7 @@
       <c r="A428">
         <v>388.4</v>
       </c>
-      <c r="B428">
+      <c r="B428" s="3">
         <f t="shared" si="6"/>
         <v>425.851</v>
       </c>
@@ -5737,7 +5724,7 @@
       <c r="A429">
         <v>389.9</v>
       </c>
-      <c r="B429">
+      <c r="B429" s="3">
         <f t="shared" si="6"/>
         <v>426.84100000000001</v>
       </c>
@@ -5749,7 +5736,7 @@
       <c r="A430">
         <v>391.4</v>
       </c>
-      <c r="B430">
+      <c r="B430" s="3">
         <f t="shared" si="6"/>
         <v>427.83100000000002</v>
       </c>
@@ -5761,7 +5748,7 @@
       <c r="A431">
         <v>392.9</v>
       </c>
-      <c r="B431">
+      <c r="B431" s="3">
         <f t="shared" si="6"/>
         <v>428.82100000000003</v>
       </c>
@@ -5773,7 +5760,7 @@
       <c r="A432">
         <v>394.4</v>
       </c>
-      <c r="B432">
+      <c r="B432" s="3">
         <f t="shared" si="6"/>
         <v>429.81099999999998</v>
       </c>
@@ -5785,7 +5772,7 @@
       <c r="A433">
         <v>395.9</v>
       </c>
-      <c r="B433">
+      <c r="B433" s="3">
         <f t="shared" si="6"/>
         <v>430.80099999999999</v>
       </c>
@@ -5797,7 +5784,7 @@
       <c r="A434">
         <v>397.4</v>
       </c>
-      <c r="B434">
+      <c r="B434" s="3">
         <f t="shared" si="6"/>
         <v>431.791</v>
       </c>
@@ -5809,7 +5796,7 @@
       <c r="A435">
         <v>399</v>
       </c>
-      <c r="B435">
+      <c r="B435" s="3">
         <f t="shared" si="6"/>
         <v>432.84700000000004</v>
       </c>
@@ -5821,7 +5808,7 @@
       <c r="A436">
         <v>400.5</v>
       </c>
-      <c r="B436">
+      <c r="B436" s="3">
         <f t="shared" si="6"/>
         <v>433.83699999999999</v>
       </c>
@@ -5833,7 +5820,7 @@
       <c r="A437">
         <v>402</v>
       </c>
-      <c r="B437">
+      <c r="B437" s="3">
         <f t="shared" si="6"/>
         <v>434.827</v>
       </c>
@@ -5845,7 +5832,7 @@
       <c r="A438">
         <v>403.5</v>
       </c>
-      <c r="B438">
+      <c r="B438" s="3">
         <f t="shared" si="6"/>
         <v>435.81700000000001</v>
       </c>
@@ -5857,7 +5844,7 @@
       <c r="A439">
         <v>405</v>
       </c>
-      <c r="B439">
+      <c r="B439" s="3">
         <f t="shared" si="6"/>
         <v>436.80700000000002</v>
       </c>
@@ -5869,7 +5856,7 @@
       <c r="A440">
         <v>406.5</v>
       </c>
-      <c r="B440">
+      <c r="B440" s="3">
         <f t="shared" si="6"/>
         <v>437.79700000000003</v>
       </c>
@@ -5881,7 +5868,7 @@
       <c r="A441">
         <v>408</v>
       </c>
-      <c r="B441">
+      <c r="B441" s="3">
         <f t="shared" si="6"/>
         <v>438.78700000000003</v>
       </c>
@@ -5893,7 +5880,7 @@
       <c r="A442">
         <v>409.6</v>
       </c>
-      <c r="B442">
+      <c r="B442" s="3">
         <f t="shared" si="6"/>
         <v>439.84300000000002</v>
       </c>
@@ -5905,7 +5892,7 @@
       <c r="A443">
         <v>411.1</v>
       </c>
-      <c r="B443">
+      <c r="B443" s="3">
         <f t="shared" si="6"/>
         <v>440.83300000000003</v>
       </c>
@@ -5917,7 +5904,7 @@
       <c r="A444">
         <v>412.6</v>
       </c>
-      <c r="B444">
+      <c r="B444" s="3">
         <f t="shared" si="6"/>
         <v>441.82300000000004</v>
       </c>
@@ -5929,7 +5916,7 @@
       <c r="A445">
         <v>414.1</v>
       </c>
-      <c r="B445">
+      <c r="B445" s="3">
         <f t="shared" si="6"/>
         <v>442.81300000000005</v>
       </c>
@@ -5941,7 +5928,7 @@
       <c r="A446">
         <v>415.6</v>
       </c>
-      <c r="B446">
+      <c r="B446" s="3">
         <f t="shared" si="6"/>
         <v>443.80300000000005</v>
       </c>
@@ -5953,7 +5940,7 @@
       <c r="A447">
         <v>417.1</v>
       </c>
-      <c r="B447">
+      <c r="B447" s="3">
         <f t="shared" si="6"/>
         <v>444.79300000000001</v>
       </c>
@@ -5965,7 +5952,7 @@
       <c r="A448">
         <v>418.6</v>
       </c>
-      <c r="B448">
+      <c r="B448" s="3">
         <f t="shared" si="6"/>
         <v>445.78300000000002</v>
       </c>
@@ -5977,7 +5964,7 @@
       <c r="A449">
         <v>420.2</v>
       </c>
-      <c r="B449">
+      <c r="B449" s="3">
         <f t="shared" si="6"/>
         <v>446.839</v>
       </c>
@@ -5989,7 +5976,7 @@
       <c r="A450">
         <v>421.7</v>
       </c>
-      <c r="B450">
+      <c r="B450" s="3">
         <f t="shared" ref="B450:B502" si="7">_xlfn.IFS(A450&lt;=12,4.16*A450+0.0096,AND(A450&gt;12,A450&lt;=35.4),2.11*A450+25.3943,AND(A450&gt;35.4,A450&lt;=55.4),2.46*A450+13.706,AND(A450&gt;55.4,A450&lt;=150.4),0.516*A450+122.348,AND(A450&gt;150.4,A450&lt;=350.4),0.998*A450+50.621,AND(A450&gt;350.4,A450&lt;500.5),0.66*A450+169.507)</f>
         <v>447.82900000000001</v>
       </c>
@@ -6001,7 +5988,7 @@
       <c r="A451">
         <v>423.2</v>
       </c>
-      <c r="B451">
+      <c r="B451" s="3">
         <f t="shared" si="7"/>
         <v>448.81900000000002</v>
       </c>
@@ -6013,7 +6000,7 @@
       <c r="A452">
         <v>424.7</v>
       </c>
-      <c r="B452">
+      <c r="B452" s="3">
         <f t="shared" si="7"/>
         <v>449.80900000000003</v>
       </c>
@@ -6025,7 +6012,7 @@
       <c r="A453">
         <v>426.2</v>
       </c>
-      <c r="B453">
+      <c r="B453" s="3">
         <f t="shared" si="7"/>
         <v>450.79900000000004</v>
       </c>
@@ -6037,7 +6024,7 @@
       <c r="A454">
         <v>427.7</v>
       </c>
-      <c r="B454">
+      <c r="B454" s="3">
         <f t="shared" si="7"/>
         <v>451.78899999999999</v>
       </c>
@@ -6049,7 +6036,7 @@
       <c r="A455">
         <v>429.2</v>
       </c>
-      <c r="B455">
+      <c r="B455" s="3">
         <f t="shared" si="7"/>
         <v>452.779</v>
       </c>
@@ -6061,7 +6048,7 @@
       <c r="A456">
         <v>430.7</v>
       </c>
-      <c r="B456">
+      <c r="B456" s="3">
         <f t="shared" si="7"/>
         <v>453.76900000000001</v>
       </c>
@@ -6073,7 +6060,7 @@
       <c r="A457">
         <v>432.3</v>
       </c>
-      <c r="B457">
+      <c r="B457" s="3">
         <f t="shared" si="7"/>
         <v>454.82500000000005</v>
       </c>
@@ -6085,7 +6072,7 @@
       <c r="A458">
         <v>433.8</v>
       </c>
-      <c r="B458">
+      <c r="B458" s="3">
         <f t="shared" si="7"/>
         <v>455.815</v>
       </c>
@@ -6097,7 +6084,7 @@
       <c r="A459">
         <v>435.3</v>
       </c>
-      <c r="B459">
+      <c r="B459" s="3">
         <f t="shared" si="7"/>
         <v>456.80500000000001</v>
       </c>
@@ -6109,7 +6096,7 @@
       <c r="A460">
         <v>436.8</v>
       </c>
-      <c r="B460">
+      <c r="B460" s="3">
         <f t="shared" si="7"/>
         <v>457.79500000000002</v>
       </c>
@@ -6121,7 +6108,7 @@
       <c r="A461">
         <v>438.3</v>
       </c>
-      <c r="B461">
+      <c r="B461" s="3">
         <f t="shared" si="7"/>
         <v>458.78500000000003</v>
       </c>
@@ -6133,7 +6120,7 @@
       <c r="A462">
         <v>439.8</v>
       </c>
-      <c r="B462">
+      <c r="B462" s="3">
         <f t="shared" si="7"/>
         <v>459.77500000000003</v>
       </c>
@@ -6145,7 +6132,7 @@
       <c r="A463">
         <v>441.3</v>
       </c>
-      <c r="B463">
+      <c r="B463" s="3">
         <f t="shared" si="7"/>
         <v>460.76500000000004</v>
       </c>
@@ -6157,7 +6144,7 @@
       <c r="A464">
         <v>442.9</v>
       </c>
-      <c r="B464">
+      <c r="B464" s="3">
         <f t="shared" si="7"/>
         <v>461.82100000000003</v>
       </c>
@@ -6169,7 +6156,7 @@
       <c r="A465">
         <v>444.4</v>
       </c>
-      <c r="B465">
+      <c r="B465" s="3">
         <f t="shared" si="7"/>
         <v>462.81099999999998</v>
       </c>
@@ -6181,7 +6168,7 @@
       <c r="A466">
         <v>445.9</v>
       </c>
-      <c r="B466">
+      <c r="B466" s="3">
         <f t="shared" si="7"/>
         <v>463.80099999999999</v>
       </c>
@@ -6193,7 +6180,7 @@
       <c r="A467">
         <v>447.4</v>
       </c>
-      <c r="B467">
+      <c r="B467" s="3">
         <f t="shared" si="7"/>
         <v>464.791</v>
       </c>
@@ -6205,7 +6192,7 @@
       <c r="A468">
         <v>448.9</v>
       </c>
-      <c r="B468">
+      <c r="B468" s="3">
         <f t="shared" si="7"/>
         <v>465.78100000000001</v>
       </c>
@@ -6217,7 +6204,7 @@
       <c r="A469">
         <v>450.4</v>
       </c>
-      <c r="B469">
+      <c r="B469" s="3">
         <f t="shared" si="7"/>
         <v>466.77100000000002</v>
       </c>
@@ -6229,7 +6216,7 @@
       <c r="A470">
         <v>451.9</v>
       </c>
-      <c r="B470">
+      <c r="B470" s="3">
         <f t="shared" si="7"/>
         <v>467.76100000000002</v>
       </c>
@@ -6241,7 +6228,7 @@
       <c r="A471">
         <v>453.5</v>
       </c>
-      <c r="B471">
+      <c r="B471" s="3">
         <f t="shared" si="7"/>
         <v>468.81700000000001</v>
       </c>
@@ -6253,7 +6240,7 @@
       <c r="A472">
         <v>455</v>
       </c>
-      <c r="B472">
+      <c r="B472" s="3">
         <f t="shared" si="7"/>
         <v>469.80700000000002</v>
       </c>
@@ -6265,7 +6252,7 @@
       <c r="A473">
         <v>456.5</v>
       </c>
-      <c r="B473">
+      <c r="B473" s="3">
         <f t="shared" si="7"/>
         <v>470.79700000000003</v>
       </c>
@@ -6277,7 +6264,7 @@
       <c r="A474">
         <v>458</v>
       </c>
-      <c r="B474">
+      <c r="B474" s="3">
         <f t="shared" si="7"/>
         <v>471.78700000000003</v>
       </c>
@@ -6289,7 +6276,7 @@
       <c r="A475">
         <v>459.5</v>
       </c>
-      <c r="B475">
+      <c r="B475" s="3">
         <f t="shared" si="7"/>
         <v>472.77700000000004</v>
       </c>
@@ -6301,7 +6288,7 @@
       <c r="A476">
         <v>461</v>
       </c>
-      <c r="B476">
+      <c r="B476" s="3">
         <f t="shared" si="7"/>
         <v>473.767</v>
       </c>
@@ -6313,7 +6300,7 @@
       <c r="A477">
         <v>462.5</v>
       </c>
-      <c r="B477">
+      <c r="B477" s="3">
         <f t="shared" si="7"/>
         <v>474.75700000000001</v>
       </c>
@@ -6325,7 +6312,7 @@
       <c r="A478">
         <v>464.1</v>
       </c>
-      <c r="B478">
+      <c r="B478" s="3">
         <f t="shared" si="7"/>
         <v>475.81300000000005</v>
       </c>
@@ -6337,7 +6324,7 @@
       <c r="A479">
         <v>465.6</v>
       </c>
-      <c r="B479">
+      <c r="B479" s="3">
         <f t="shared" si="7"/>
         <v>476.80300000000005</v>
       </c>
@@ -6349,7 +6336,7 @@
       <c r="A480">
         <v>467.1</v>
       </c>
-      <c r="B480">
+      <c r="B480" s="3">
         <f t="shared" si="7"/>
         <v>477.79300000000001</v>
       </c>
@@ -6361,7 +6348,7 @@
       <c r="A481">
         <v>468.6</v>
       </c>
-      <c r="B481">
+      <c r="B481" s="3">
         <f t="shared" si="7"/>
         <v>478.78300000000002</v>
       </c>
@@ -6373,7 +6360,7 @@
       <c r="A482">
         <v>470.1</v>
       </c>
-      <c r="B482">
+      <c r="B482" s="3">
         <f t="shared" si="7"/>
         <v>479.77300000000002</v>
       </c>
@@ -6385,7 +6372,7 @@
       <c r="A483">
         <v>471.6</v>
       </c>
-      <c r="B483">
+      <c r="B483" s="3">
         <f t="shared" si="7"/>
         <v>480.76300000000003</v>
       </c>
@@ -6397,7 +6384,7 @@
       <c r="A484">
         <v>473.1</v>
       </c>
-      <c r="B484">
+      <c r="B484" s="3">
         <f t="shared" si="7"/>
         <v>481.75300000000004</v>
       </c>
@@ -6409,7 +6396,7 @@
       <c r="A485">
         <v>474.7</v>
       </c>
-      <c r="B485">
+      <c r="B485" s="3">
         <f t="shared" si="7"/>
         <v>482.80900000000003</v>
       </c>
@@ -6421,7 +6408,7 @@
       <c r="A486">
         <v>476.2</v>
       </c>
-      <c r="B486">
+      <c r="B486" s="3">
         <f t="shared" si="7"/>
         <v>483.79900000000004</v>
       </c>
@@ -6433,7 +6420,7 @@
       <c r="A487">
         <v>477.7</v>
       </c>
-      <c r="B487">
+      <c r="B487" s="3">
         <f t="shared" si="7"/>
         <v>484.78899999999999</v>
       </c>
@@ -6445,7 +6432,7 @@
       <c r="A488">
         <v>479.2</v>
       </c>
-      <c r="B488">
+      <c r="B488" s="3">
         <f t="shared" si="7"/>
         <v>485.779</v>
       </c>
@@ -6457,7 +6444,7 @@
       <c r="A489">
         <v>480.7</v>
       </c>
-      <c r="B489">
+      <c r="B489" s="3">
         <f t="shared" si="7"/>
         <v>486.76900000000001</v>
       </c>
@@ -6469,7 +6456,7 @@
       <c r="A490">
         <v>482.2</v>
       </c>
-      <c r="B490">
+      <c r="B490" s="3">
         <f t="shared" si="7"/>
         <v>487.75900000000001</v>
       </c>
@@ -6481,7 +6468,7 @@
       <c r="A491">
         <v>483.7</v>
       </c>
-      <c r="B491">
+      <c r="B491" s="3">
         <f t="shared" si="7"/>
         <v>488.74900000000002</v>
       </c>
@@ -6493,7 +6480,7 @@
       <c r="A492">
         <v>485.3</v>
       </c>
-      <c r="B492">
+      <c r="B492" s="3">
         <f t="shared" si="7"/>
         <v>489.80500000000001</v>
       </c>
@@ -6505,7 +6492,7 @@
       <c r="A493">
         <v>486.8</v>
       </c>
-      <c r="B493">
+      <c r="B493" s="3">
         <f t="shared" si="7"/>
         <v>490.79500000000002</v>
       </c>
@@ -6517,7 +6504,7 @@
       <c r="A494">
         <v>488.3</v>
       </c>
-      <c r="B494">
+      <c r="B494" s="3">
         <f t="shared" si="7"/>
         <v>491.78500000000003</v>
       </c>
@@ -6529,7 +6516,7 @@
       <c r="A495">
         <v>489.8</v>
       </c>
-      <c r="B495">
+      <c r="B495" s="3">
         <f t="shared" si="7"/>
         <v>492.77500000000003</v>
       </c>
@@ -6541,7 +6528,7 @@
       <c r="A496">
         <v>491.3</v>
       </c>
-      <c r="B496">
+      <c r="B496" s="3">
         <f t="shared" si="7"/>
         <v>493.76500000000004</v>
       </c>
@@ -6553,7 +6540,7 @@
       <c r="A497">
         <v>492.8</v>
       </c>
-      <c r="B497">
+      <c r="B497" s="3">
         <f t="shared" si="7"/>
         <v>494.75500000000005</v>
       </c>
@@ -6565,7 +6552,7 @@
       <c r="A498">
         <v>494.3</v>
       </c>
-      <c r="B498">
+      <c r="B498" s="3">
         <f t="shared" si="7"/>
         <v>495.745</v>
       </c>
@@ -6577,7 +6564,7 @@
       <c r="A499">
         <v>495.9</v>
       </c>
-      <c r="B499">
+      <c r="B499" s="3">
         <f t="shared" si="7"/>
         <v>496.80099999999999</v>
       </c>
@@ -6589,7 +6576,7 @@
       <c r="A500">
         <v>497.4</v>
       </c>
-      <c r="B500">
+      <c r="B500" s="3">
         <f t="shared" si="7"/>
         <v>497.791</v>
       </c>
@@ -6601,7 +6588,7 @@
       <c r="A501">
         <v>498.9</v>
       </c>
-      <c r="B501">
+      <c r="B501" s="3">
         <f t="shared" si="7"/>
         <v>498.78100000000001</v>
       </c>
@@ -6613,7 +6600,7 @@
       <c r="A502">
         <v>500.4</v>
       </c>
-      <c r="B502">
+      <c r="B502" s="3">
         <f t="shared" si="7"/>
         <v>499.77100000000002</v>
       </c>
@@ -6631,7 +6618,7 @@
   <dimension ref="A1:C502"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -6641,20 +6628,20 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" t="s">
         <v>27</v>
       </c>
-      <c r="B1" t="s">
-        <v>28</v>
-      </c>
       <c r="C1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>0</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2" s="2">
         <f>_xlfn.IFS(A2&lt;=50,0.2401*A2-0.0023,AND(A2&gt;50,A2&lt;=100),0.4742*A2-12.042,AND(A2&gt;100,A2&lt;=150),0.4065*A2-5.5714,AND(A2&gt;150,A2&lt;=200),1.9368*A2-236.97,AND(A2&gt;200,A2&lt;=400),1.0023*A2-50.737,AND(A2&gt;400,A2&lt;=500),1.5141*A2-256.65)</f>
         <v>-2.3E-3</v>
       </c>
@@ -6666,7 +6653,7 @@
       <c r="A3">
         <v>1</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3" s="2">
         <f t="shared" ref="B3:B66" si="0">_xlfn.IFS(A3&lt;=50,0.2401*A3-0.0023,AND(A3&gt;50,A3&lt;=100),0.4742*A3-12.042,AND(A3&gt;100,A3&lt;=150),0.4065*A3-5.5714,AND(A3&gt;150,A3&lt;=200),1.9368*A3-236.97,AND(A3&gt;200,A3&lt;=400),1.0023*A3-50.737,AND(A3&gt;400,A3&lt;=500),1.5141*A3-256.65)</f>
         <v>0.23780000000000001</v>
       </c>
@@ -6678,7 +6665,7 @@
       <c r="A4">
         <v>2</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4" s="2">
         <f t="shared" si="0"/>
         <v>0.47789999999999999</v>
       </c>
@@ -6690,7 +6677,7 @@
       <c r="A5">
         <v>3</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5" s="2">
         <f t="shared" si="0"/>
         <v>0.71800000000000008</v>
       </c>
@@ -6702,7 +6689,7 @@
       <c r="A6">
         <v>4</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6" s="2">
         <f t="shared" si="0"/>
         <v>0.95810000000000006</v>
       </c>
@@ -6714,7 +6701,7 @@
       <c r="A7">
         <v>5</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7" s="2">
         <f t="shared" si="0"/>
         <v>1.1982000000000002</v>
       </c>
@@ -6726,7 +6713,7 @@
       <c r="A8">
         <v>6</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B8" s="2">
         <f t="shared" si="0"/>
         <v>1.4383000000000001</v>
       </c>
@@ -6738,7 +6725,7 @@
       <c r="A9">
         <v>7</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B9" s="2">
         <f t="shared" si="0"/>
         <v>1.6784000000000001</v>
       </c>
@@ -6750,7 +6737,7 @@
       <c r="A10">
         <v>8</v>
       </c>
-      <c r="B10" s="1">
+      <c r="B10" s="2">
         <f t="shared" si="0"/>
         <v>1.9185000000000001</v>
       </c>
@@ -6762,7 +6749,7 @@
       <c r="A11">
         <v>9</v>
       </c>
-      <c r="B11" s="1">
+      <c r="B11" s="2">
         <f t="shared" si="0"/>
         <v>2.1586000000000003</v>
       </c>
@@ -6774,7 +6761,7 @@
       <c r="A12">
         <v>10</v>
       </c>
-      <c r="B12" s="1">
+      <c r="B12" s="2">
         <f t="shared" si="0"/>
         <v>2.3987000000000003</v>
       </c>
@@ -6786,7 +6773,7 @@
       <c r="A13">
         <v>11</v>
       </c>
-      <c r="B13" s="1">
+      <c r="B13" s="2">
         <f t="shared" si="0"/>
         <v>2.6388000000000003</v>
       </c>
@@ -6798,7 +6785,7 @@
       <c r="A14">
         <v>12</v>
       </c>
-      <c r="B14" s="1">
+      <c r="B14" s="2">
         <f t="shared" si="0"/>
         <v>2.8789000000000002</v>
       </c>
@@ -6810,7 +6797,7 @@
       <c r="A15">
         <v>13</v>
       </c>
-      <c r="B15" s="1">
+      <c r="B15" s="2">
         <f t="shared" si="0"/>
         <v>3.1190000000000002</v>
       </c>
@@ -6822,7 +6809,7 @@
       <c r="A16">
         <v>14</v>
       </c>
-      <c r="B16" s="1">
+      <c r="B16" s="2">
         <f t="shared" si="0"/>
         <v>3.3591000000000002</v>
       </c>
@@ -6834,7 +6821,7 @@
       <c r="A17">
         <v>15</v>
       </c>
-      <c r="B17" s="1">
+      <c r="B17" s="2">
         <f t="shared" si="0"/>
         <v>3.5992000000000002</v>
       </c>
@@ -6846,7 +6833,7 @@
       <c r="A18">
         <v>16</v>
       </c>
-      <c r="B18" s="1">
+      <c r="B18" s="2">
         <f t="shared" si="0"/>
         <v>3.8393000000000002</v>
       </c>
@@ -6858,7 +6845,7 @@
       <c r="A19">
         <v>17</v>
       </c>
-      <c r="B19" s="1">
+      <c r="B19" s="2">
         <f t="shared" si="0"/>
         <v>4.0794000000000006</v>
       </c>
@@ -6870,7 +6857,7 @@
       <c r="A20">
         <v>18</v>
       </c>
-      <c r="B20" s="1">
+      <c r="B20" s="2">
         <f t="shared" si="0"/>
         <v>4.3195000000000006</v>
       </c>
@@ -6882,7 +6869,7 @@
       <c r="A21">
         <v>19</v>
       </c>
-      <c r="B21" s="1">
+      <c r="B21" s="2">
         <f t="shared" si="0"/>
         <v>4.5596000000000005</v>
       </c>
@@ -6894,7 +6881,7 @@
       <c r="A22">
         <v>20</v>
       </c>
-      <c r="B22" s="1">
+      <c r="B22" s="2">
         <f t="shared" si="0"/>
         <v>4.7997000000000005</v>
       </c>
@@ -6906,7 +6893,7 @@
       <c r="A23">
         <v>21</v>
       </c>
-      <c r="B23" s="1">
+      <c r="B23" s="2">
         <f t="shared" si="0"/>
         <v>5.0398000000000005</v>
       </c>
@@ -6918,7 +6905,7 @@
       <c r="A24">
         <v>22</v>
       </c>
-      <c r="B24" s="1">
+      <c r="B24" s="2">
         <f t="shared" si="0"/>
         <v>5.2799000000000005</v>
       </c>
@@ -6930,7 +6917,7 @@
       <c r="A25">
         <v>23</v>
       </c>
-      <c r="B25" s="1">
+      <c r="B25" s="2">
         <f t="shared" si="0"/>
         <v>5.5200000000000005</v>
       </c>
@@ -6942,7 +6929,7 @@
       <c r="A26">
         <v>24</v>
       </c>
-      <c r="B26" s="1">
+      <c r="B26" s="2">
         <f t="shared" si="0"/>
         <v>5.7601000000000004</v>
       </c>
@@ -6954,7 +6941,7 @@
       <c r="A27">
         <v>25</v>
       </c>
-      <c r="B27" s="1">
+      <c r="B27" s="2">
         <f t="shared" si="0"/>
         <v>6.0002000000000004</v>
       </c>
@@ -6966,7 +6953,7 @@
       <c r="A28">
         <v>26</v>
       </c>
-      <c r="B28" s="1">
+      <c r="B28" s="2">
         <f t="shared" si="0"/>
         <v>6.2403000000000004</v>
       </c>
@@ -6978,7 +6965,7 @@
       <c r="A29">
         <v>27</v>
       </c>
-      <c r="B29" s="1">
+      <c r="B29" s="2">
         <f t="shared" si="0"/>
         <v>6.4804000000000004</v>
       </c>
@@ -6990,7 +6977,7 @@
       <c r="A30">
         <v>28</v>
       </c>
-      <c r="B30" s="1">
+      <c r="B30" s="2">
         <f t="shared" si="0"/>
         <v>6.7205000000000004</v>
       </c>
@@ -7002,7 +6989,7 @@
       <c r="A31">
         <v>29</v>
       </c>
-      <c r="B31" s="1">
+      <c r="B31" s="2">
         <f t="shared" si="0"/>
         <v>6.9606000000000003</v>
       </c>
@@ -7014,7 +7001,7 @@
       <c r="A32">
         <v>30</v>
       </c>
-      <c r="B32" s="1">
+      <c r="B32" s="2">
         <f t="shared" si="0"/>
         <v>7.2007000000000003</v>
       </c>
@@ -7026,7 +7013,7 @@
       <c r="A33">
         <v>31</v>
       </c>
-      <c r="B33" s="1">
+      <c r="B33" s="2">
         <f t="shared" si="0"/>
         <v>7.4408000000000003</v>
       </c>
@@ -7038,7 +7025,7 @@
       <c r="A34">
         <v>32</v>
       </c>
-      <c r="B34" s="1">
+      <c r="B34" s="2">
         <f t="shared" si="0"/>
         <v>7.6809000000000003</v>
       </c>
@@ -7050,7 +7037,7 @@
       <c r="A35">
         <v>33</v>
       </c>
-      <c r="B35" s="1">
+      <c r="B35" s="2">
         <f t="shared" si="0"/>
         <v>7.9210000000000003</v>
       </c>
@@ -7062,7 +7049,7 @@
       <c r="A36">
         <v>34</v>
       </c>
-      <c r="B36" s="1">
+      <c r="B36" s="2">
         <f t="shared" si="0"/>
         <v>8.1611000000000011</v>
       </c>
@@ -7074,7 +7061,7 @@
       <c r="A37">
         <v>35</v>
       </c>
-      <c r="B37" s="1">
+      <c r="B37" s="2">
         <f t="shared" si="0"/>
         <v>8.4012000000000011</v>
       </c>
@@ -7086,7 +7073,7 @@
       <c r="A38">
         <v>36</v>
       </c>
-      <c r="B38" s="1">
+      <c r="B38" s="2">
         <f t="shared" si="0"/>
         <v>8.6413000000000011</v>
       </c>
@@ -7098,7 +7085,7 @@
       <c r="A39">
         <v>37</v>
       </c>
-      <c r="B39" s="1">
+      <c r="B39" s="2">
         <f t="shared" si="0"/>
         <v>8.8814000000000011</v>
       </c>
@@ -7110,7 +7097,7 @@
       <c r="A40">
         <v>38</v>
       </c>
-      <c r="B40" s="1">
+      <c r="B40" s="2">
         <f t="shared" si="0"/>
         <v>9.1215000000000011</v>
       </c>
@@ -7122,7 +7109,7 @@
       <c r="A41">
         <v>39</v>
       </c>
-      <c r="B41" s="1">
+      <c r="B41" s="2">
         <f t="shared" si="0"/>
         <v>9.361600000000001</v>
       </c>
@@ -7134,7 +7121,7 @@
       <c r="A42">
         <v>40</v>
       </c>
-      <c r="B42" s="1">
+      <c r="B42" s="2">
         <f t="shared" si="0"/>
         <v>9.601700000000001</v>
       </c>
@@ -7146,7 +7133,7 @@
       <c r="A43">
         <v>41</v>
       </c>
-      <c r="B43" s="1">
+      <c r="B43" s="2">
         <f t="shared" si="0"/>
         <v>9.841800000000001</v>
       </c>
@@ -7158,7 +7145,7 @@
       <c r="A44">
         <v>42</v>
       </c>
-      <c r="B44" s="1">
+      <c r="B44" s="2">
         <f t="shared" si="0"/>
         <v>10.081900000000001</v>
       </c>
@@ -7170,7 +7157,7 @@
       <c r="A45">
         <v>43</v>
       </c>
-      <c r="B45" s="1">
+      <c r="B45" s="2">
         <f t="shared" si="0"/>
         <v>10.322000000000001</v>
       </c>
@@ -7182,7 +7169,7 @@
       <c r="A46">
         <v>44</v>
       </c>
-      <c r="B46" s="1">
+      <c r="B46" s="2">
         <f t="shared" si="0"/>
         <v>10.562100000000001</v>
       </c>
@@ -7194,7 +7181,7 @@
       <c r="A47">
         <v>45</v>
       </c>
-      <c r="B47" s="1">
+      <c r="B47" s="2">
         <f t="shared" si="0"/>
         <v>10.802200000000001</v>
       </c>
@@ -7206,7 +7193,7 @@
       <c r="A48">
         <v>46</v>
       </c>
-      <c r="B48" s="1">
+      <c r="B48" s="2">
         <f t="shared" si="0"/>
         <v>11.042300000000001</v>
       </c>
@@ -7218,7 +7205,7 @@
       <c r="A49">
         <v>47</v>
       </c>
-      <c r="B49" s="1">
+      <c r="B49" s="2">
         <f t="shared" si="0"/>
         <v>11.282400000000001</v>
       </c>
@@ -7230,7 +7217,7 @@
       <c r="A50">
         <v>48</v>
       </c>
-      <c r="B50" s="1">
+      <c r="B50" s="2">
         <f t="shared" si="0"/>
         <v>11.522500000000001</v>
       </c>
@@ -7242,7 +7229,7 @@
       <c r="A51">
         <v>49</v>
       </c>
-      <c r="B51" s="1">
+      <c r="B51" s="2">
         <f t="shared" si="0"/>
         <v>11.762600000000001</v>
       </c>
@@ -7254,7 +7241,7 @@
       <c r="A52">
         <v>50</v>
       </c>
-      <c r="B52" s="1">
+      <c r="B52" s="2">
         <f t="shared" si="0"/>
         <v>12.002700000000001</v>
       </c>
@@ -7266,7 +7253,7 @@
       <c r="A53">
         <v>51</v>
       </c>
-      <c r="B53" s="1">
+      <c r="B53" s="2">
         <f t="shared" si="0"/>
         <v>12.142200000000001</v>
       </c>
@@ -7278,7 +7265,7 @@
       <c r="A54">
         <v>52</v>
       </c>
-      <c r="B54" s="1">
+      <c r="B54" s="2">
         <f t="shared" si="0"/>
         <v>12.616400000000001</v>
       </c>
@@ -7290,7 +7277,7 @@
       <c r="A55">
         <v>53</v>
       </c>
-      <c r="B55" s="1">
+      <c r="B55" s="2">
         <f t="shared" si="0"/>
         <v>13.0906</v>
       </c>
@@ -7302,7 +7289,7 @@
       <c r="A56">
         <v>54</v>
       </c>
-      <c r="B56" s="1">
+      <c r="B56" s="2">
         <f t="shared" si="0"/>
         <v>13.5648</v>
       </c>
@@ -7314,7 +7301,7 @@
       <c r="A57">
         <v>55</v>
       </c>
-      <c r="B57" s="1">
+      <c r="B57" s="2">
         <f t="shared" si="0"/>
         <v>14.039</v>
       </c>
@@ -7326,7 +7313,7 @@
       <c r="A58">
         <v>56</v>
       </c>
-      <c r="B58" s="1">
+      <c r="B58" s="2">
         <f t="shared" si="0"/>
         <v>14.513199999999999</v>
       </c>
@@ -7338,7 +7325,7 @@
       <c r="A59">
         <v>57</v>
       </c>
-      <c r="B59" s="1">
+      <c r="B59" s="2">
         <f t="shared" si="0"/>
         <v>14.987399999999999</v>
       </c>
@@ -7350,7 +7337,7 @@
       <c r="A60">
         <v>58</v>
       </c>
-      <c r="B60" s="1">
+      <c r="B60" s="2">
         <f t="shared" si="0"/>
         <v>15.461600000000002</v>
       </c>
@@ -7362,7 +7349,7 @@
       <c r="A61">
         <v>59</v>
       </c>
-      <c r="B61" s="1">
+      <c r="B61" s="2">
         <f t="shared" si="0"/>
         <v>15.935800000000002</v>
       </c>
@@ -7374,7 +7361,7 @@
       <c r="A62">
         <v>60</v>
       </c>
-      <c r="B62" s="1">
+      <c r="B62" s="2">
         <f t="shared" si="0"/>
         <v>16.410000000000004</v>
       </c>
@@ -7386,7 +7373,7 @@
       <c r="A63">
         <v>61</v>
       </c>
-      <c r="B63" s="1">
+      <c r="B63" s="2">
         <f t="shared" si="0"/>
         <v>16.8842</v>
       </c>
@@ -7398,7 +7385,7 @@
       <c r="A64">
         <v>62</v>
       </c>
-      <c r="B64" s="1">
+      <c r="B64" s="2">
         <f t="shared" si="0"/>
         <v>17.358400000000003</v>
       </c>
@@ -7410,7 +7397,7 @@
       <c r="A65">
         <v>63</v>
       </c>
-      <c r="B65" s="1">
+      <c r="B65" s="2">
         <f t="shared" si="0"/>
         <v>17.832599999999999</v>
       </c>
@@ -7422,7 +7409,7 @@
       <c r="A66">
         <v>64</v>
       </c>
-      <c r="B66" s="1">
+      <c r="B66" s="2">
         <f t="shared" si="0"/>
         <v>18.306800000000003</v>
       </c>
@@ -7434,7 +7421,7 @@
       <c r="A67">
         <v>65</v>
       </c>
-      <c r="B67" s="1">
+      <c r="B67" s="2">
         <f t="shared" ref="B67:B130" si="1">_xlfn.IFS(A67&lt;=50,0.2401*A67-0.0023,AND(A67&gt;50,A67&lt;=100),0.4742*A67-12.042,AND(A67&gt;100,A67&lt;=150),0.4065*A67-5.5714,AND(A67&gt;150,A67&lt;=200),1.9368*A67-236.97,AND(A67&gt;200,A67&lt;=400),1.0023*A67-50.737,AND(A67&gt;400,A67&lt;=500),1.5141*A67-256.65)</f>
         <v>18.780999999999999</v>
       </c>
@@ -7446,7 +7433,7 @@
       <c r="A68">
         <v>66</v>
       </c>
-      <c r="B68" s="1">
+      <c r="B68" s="2">
         <f t="shared" si="1"/>
         <v>19.255200000000002</v>
       </c>
@@ -7458,7 +7445,7 @@
       <c r="A69">
         <v>67</v>
       </c>
-      <c r="B69" s="1">
+      <c r="B69" s="2">
         <f t="shared" si="1"/>
         <v>19.729399999999998</v>
       </c>
@@ -7470,7 +7457,7 @@
       <c r="A70">
         <v>68</v>
       </c>
-      <c r="B70" s="1">
+      <c r="B70" s="2">
         <f t="shared" si="1"/>
         <v>20.203600000000002</v>
       </c>
@@ -7482,7 +7469,7 @@
       <c r="A71">
         <v>69</v>
       </c>
-      <c r="B71" s="1">
+      <c r="B71" s="2">
         <f t="shared" si="1"/>
         <v>20.677799999999998</v>
       </c>
@@ -7494,7 +7481,7 @@
       <c r="A72">
         <v>70</v>
       </c>
-      <c r="B72" s="1">
+      <c r="B72" s="2">
         <f t="shared" si="1"/>
         <v>21.152000000000001</v>
       </c>
@@ -7506,7 +7493,7 @@
       <c r="A73">
         <v>71</v>
       </c>
-      <c r="B73" s="1">
+      <c r="B73" s="2">
         <f t="shared" si="1"/>
         <v>21.626199999999997</v>
       </c>
@@ -7518,7 +7505,7 @@
       <c r="A74">
         <v>72</v>
       </c>
-      <c r="B74" s="1">
+      <c r="B74" s="2">
         <f t="shared" si="1"/>
         <v>22.1004</v>
       </c>
@@ -7530,7 +7517,7 @@
       <c r="A75">
         <v>73</v>
       </c>
-      <c r="B75" s="1">
+      <c r="B75" s="2">
         <f t="shared" si="1"/>
         <v>22.574599999999997</v>
       </c>
@@ -7542,7 +7529,7 @@
       <c r="A76">
         <v>74</v>
       </c>
-      <c r="B76" s="1">
+      <c r="B76" s="2">
         <f t="shared" si="1"/>
         <v>23.0488</v>
       </c>
@@ -7554,7 +7541,7 @@
       <c r="A77">
         <v>75</v>
       </c>
-      <c r="B77" s="1">
+      <c r="B77" s="2">
         <f t="shared" si="1"/>
         <v>23.522999999999996</v>
       </c>
@@ -7566,7 +7553,7 @@
       <c r="A78">
         <v>76</v>
       </c>
-      <c r="B78" s="1">
+      <c r="B78" s="2">
         <f t="shared" si="1"/>
         <v>23.997199999999999</v>
       </c>
@@ -7578,7 +7565,7 @@
       <c r="A79">
         <v>77</v>
       </c>
-      <c r="B79" s="1">
+      <c r="B79" s="2">
         <f t="shared" si="1"/>
         <v>24.471400000000003</v>
       </c>
@@ -7590,7 +7577,7 @@
       <c r="A80">
         <v>78</v>
       </c>
-      <c r="B80" s="1">
+      <c r="B80" s="2">
         <f t="shared" si="1"/>
         <v>24.945599999999999</v>
       </c>
@@ -7602,7 +7589,7 @@
       <c r="A81">
         <v>79</v>
       </c>
-      <c r="B81" s="1">
+      <c r="B81" s="2">
         <f t="shared" si="1"/>
         <v>25.419800000000002</v>
       </c>
@@ -7614,7 +7601,7 @@
       <c r="A82">
         <v>80</v>
       </c>
-      <c r="B82" s="1">
+      <c r="B82" s="2">
         <f t="shared" si="1"/>
         <v>25.893999999999998</v>
       </c>
@@ -7626,7 +7613,7 @@
       <c r="A83">
         <v>81</v>
       </c>
-      <c r="B83" s="1">
+      <c r="B83" s="2">
         <f t="shared" si="1"/>
         <v>26.368200000000002</v>
       </c>
@@ -7638,7 +7625,7 @@
       <c r="A84">
         <v>82</v>
       </c>
-      <c r="B84" s="1">
+      <c r="B84" s="2">
         <f t="shared" si="1"/>
         <v>26.842399999999998</v>
       </c>
@@ -7650,7 +7637,7 @@
       <c r="A85">
         <v>83</v>
       </c>
-      <c r="B85" s="1">
+      <c r="B85" s="2">
         <f t="shared" si="1"/>
         <v>27.316600000000001</v>
       </c>
@@ -7662,7 +7649,7 @@
       <c r="A86">
         <v>84</v>
       </c>
-      <c r="B86" s="1">
+      <c r="B86" s="2">
         <f t="shared" si="1"/>
         <v>27.790799999999997</v>
       </c>
@@ -7674,7 +7661,7 @@
       <c r="A87">
         <v>85</v>
       </c>
-      <c r="B87" s="1">
+      <c r="B87" s="2">
         <f t="shared" si="1"/>
         <v>28.265000000000001</v>
       </c>
@@ -7686,7 +7673,7 @@
       <c r="A88">
         <v>86</v>
       </c>
-      <c r="B88" s="1">
+      <c r="B88" s="2">
         <f t="shared" si="1"/>
         <v>28.739199999999997</v>
       </c>
@@ -7698,7 +7685,7 @@
       <c r="A89">
         <v>87</v>
       </c>
-      <c r="B89" s="1">
+      <c r="B89" s="2">
         <f t="shared" si="1"/>
         <v>29.2134</v>
       </c>
@@ -7710,7 +7697,7 @@
       <c r="A90">
         <v>88</v>
       </c>
-      <c r="B90" s="1">
+      <c r="B90" s="2">
         <f t="shared" si="1"/>
         <v>29.687599999999996</v>
       </c>
@@ -7722,7 +7709,7 @@
       <c r="A91">
         <v>89</v>
       </c>
-      <c r="B91" s="1">
+      <c r="B91" s="2">
         <f t="shared" si="1"/>
         <v>30.161799999999999</v>
       </c>
@@ -7734,7 +7721,7 @@
       <c r="A92">
         <v>90</v>
       </c>
-      <c r="B92" s="1">
+      <c r="B92" s="2">
         <f t="shared" si="1"/>
         <v>30.636000000000003</v>
       </c>
@@ -7746,7 +7733,7 @@
       <c r="A93">
         <v>91</v>
       </c>
-      <c r="B93" s="1">
+      <c r="B93" s="2">
         <f t="shared" si="1"/>
         <v>31.110199999999999</v>
       </c>
@@ -7758,7 +7745,7 @@
       <c r="A94">
         <v>92</v>
       </c>
-      <c r="B94" s="1">
+      <c r="B94" s="2">
         <f t="shared" si="1"/>
         <v>31.584400000000002</v>
       </c>
@@ -7770,7 +7757,7 @@
       <c r="A95">
         <v>93</v>
       </c>
-      <c r="B95" s="1">
+      <c r="B95" s="2">
         <f t="shared" si="1"/>
         <v>32.058599999999998</v>
       </c>
@@ -7782,7 +7769,7 @@
       <c r="A96">
         <v>94</v>
       </c>
-      <c r="B96" s="1">
+      <c r="B96" s="2">
         <f t="shared" si="1"/>
         <v>32.532800000000002</v>
       </c>
@@ -7794,7 +7781,7 @@
       <c r="A97">
         <v>95</v>
       </c>
-      <c r="B97" s="1">
+      <c r="B97" s="2">
         <f t="shared" si="1"/>
         <v>33.006999999999998</v>
       </c>
@@ -7806,7 +7793,7 @@
       <c r="A98">
         <v>96</v>
       </c>
-      <c r="B98" s="1">
+      <c r="B98" s="2">
         <f t="shared" si="1"/>
         <v>33.481200000000001</v>
       </c>
@@ -7818,7 +7805,7 @@
       <c r="A99">
         <v>97</v>
       </c>
-      <c r="B99" s="1">
+      <c r="B99" s="2">
         <f t="shared" si="1"/>
         <v>33.955399999999997</v>
       </c>
@@ -7830,7 +7817,7 @@
       <c r="A100">
         <v>98</v>
       </c>
-      <c r="B100" s="1">
+      <c r="B100" s="2">
         <f t="shared" si="1"/>
         <v>34.429600000000001</v>
       </c>
@@ -7842,7 +7829,7 @@
       <c r="A101">
         <v>99</v>
       </c>
-      <c r="B101" s="1">
+      <c r="B101" s="2">
         <f t="shared" si="1"/>
         <v>34.903799999999997</v>
       </c>
@@ -7854,7 +7841,7 @@
       <c r="A102">
         <v>100</v>
       </c>
-      <c r="B102" s="1">
+      <c r="B102" s="2">
         <f t="shared" si="1"/>
         <v>35.378</v>
       </c>
@@ -7866,7 +7853,7 @@
       <c r="A103">
         <v>101</v>
       </c>
-      <c r="B103" s="1">
+      <c r="B103" s="2">
         <f t="shared" si="1"/>
         <v>35.485100000000003</v>
       </c>
@@ -7878,7 +7865,7 @@
       <c r="A104">
         <v>102</v>
       </c>
-      <c r="B104" s="1">
+      <c r="B104" s="2">
         <f t="shared" si="1"/>
         <v>35.891599999999997</v>
       </c>
@@ -7890,7 +7877,7 @@
       <c r="A105">
         <v>103</v>
       </c>
-      <c r="B105" s="1">
+      <c r="B105" s="2">
         <f t="shared" si="1"/>
         <v>36.298099999999998</v>
       </c>
@@ -7902,7 +7889,7 @@
       <c r="A106">
         <v>104</v>
       </c>
-      <c r="B106" s="1">
+      <c r="B106" s="2">
         <f t="shared" si="1"/>
         <v>36.704599999999999</v>
       </c>
@@ -7914,7 +7901,7 @@
       <c r="A107">
         <v>105</v>
       </c>
-      <c r="B107" s="1">
+      <c r="B107" s="2">
         <f t="shared" si="1"/>
         <v>37.1111</v>
       </c>
@@ -7926,7 +7913,7 @@
       <c r="A108">
         <v>106</v>
       </c>
-      <c r="B108" s="1">
+      <c r="B108" s="2">
         <f t="shared" si="1"/>
         <v>37.517600000000002</v>
       </c>
@@ -7938,7 +7925,7 @@
       <c r="A109">
         <v>107</v>
       </c>
-      <c r="B109" s="1">
+      <c r="B109" s="2">
         <f t="shared" si="1"/>
         <v>37.924100000000003</v>
       </c>
@@ -7950,7 +7937,7 @@
       <c r="A110">
         <v>108</v>
       </c>
-      <c r="B110" s="1">
+      <c r="B110" s="2">
         <f t="shared" si="1"/>
         <v>38.330599999999997</v>
       </c>
@@ -7962,7 +7949,7 @@
       <c r="A111">
         <v>109</v>
       </c>
-      <c r="B111" s="1">
+      <c r="B111" s="2">
         <f t="shared" si="1"/>
         <v>38.737099999999998</v>
       </c>
@@ -7974,7 +7961,7 @@
       <c r="A112">
         <v>110</v>
       </c>
-      <c r="B112" s="1">
+      <c r="B112" s="2">
         <f t="shared" si="1"/>
         <v>39.143599999999999</v>
       </c>
@@ -7986,7 +7973,7 @@
       <c r="A113">
         <v>111</v>
       </c>
-      <c r="B113" s="1">
+      <c r="B113" s="2">
         <f t="shared" si="1"/>
         <v>39.5501</v>
       </c>
@@ -7998,7 +7985,7 @@
       <c r="A114">
         <v>112</v>
       </c>
-      <c r="B114" s="1">
+      <c r="B114" s="2">
         <f t="shared" si="1"/>
         <v>39.956600000000002</v>
       </c>
@@ -8010,7 +7997,7 @@
       <c r="A115">
         <v>113</v>
       </c>
-      <c r="B115" s="1">
+      <c r="B115" s="2">
         <f t="shared" si="1"/>
         <v>40.363100000000003</v>
       </c>
@@ -8022,7 +8009,7 @@
       <c r="A116">
         <v>114</v>
       </c>
-      <c r="B116" s="1">
+      <c r="B116" s="2">
         <f t="shared" si="1"/>
         <v>40.769599999999997</v>
       </c>
@@ -8034,7 +8021,7 @@
       <c r="A117">
         <v>115</v>
       </c>
-      <c r="B117" s="1">
+      <c r="B117" s="2">
         <f t="shared" si="1"/>
         <v>41.176099999999998</v>
       </c>
@@ -8046,7 +8033,7 @@
       <c r="A118">
         <v>116</v>
       </c>
-      <c r="B118" s="1">
+      <c r="B118" s="2">
         <f t="shared" si="1"/>
         <v>41.582599999999999</v>
       </c>
@@ -8058,7 +8045,7 @@
       <c r="A119">
         <v>117</v>
       </c>
-      <c r="B119" s="1">
+      <c r="B119" s="2">
         <f t="shared" si="1"/>
         <v>41.989100000000001</v>
       </c>
@@ -8070,7 +8057,7 @@
       <c r="A120">
         <v>118</v>
       </c>
-      <c r="B120" s="1">
+      <c r="B120" s="2">
         <f t="shared" si="1"/>
         <v>42.395600000000002</v>
       </c>
@@ -8082,7 +8069,7 @@
       <c r="A121">
         <v>119</v>
       </c>
-      <c r="B121" s="1">
+      <c r="B121" s="2">
         <f t="shared" si="1"/>
         <v>42.802100000000003</v>
       </c>
@@ -8094,7 +8081,7 @@
       <c r="A122">
         <v>120</v>
       </c>
-      <c r="B122" s="1">
+      <c r="B122" s="2">
         <f t="shared" si="1"/>
         <v>43.208599999999997</v>
       </c>
@@ -8106,7 +8093,7 @@
       <c r="A123">
         <v>121</v>
       </c>
-      <c r="B123" s="1">
+      <c r="B123" s="2">
         <f t="shared" si="1"/>
         <v>43.615099999999998</v>
       </c>
@@ -8118,7 +8105,7 @@
       <c r="A124">
         <v>122</v>
       </c>
-      <c r="B124" s="1">
+      <c r="B124" s="2">
         <f t="shared" si="1"/>
         <v>44.021599999999999</v>
       </c>
@@ -8130,7 +8117,7 @@
       <c r="A125">
         <v>123</v>
       </c>
-      <c r="B125" s="1">
+      <c r="B125" s="2">
         <f t="shared" si="1"/>
         <v>44.428100000000001</v>
       </c>
@@ -8142,7 +8129,7 @@
       <c r="A126">
         <v>124</v>
       </c>
-      <c r="B126" s="1">
+      <c r="B126" s="2">
         <f t="shared" si="1"/>
         <v>44.834600000000002</v>
       </c>
@@ -8154,7 +8141,7 @@
       <c r="A127">
         <v>125</v>
       </c>
-      <c r="B127" s="1">
+      <c r="B127" s="2">
         <f t="shared" si="1"/>
         <v>45.241100000000003</v>
       </c>
@@ -8166,7 +8153,7 @@
       <c r="A128">
         <v>126</v>
       </c>
-      <c r="B128" s="1">
+      <c r="B128" s="2">
         <f t="shared" si="1"/>
         <v>45.647599999999997</v>
       </c>
@@ -8178,7 +8165,7 @@
       <c r="A129">
         <v>127</v>
       </c>
-      <c r="B129" s="1">
+      <c r="B129" s="2">
         <f t="shared" si="1"/>
         <v>46.054099999999998</v>
       </c>
@@ -8190,7 +8177,7 @@
       <c r="A130">
         <v>128</v>
       </c>
-      <c r="B130" s="1">
+      <c r="B130" s="2">
         <f t="shared" si="1"/>
         <v>46.460599999999999</v>
       </c>
@@ -8202,7 +8189,7 @@
       <c r="A131">
         <v>129</v>
       </c>
-      <c r="B131" s="1">
+      <c r="B131" s="2">
         <f t="shared" ref="B131:B194" si="2">_xlfn.IFS(A131&lt;=50,0.2401*A131-0.0023,AND(A131&gt;50,A131&lt;=100),0.4742*A131-12.042,AND(A131&gt;100,A131&lt;=150),0.4065*A131-5.5714,AND(A131&gt;150,A131&lt;=200),1.9368*A131-236.97,AND(A131&gt;200,A131&lt;=400),1.0023*A131-50.737,AND(A131&gt;400,A131&lt;=500),1.5141*A131-256.65)</f>
         <v>46.867100000000001</v>
       </c>
@@ -8214,7 +8201,7 @@
       <c r="A132">
         <v>130</v>
       </c>
-      <c r="B132" s="1">
+      <c r="B132" s="2">
         <f t="shared" si="2"/>
         <v>47.273600000000002</v>
       </c>
@@ -8226,7 +8213,7 @@
       <c r="A133">
         <v>131</v>
       </c>
-      <c r="B133" s="1">
+      <c r="B133" s="2">
         <f t="shared" si="2"/>
         <v>47.680099999999996</v>
       </c>
@@ -8238,7 +8225,7 @@
       <c r="A134">
         <v>132</v>
       </c>
-      <c r="B134" s="1">
+      <c r="B134" s="2">
         <f t="shared" si="2"/>
         <v>48.086599999999997</v>
       </c>
@@ -8250,7 +8237,7 @@
       <c r="A135">
         <v>133</v>
       </c>
-      <c r="B135" s="1">
+      <c r="B135" s="2">
         <f t="shared" si="2"/>
         <v>48.493099999999998</v>
       </c>
@@ -8262,7 +8249,7 @@
       <c r="A136">
         <v>134</v>
       </c>
-      <c r="B136" s="1">
+      <c r="B136" s="2">
         <f t="shared" si="2"/>
         <v>48.8996</v>
       </c>
@@ -8274,7 +8261,7 @@
       <c r="A137">
         <v>135</v>
       </c>
-      <c r="B137" s="1">
+      <c r="B137" s="2">
         <f t="shared" si="2"/>
         <v>49.306100000000001</v>
       </c>
@@ -8286,7 +8273,7 @@
       <c r="A138">
         <v>136</v>
       </c>
-      <c r="B138" s="1">
+      <c r="B138" s="2">
         <f t="shared" si="2"/>
         <v>49.712600000000002</v>
       </c>
@@ -8298,7 +8285,7 @@
       <c r="A139">
         <v>137</v>
       </c>
-      <c r="B139" s="1">
+      <c r="B139" s="2">
         <f t="shared" si="2"/>
         <v>50.119099999999996</v>
       </c>
@@ -8310,7 +8297,7 @@
       <c r="A140">
         <v>138</v>
       </c>
-      <c r="B140" s="1">
+      <c r="B140" s="2">
         <f t="shared" si="2"/>
         <v>50.525599999999997</v>
       </c>
@@ -8322,7 +8309,7 @@
       <c r="A141">
         <v>139</v>
       </c>
-      <c r="B141" s="1">
+      <c r="B141" s="2">
         <f t="shared" si="2"/>
         <v>50.932099999999998</v>
       </c>
@@ -8334,7 +8321,7 @@
       <c r="A142">
         <v>140</v>
       </c>
-      <c r="B142" s="1">
+      <c r="B142" s="2">
         <f t="shared" si="2"/>
         <v>51.3386</v>
       </c>
@@ -8346,7 +8333,7 @@
       <c r="A143">
         <v>141</v>
       </c>
-      <c r="B143" s="1">
+      <c r="B143" s="2">
         <f t="shared" si="2"/>
         <v>51.745100000000001</v>
       </c>
@@ -8358,7 +8345,7 @@
       <c r="A144">
         <v>142</v>
       </c>
-      <c r="B144" s="1">
+      <c r="B144" s="2">
         <f t="shared" si="2"/>
         <v>52.151600000000002</v>
       </c>
@@ -8370,7 +8357,7 @@
       <c r="A145">
         <v>143</v>
       </c>
-      <c r="B145" s="1">
+      <c r="B145" s="2">
         <f t="shared" si="2"/>
         <v>52.558099999999996</v>
       </c>
@@ -8382,7 +8369,7 @@
       <c r="A146">
         <v>144</v>
       </c>
-      <c r="B146" s="1">
+      <c r="B146" s="2">
         <f t="shared" si="2"/>
         <v>52.964599999999997</v>
       </c>
@@ -8394,7 +8381,7 @@
       <c r="A147">
         <v>145</v>
       </c>
-      <c r="B147" s="1">
+      <c r="B147" s="2">
         <f t="shared" si="2"/>
         <v>53.371099999999998</v>
       </c>
@@ -8406,7 +8393,7 @@
       <c r="A148">
         <v>146</v>
       </c>
-      <c r="B148" s="1">
+      <c r="B148" s="2">
         <f t="shared" si="2"/>
         <v>53.7776</v>
       </c>
@@ -8418,7 +8405,7 @@
       <c r="A149">
         <v>147</v>
       </c>
-      <c r="B149" s="1">
+      <c r="B149" s="2">
         <f t="shared" si="2"/>
         <v>54.184100000000001</v>
       </c>
@@ -8430,7 +8417,7 @@
       <c r="A150">
         <v>148</v>
       </c>
-      <c r="B150" s="1">
+      <c r="B150" s="2">
         <f t="shared" si="2"/>
         <v>54.590600000000002</v>
       </c>
@@ -8442,7 +8429,7 @@
       <c r="A151">
         <v>149</v>
       </c>
-      <c r="B151" s="1">
+      <c r="B151" s="2">
         <f t="shared" si="2"/>
         <v>54.997099999999996</v>
       </c>
@@ -8454,7 +8441,7 @@
       <c r="A152">
         <v>150</v>
       </c>
-      <c r="B152" s="1">
+      <c r="B152" s="2">
         <f t="shared" si="2"/>
         <v>55.403599999999997</v>
       </c>
@@ -8466,7 +8453,7 @@
       <c r="A153">
         <v>151</v>
       </c>
-      <c r="B153" s="1">
+      <c r="B153" s="2">
         <f t="shared" si="2"/>
         <v>55.486799999999988</v>
       </c>
@@ -8478,7 +8465,7 @@
       <c r="A154">
         <v>152</v>
       </c>
-      <c r="B154" s="1">
+      <c r="B154" s="2">
         <f t="shared" si="2"/>
         <v>57.423599999999993</v>
       </c>
@@ -8490,7 +8477,7 @@
       <c r="A155">
         <v>153</v>
       </c>
-      <c r="B155" s="1">
+      <c r="B155" s="2">
         <f t="shared" si="2"/>
         <v>59.360399999999998</v>
       </c>
@@ -8502,7 +8489,7 @@
       <c r="A156">
         <v>154</v>
       </c>
-      <c r="B156" s="1">
+      <c r="B156" s="2">
         <f t="shared" si="2"/>
         <v>61.297200000000004</v>
       </c>
@@ -8514,7 +8501,7 @@
       <c r="A157">
         <v>155</v>
       </c>
-      <c r="B157" s="1">
+      <c r="B157" s="2">
         <f t="shared" si="2"/>
         <v>63.234000000000009</v>
       </c>
@@ -8526,7 +8513,7 @@
       <c r="A158">
         <v>156</v>
       </c>
-      <c r="B158" s="1">
+      <c r="B158" s="2">
         <f t="shared" si="2"/>
         <v>65.170800000000014</v>
       </c>
@@ -8538,7 +8525,7 @@
       <c r="A159">
         <v>157</v>
       </c>
-      <c r="B159" s="1">
+      <c r="B159" s="2">
         <f t="shared" si="2"/>
         <v>67.107600000000019</v>
       </c>
@@ -8550,7 +8537,7 @@
       <c r="A160">
         <v>158</v>
       </c>
-      <c r="B160" s="1">
+      <c r="B160" s="2">
         <f t="shared" si="2"/>
         <v>69.044400000000024</v>
       </c>
@@ -8562,7 +8549,7 @@
       <c r="A161">
         <v>159</v>
       </c>
-      <c r="B161" s="1">
+      <c r="B161" s="2">
         <f t="shared" si="2"/>
         <v>70.98120000000003</v>
       </c>
@@ -8574,7 +8561,7 @@
       <c r="A162">
         <v>160</v>
       </c>
-      <c r="B162" s="1">
+      <c r="B162" s="2">
         <f t="shared" si="2"/>
         <v>72.918000000000035</v>
       </c>
@@ -8586,7 +8573,7 @@
       <c r="A163">
         <v>161</v>
       </c>
-      <c r="B163" s="1">
+      <c r="B163" s="2">
         <f t="shared" si="2"/>
         <v>74.85480000000004</v>
       </c>
@@ -8598,7 +8585,7 @@
       <c r="A164">
         <v>162</v>
       </c>
-      <c r="B164" s="1">
+      <c r="B164" s="2">
         <f t="shared" si="2"/>
         <v>76.791599999999988</v>
       </c>
@@ -8610,7 +8597,7 @@
       <c r="A165">
         <v>163</v>
       </c>
-      <c r="B165" s="1">
+      <c r="B165" s="2">
         <f t="shared" si="2"/>
         <v>78.728399999999993</v>
       </c>
@@ -8622,7 +8609,7 @@
       <c r="A166">
         <v>164</v>
       </c>
-      <c r="B166" s="1">
+      <c r="B166" s="2">
         <f t="shared" si="2"/>
         <v>80.665199999999999</v>
       </c>
@@ -8634,7 +8621,7 @@
       <c r="A167">
         <v>165</v>
       </c>
-      <c r="B167" s="1">
+      <c r="B167" s="2">
         <f t="shared" si="2"/>
         <v>82.602000000000004</v>
       </c>
@@ -8646,7 +8633,7 @@
       <c r="A168">
         <v>166</v>
       </c>
-      <c r="B168" s="1">
+      <c r="B168" s="2">
         <f t="shared" si="2"/>
         <v>84.538800000000009</v>
       </c>
@@ -8658,7 +8645,7 @@
       <c r="A169">
         <v>167</v>
       </c>
-      <c r="B169" s="1">
+      <c r="B169" s="2">
         <f t="shared" si="2"/>
         <v>86.475600000000014</v>
       </c>
@@ -8670,7 +8657,7 @@
       <c r="A170">
         <v>168</v>
       </c>
-      <c r="B170" s="1">
+      <c r="B170" s="2">
         <f t="shared" si="2"/>
         <v>88.412400000000019</v>
       </c>
@@ -8682,7 +8669,7 @@
       <c r="A171">
         <v>169</v>
       </c>
-      <c r="B171" s="1">
+      <c r="B171" s="2">
         <f t="shared" si="2"/>
         <v>90.349200000000025</v>
       </c>
@@ -8694,7 +8681,7 @@
       <c r="A172">
         <v>170</v>
       </c>
-      <c r="B172" s="1">
+      <c r="B172" s="2">
         <f t="shared" si="2"/>
         <v>92.28600000000003</v>
       </c>
@@ -8706,7 +8693,7 @@
       <c r="A173">
         <v>171</v>
       </c>
-      <c r="B173" s="1">
+      <c r="B173" s="2">
         <f t="shared" si="2"/>
         <v>94.222800000000035</v>
       </c>
@@ -8718,7 +8705,7 @@
       <c r="A174">
         <v>172</v>
       </c>
-      <c r="B174" s="1">
+      <c r="B174" s="2">
         <f t="shared" si="2"/>
         <v>96.15960000000004</v>
       </c>
@@ -8730,7 +8717,7 @@
       <c r="A175">
         <v>173</v>
       </c>
-      <c r="B175" s="1">
+      <c r="B175" s="2">
         <f t="shared" si="2"/>
         <v>98.096399999999988</v>
       </c>
@@ -8742,7 +8729,7 @@
       <c r="A176">
         <v>174</v>
       </c>
-      <c r="B176" s="1">
+      <c r="B176" s="2">
         <f t="shared" si="2"/>
         <v>100.03319999999999</v>
       </c>
@@ -8754,7 +8741,7 @@
       <c r="A177">
         <v>175</v>
       </c>
-      <c r="B177" s="1">
+      <c r="B177" s="2">
         <f t="shared" si="2"/>
         <v>101.97</v>
       </c>
@@ -8766,7 +8753,7 @@
       <c r="A178">
         <v>176</v>
       </c>
-      <c r="B178" s="1">
+      <c r="B178" s="2">
         <f t="shared" si="2"/>
         <v>103.9068</v>
       </c>
@@ -8778,7 +8765,7 @@
       <c r="A179">
         <v>177</v>
       </c>
-      <c r="B179" s="1">
+      <c r="B179" s="2">
         <f t="shared" si="2"/>
         <v>105.84360000000001</v>
       </c>
@@ -8790,7 +8777,7 @@
       <c r="A180">
         <v>178</v>
       </c>
-      <c r="B180" s="1">
+      <c r="B180" s="2">
         <f t="shared" si="2"/>
         <v>107.78040000000001</v>
       </c>
@@ -8802,7 +8789,7 @@
       <c r="A181">
         <v>179</v>
       </c>
-      <c r="B181" s="1">
+      <c r="B181" s="2">
         <f t="shared" si="2"/>
         <v>109.71720000000002</v>
       </c>
@@ -8814,7 +8801,7 @@
       <c r="A182">
         <v>180</v>
       </c>
-      <c r="B182" s="1">
+      <c r="B182" s="2">
         <f t="shared" si="2"/>
         <v>111.65400000000002</v>
       </c>
@@ -8826,7 +8813,7 @@
       <c r="A183">
         <v>181</v>
       </c>
-      <c r="B183" s="1">
+      <c r="B183" s="2">
         <f t="shared" si="2"/>
         <v>113.59080000000003</v>
       </c>
@@ -8838,7 +8825,7 @@
       <c r="A184">
         <v>182</v>
       </c>
-      <c r="B184" s="1">
+      <c r="B184" s="2">
         <f t="shared" si="2"/>
         <v>115.52760000000004</v>
       </c>
@@ -8850,7 +8837,7 @@
       <c r="A185">
         <v>183</v>
       </c>
-      <c r="B185" s="1">
+      <c r="B185" s="2">
         <f t="shared" si="2"/>
         <v>117.46440000000004</v>
       </c>
@@ -8862,7 +8849,7 @@
       <c r="A186">
         <v>184</v>
       </c>
-      <c r="B186" s="1">
+      <c r="B186" s="2">
         <f t="shared" si="2"/>
         <v>119.40119999999999</v>
       </c>
@@ -8874,7 +8861,7 @@
       <c r="A187">
         <v>185</v>
       </c>
-      <c r="B187" s="1">
+      <c r="B187" s="2">
         <f t="shared" si="2"/>
         <v>121.33799999999999</v>
       </c>
@@ -8886,7 +8873,7 @@
       <c r="A188">
         <v>186</v>
       </c>
-      <c r="B188" s="1">
+      <c r="B188" s="2">
         <f t="shared" si="2"/>
         <v>123.2748</v>
       </c>
@@ -8898,7 +8885,7 @@
       <c r="A189">
         <v>187</v>
       </c>
-      <c r="B189" s="1">
+      <c r="B189" s="2">
         <f t="shared" si="2"/>
         <v>125.2116</v>
       </c>
@@ -8910,7 +8897,7 @@
       <c r="A190">
         <v>188</v>
       </c>
-      <c r="B190" s="1">
+      <c r="B190" s="2">
         <f t="shared" si="2"/>
         <v>127.14840000000001</v>
       </c>
@@ -8922,7 +8909,7 @@
       <c r="A191">
         <v>189</v>
       </c>
-      <c r="B191" s="1">
+      <c r="B191" s="2">
         <f t="shared" si="2"/>
         <v>129.08520000000001</v>
       </c>
@@ -8934,7 +8921,7 @@
       <c r="A192">
         <v>190</v>
       </c>
-      <c r="B192" s="1">
+      <c r="B192" s="2">
         <f t="shared" si="2"/>
         <v>131.02200000000002</v>
       </c>
@@ -8946,7 +8933,7 @@
       <c r="A193">
         <v>191</v>
       </c>
-      <c r="B193" s="1">
+      <c r="B193" s="2">
         <f t="shared" si="2"/>
         <v>132.95880000000002</v>
       </c>
@@ -8958,7 +8945,7 @@
       <c r="A194">
         <v>192</v>
       </c>
-      <c r="B194" s="1">
+      <c r="B194" s="2">
         <f t="shared" si="2"/>
         <v>134.89560000000003</v>
       </c>
@@ -8970,7 +8957,7 @@
       <c r="A195">
         <v>193</v>
       </c>
-      <c r="B195" s="1">
+      <c r="B195" s="2">
         <f t="shared" ref="B195:B258" si="3">_xlfn.IFS(A195&lt;=50,0.2401*A195-0.0023,AND(A195&gt;50,A195&lt;=100),0.4742*A195-12.042,AND(A195&gt;100,A195&lt;=150),0.4065*A195-5.5714,AND(A195&gt;150,A195&lt;=200),1.9368*A195-236.97,AND(A195&gt;200,A195&lt;=400),1.0023*A195-50.737,AND(A195&gt;400,A195&lt;=500),1.5141*A195-256.65)</f>
         <v>136.83240000000004</v>
       </c>
@@ -8982,7 +8969,7 @@
       <c r="A196">
         <v>194</v>
       </c>
-      <c r="B196" s="1">
+      <c r="B196" s="2">
         <f t="shared" si="3"/>
         <v>138.76920000000004</v>
       </c>
@@ -8994,7 +8981,7 @@
       <c r="A197">
         <v>195</v>
       </c>
-      <c r="B197" s="1">
+      <c r="B197" s="2">
         <f t="shared" si="3"/>
         <v>140.70599999999999</v>
       </c>
@@ -9006,7 +8993,7 @@
       <c r="A198">
         <v>196</v>
       </c>
-      <c r="B198" s="1">
+      <c r="B198" s="2">
         <f t="shared" si="3"/>
         <v>142.64279999999999</v>
       </c>
@@ -9018,7 +9005,7 @@
       <c r="A199">
         <v>197</v>
       </c>
-      <c r="B199" s="1">
+      <c r="B199" s="2">
         <f t="shared" si="3"/>
         <v>144.5796</v>
       </c>
@@ -9030,7 +9017,7 @@
       <c r="A200">
         <v>198</v>
       </c>
-      <c r="B200" s="1">
+      <c r="B200" s="2">
         <f t="shared" si="3"/>
         <v>146.5164</v>
       </c>
@@ -9042,7 +9029,7 @@
       <c r="A201">
         <v>199</v>
       </c>
-      <c r="B201" s="1">
+      <c r="B201" s="2">
         <f t="shared" si="3"/>
         <v>148.45320000000001</v>
       </c>
@@ -9054,7 +9041,7 @@
       <c r="A202">
         <v>200</v>
       </c>
-      <c r="B202" s="1">
+      <c r="B202" s="2">
         <f t="shared" si="3"/>
         <v>150.39000000000001</v>
       </c>
@@ -9066,7 +9053,7 @@
       <c r="A203">
         <v>201</v>
       </c>
-      <c r="B203" s="1">
+      <c r="B203" s="2">
         <f t="shared" si="3"/>
         <v>150.7253</v>
       </c>
@@ -9078,7 +9065,7 @@
       <c r="A204">
         <v>202</v>
       </c>
-      <c r="B204" s="1">
+      <c r="B204" s="2">
         <f t="shared" si="3"/>
         <v>151.7276</v>
       </c>
@@ -9090,7 +9077,7 @@
       <c r="A205">
         <v>203</v>
       </c>
-      <c r="B205" s="1">
+      <c r="B205" s="2">
         <f t="shared" si="3"/>
         <v>152.72989999999999</v>
       </c>
@@ -9102,7 +9089,7 @@
       <c r="A206">
         <v>204</v>
       </c>
-      <c r="B206" s="1">
+      <c r="B206" s="2">
         <f t="shared" si="3"/>
         <v>153.73220000000001</v>
       </c>
@@ -9114,7 +9101,7 @@
       <c r="A207">
         <v>205</v>
       </c>
-      <c r="B207" s="1">
+      <c r="B207" s="2">
         <f t="shared" si="3"/>
         <v>154.7345</v>
       </c>
@@ -9126,7 +9113,7 @@
       <c r="A208">
         <v>206</v>
       </c>
-      <c r="B208" s="1">
+      <c r="B208" s="2">
         <f t="shared" si="3"/>
         <v>155.73679999999999</v>
       </c>
@@ -9138,7 +9125,7 @@
       <c r="A209">
         <v>207</v>
       </c>
-      <c r="B209" s="1">
+      <c r="B209" s="2">
         <f t="shared" si="3"/>
         <v>156.73910000000001</v>
       </c>
@@ -9150,7 +9137,7 @@
       <c r="A210">
         <v>208</v>
       </c>
-      <c r="B210" s="1">
+      <c r="B210" s="2">
         <f t="shared" si="3"/>
         <v>157.7414</v>
       </c>
@@ -9162,7 +9149,7 @@
       <c r="A211">
         <v>209</v>
       </c>
-      <c r="B211" s="1">
+      <c r="B211" s="2">
         <f t="shared" si="3"/>
         <v>158.74369999999999</v>
       </c>
@@ -9174,7 +9161,7 @@
       <c r="A212">
         <v>210</v>
       </c>
-      <c r="B212" s="1">
+      <c r="B212" s="2">
         <f t="shared" si="3"/>
         <v>159.74600000000001</v>
       </c>
@@ -9186,7 +9173,7 @@
       <c r="A213">
         <v>211</v>
       </c>
-      <c r="B213" s="1">
+      <c r="B213" s="2">
         <f t="shared" si="3"/>
         <v>160.7483</v>
       </c>
@@ -9198,7 +9185,7 @@
       <c r="A214">
         <v>212</v>
       </c>
-      <c r="B214" s="1">
+      <c r="B214" s="2">
         <f t="shared" si="3"/>
         <v>161.75059999999999</v>
       </c>
@@ -9210,7 +9197,7 @@
       <c r="A215">
         <v>213</v>
       </c>
-      <c r="B215" s="1">
+      <c r="B215" s="2">
         <f t="shared" si="3"/>
         <v>162.75290000000001</v>
       </c>
@@ -9222,7 +9209,7 @@
       <c r="A216">
         <v>214</v>
       </c>
-      <c r="B216" s="1">
+      <c r="B216" s="2">
         <f t="shared" si="3"/>
         <v>163.7552</v>
       </c>
@@ -9234,7 +9221,7 @@
       <c r="A217">
         <v>215</v>
       </c>
-      <c r="B217" s="1">
+      <c r="B217" s="2">
         <f t="shared" si="3"/>
         <v>164.75749999999999</v>
       </c>
@@ -9246,7 +9233,7 @@
       <c r="A218">
         <v>216</v>
       </c>
-      <c r="B218" s="1">
+      <c r="B218" s="2">
         <f t="shared" si="3"/>
         <v>165.75980000000001</v>
       </c>
@@ -9258,7 +9245,7 @@
       <c r="A219">
         <v>217</v>
       </c>
-      <c r="B219" s="1">
+      <c r="B219" s="2">
         <f t="shared" si="3"/>
         <v>166.7621</v>
       </c>
@@ -9270,7 +9257,7 @@
       <c r="A220">
         <v>218</v>
       </c>
-      <c r="B220" s="1">
+      <c r="B220" s="2">
         <f t="shared" si="3"/>
         <v>167.76439999999999</v>
       </c>
@@ -9282,7 +9269,7 @@
       <c r="A221">
         <v>219</v>
       </c>
-      <c r="B221" s="1">
+      <c r="B221" s="2">
         <f t="shared" si="3"/>
         <v>168.76669999999999</v>
       </c>
@@ -9294,7 +9281,7 @@
       <c r="A222">
         <v>220</v>
       </c>
-      <c r="B222" s="1">
+      <c r="B222" s="2">
         <f t="shared" si="3"/>
         <v>169.76900000000001</v>
       </c>
@@ -9306,7 +9293,7 @@
       <c r="A223">
         <v>221</v>
       </c>
-      <c r="B223" s="1">
+      <c r="B223" s="2">
         <f t="shared" si="3"/>
         <v>170.7713</v>
       </c>
@@ -9318,7 +9305,7 @@
       <c r="A224">
         <v>222</v>
       </c>
-      <c r="B224" s="1">
+      <c r="B224" s="2">
         <f t="shared" si="3"/>
         <v>171.77359999999999</v>
       </c>
@@ -9330,7 +9317,7 @@
       <c r="A225">
         <v>223</v>
       </c>
-      <c r="B225" s="1">
+      <c r="B225" s="2">
         <f t="shared" si="3"/>
         <v>172.77590000000001</v>
       </c>
@@ -9342,7 +9329,7 @@
       <c r="A226">
         <v>224</v>
       </c>
-      <c r="B226" s="1">
+      <c r="B226" s="2">
         <f t="shared" si="3"/>
         <v>173.7782</v>
       </c>
@@ -9354,7 +9341,7 @@
       <c r="A227">
         <v>225</v>
       </c>
-      <c r="B227" s="1">
+      <c r="B227" s="2">
         <f t="shared" si="3"/>
         <v>174.78049999999999</v>
       </c>
@@ -9366,7 +9353,7 @@
       <c r="A228">
         <v>226</v>
       </c>
-      <c r="B228" s="1">
+      <c r="B228" s="2">
         <f t="shared" si="3"/>
         <v>175.78280000000001</v>
       </c>
@@ -9378,7 +9365,7 @@
       <c r="A229">
         <v>227</v>
       </c>
-      <c r="B229" s="1">
+      <c r="B229" s="2">
         <f t="shared" si="3"/>
         <v>176.7851</v>
       </c>
@@ -9390,7 +9377,7 @@
       <c r="A230">
         <v>228</v>
       </c>
-      <c r="B230" s="1">
+      <c r="B230" s="2">
         <f t="shared" si="3"/>
         <v>177.78739999999999</v>
       </c>
@@ -9402,7 +9389,7 @@
       <c r="A231">
         <v>229</v>
       </c>
-      <c r="B231" s="1">
+      <c r="B231" s="2">
         <f t="shared" si="3"/>
         <v>178.78970000000001</v>
       </c>
@@ -9414,7 +9401,7 @@
       <c r="A232">
         <v>230</v>
       </c>
-      <c r="B232" s="1">
+      <c r="B232" s="2">
         <f t="shared" si="3"/>
         <v>179.792</v>
       </c>
@@ -9426,7 +9413,7 @@
       <c r="A233">
         <v>231</v>
       </c>
-      <c r="B233" s="1">
+      <c r="B233" s="2">
         <f t="shared" si="3"/>
         <v>180.79429999999999</v>
       </c>
@@ -9438,7 +9425,7 @@
       <c r="A234">
         <v>232</v>
       </c>
-      <c r="B234" s="1">
+      <c r="B234" s="2">
         <f t="shared" si="3"/>
         <v>181.79659999999998</v>
       </c>
@@ -9450,7 +9437,7 @@
       <c r="A235">
         <v>233</v>
       </c>
-      <c r="B235" s="1">
+      <c r="B235" s="2">
         <f t="shared" si="3"/>
         <v>182.7989</v>
       </c>
@@ -9462,7 +9449,7 @@
       <c r="A236">
         <v>234</v>
       </c>
-      <c r="B236" s="1">
+      <c r="B236" s="2">
         <f t="shared" si="3"/>
         <v>183.80119999999999</v>
       </c>
@@ -9474,7 +9461,7 @@
       <c r="A237">
         <v>235</v>
       </c>
-      <c r="B237" s="1">
+      <c r="B237" s="2">
         <f t="shared" si="3"/>
         <v>184.80349999999999</v>
       </c>
@@ -9486,7 +9473,7 @@
       <c r="A238">
         <v>236</v>
       </c>
-      <c r="B238" s="1">
+      <c r="B238" s="2">
         <f t="shared" si="3"/>
         <v>185.8058</v>
       </c>
@@ -9498,7 +9485,7 @@
       <c r="A239">
         <v>237</v>
       </c>
-      <c r="B239" s="1">
+      <c r="B239" s="2">
         <f t="shared" si="3"/>
         <v>186.8081</v>
       </c>
@@ -9510,7 +9497,7 @@
       <c r="A240">
         <v>238</v>
       </c>
-      <c r="B240" s="1">
+      <c r="B240" s="2">
         <f t="shared" si="3"/>
         <v>187.81039999999999</v>
       </c>
@@ -9522,7 +9509,7 @@
       <c r="A241">
         <v>239</v>
       </c>
-      <c r="B241" s="1">
+      <c r="B241" s="2">
         <f t="shared" si="3"/>
         <v>188.81270000000001</v>
       </c>
@@ -9534,7 +9521,7 @@
       <c r="A242">
         <v>240</v>
       </c>
-      <c r="B242" s="1">
+      <c r="B242" s="2">
         <f t="shared" si="3"/>
         <v>189.815</v>
       </c>
@@ -9546,7 +9533,7 @@
       <c r="A243">
         <v>241</v>
       </c>
-      <c r="B243" s="1">
+      <c r="B243" s="2">
         <f t="shared" si="3"/>
         <v>190.81729999999999</v>
       </c>
@@ -9558,7 +9545,7 @@
       <c r="A244">
         <v>242</v>
       </c>
-      <c r="B244" s="1">
+      <c r="B244" s="2">
         <f t="shared" si="3"/>
         <v>191.81960000000001</v>
       </c>
@@ -9570,7 +9557,7 @@
       <c r="A245">
         <v>243</v>
       </c>
-      <c r="B245" s="1">
+      <c r="B245" s="2">
         <f t="shared" si="3"/>
         <v>192.8219</v>
       </c>
@@ -9582,7 +9569,7 @@
       <c r="A246">
         <v>244</v>
       </c>
-      <c r="B246" s="1">
+      <c r="B246" s="2">
         <f t="shared" si="3"/>
         <v>193.82419999999999</v>
       </c>
@@ -9594,7 +9581,7 @@
       <c r="A247">
         <v>245</v>
       </c>
-      <c r="B247" s="1">
+      <c r="B247" s="2">
         <f t="shared" si="3"/>
         <v>194.82650000000001</v>
       </c>
@@ -9606,7 +9593,7 @@
       <c r="A248">
         <v>246</v>
       </c>
-      <c r="B248" s="1">
+      <c r="B248" s="2">
         <f t="shared" si="3"/>
         <v>195.8288</v>
       </c>
@@ -9618,7 +9605,7 @@
       <c r="A249">
         <v>247</v>
       </c>
-      <c r="B249" s="1">
+      <c r="B249" s="2">
         <f t="shared" si="3"/>
         <v>196.83109999999999</v>
       </c>
@@ -9630,7 +9617,7 @@
       <c r="A250">
         <v>248</v>
       </c>
-      <c r="B250" s="1">
+      <c r="B250" s="2">
         <f t="shared" si="3"/>
         <v>197.83340000000001</v>
       </c>
@@ -9642,7 +9629,7 @@
       <c r="A251">
         <v>249</v>
       </c>
-      <c r="B251" s="1">
+      <c r="B251" s="2">
         <f t="shared" si="3"/>
         <v>198.8357</v>
       </c>
@@ -9654,7 +9641,7 @@
       <c r="A252">
         <v>250</v>
       </c>
-      <c r="B252" s="1">
+      <c r="B252" s="2">
         <f t="shared" si="3"/>
         <v>199.83799999999999</v>
       </c>
@@ -9666,7 +9653,7 @@
       <c r="A253">
         <v>251</v>
       </c>
-      <c r="B253" s="1">
+      <c r="B253" s="2">
         <f t="shared" si="3"/>
         <v>200.84029999999998</v>
       </c>
@@ -9678,7 +9665,7 @@
       <c r="A254">
         <v>252</v>
       </c>
-      <c r="B254" s="1">
+      <c r="B254" s="2">
         <f t="shared" si="3"/>
         <v>201.8426</v>
       </c>
@@ -9690,7 +9677,7 @@
       <c r="A255">
         <v>253</v>
       </c>
-      <c r="B255" s="1">
+      <c r="B255" s="2">
         <f t="shared" si="3"/>
         <v>202.8449</v>
       </c>
@@ -9702,7 +9689,7 @@
       <c r="A256">
         <v>254</v>
       </c>
-      <c r="B256" s="1">
+      <c r="B256" s="2">
         <f t="shared" si="3"/>
         <v>203.84719999999999</v>
       </c>
@@ -9714,7 +9701,7 @@
       <c r="A257">
         <v>255</v>
       </c>
-      <c r="B257" s="1">
+      <c r="B257" s="2">
         <f t="shared" si="3"/>
         <v>204.84950000000001</v>
       </c>
@@ -9726,7 +9713,7 @@
       <c r="A258">
         <v>256</v>
       </c>
-      <c r="B258" s="1">
+      <c r="B258" s="2">
         <f t="shared" si="3"/>
         <v>205.8518</v>
       </c>
@@ -9738,7 +9725,7 @@
       <c r="A259">
         <v>257</v>
       </c>
-      <c r="B259" s="1">
+      <c r="B259" s="2">
         <f t="shared" ref="B259:B322" si="4">_xlfn.IFS(A259&lt;=50,0.2401*A259-0.0023,AND(A259&gt;50,A259&lt;=100),0.4742*A259-12.042,AND(A259&gt;100,A259&lt;=150),0.4065*A259-5.5714,AND(A259&gt;150,A259&lt;=200),1.9368*A259-236.97,AND(A259&gt;200,A259&lt;=400),1.0023*A259-50.737,AND(A259&gt;400,A259&lt;=500),1.5141*A259-256.65)</f>
         <v>206.85409999999999</v>
       </c>
@@ -9750,7 +9737,7 @@
       <c r="A260">
         <v>258</v>
       </c>
-      <c r="B260" s="1">
+      <c r="B260" s="2">
         <f t="shared" si="4"/>
         <v>207.85639999999998</v>
       </c>
@@ -9762,7 +9749,7 @@
       <c r="A261">
         <v>259</v>
       </c>
-      <c r="B261" s="1">
+      <c r="B261" s="2">
         <f t="shared" si="4"/>
         <v>208.85869999999997</v>
       </c>
@@ -9774,7 +9761,7 @@
       <c r="A262">
         <v>260</v>
       </c>
-      <c r="B262" s="1">
+      <c r="B262" s="2">
         <f t="shared" si="4"/>
         <v>209.86100000000002</v>
       </c>
@@ -9786,7 +9773,7 @@
       <c r="A263">
         <v>261</v>
       </c>
-      <c r="B263" s="1">
+      <c r="B263" s="2">
         <f t="shared" si="4"/>
         <v>210.86330000000001</v>
       </c>
@@ -9798,7 +9785,7 @@
       <c r="A264">
         <v>262</v>
       </c>
-      <c r="B264" s="1">
+      <c r="B264" s="2">
         <f t="shared" si="4"/>
         <v>211.8656</v>
       </c>
@@ -9810,7 +9797,7 @@
       <c r="A265">
         <v>263</v>
       </c>
-      <c r="B265" s="1">
+      <c r="B265" s="2">
         <f t="shared" si="4"/>
         <v>212.86789999999999</v>
       </c>
@@ -9822,7 +9809,7 @@
       <c r="A266">
         <v>264</v>
       </c>
-      <c r="B266" s="1">
+      <c r="B266" s="2">
         <f t="shared" si="4"/>
         <v>213.87019999999998</v>
       </c>
@@ -9834,7 +9821,7 @@
       <c r="A267">
         <v>265</v>
       </c>
-      <c r="B267" s="1">
+      <c r="B267" s="2">
         <f t="shared" si="4"/>
         <v>214.87249999999997</v>
       </c>
@@ -9846,7 +9833,7 @@
       <c r="A268">
         <v>266</v>
       </c>
-      <c r="B268" s="1">
+      <c r="B268" s="2">
         <f t="shared" si="4"/>
         <v>215.87480000000002</v>
       </c>
@@ -9858,7 +9845,7 @@
       <c r="A269">
         <v>267</v>
       </c>
-      <c r="B269" s="1">
+      <c r="B269" s="2">
         <f t="shared" si="4"/>
         <v>216.87710000000001</v>
       </c>
@@ -9870,7 +9857,7 @@
       <c r="A270">
         <v>268</v>
       </c>
-      <c r="B270" s="1">
+      <c r="B270" s="2">
         <f t="shared" si="4"/>
         <v>217.8794</v>
       </c>
@@ -9882,7 +9869,7 @@
       <c r="A271">
         <v>269</v>
       </c>
-      <c r="B271" s="1">
+      <c r="B271" s="2">
         <f t="shared" si="4"/>
         <v>218.8817</v>
       </c>
@@ -9894,7 +9881,7 @@
       <c r="A272">
         <v>270</v>
       </c>
-      <c r="B272" s="1">
+      <c r="B272" s="2">
         <f t="shared" si="4"/>
         <v>219.88399999999999</v>
       </c>
@@ -9906,7 +9893,7 @@
       <c r="A273">
         <v>271</v>
       </c>
-      <c r="B273" s="1">
+      <c r="B273" s="2">
         <f t="shared" si="4"/>
         <v>220.88629999999998</v>
       </c>
@@ -9918,7 +9905,7 @@
       <c r="A274">
         <v>272</v>
       </c>
-      <c r="B274" s="1">
+      <c r="B274" s="2">
         <f t="shared" si="4"/>
         <v>221.88859999999997</v>
       </c>
@@ -9930,7 +9917,7 @@
       <c r="A275">
         <v>273</v>
       </c>
-      <c r="B275" s="1">
+      <c r="B275" s="2">
         <f t="shared" si="4"/>
         <v>222.89090000000002</v>
       </c>
@@ -9942,7 +9929,7 @@
       <c r="A276">
         <v>274</v>
       </c>
-      <c r="B276" s="1">
+      <c r="B276" s="2">
         <f t="shared" si="4"/>
         <v>223.89320000000001</v>
       </c>
@@ -9954,7 +9941,7 @@
       <c r="A277">
         <v>275</v>
       </c>
-      <c r="B277" s="1">
+      <c r="B277" s="2">
         <f t="shared" si="4"/>
         <v>224.8955</v>
       </c>
@@ -9966,7 +9953,7 @@
       <c r="A278">
         <v>276</v>
       </c>
-      <c r="B278" s="1">
+      <c r="B278" s="2">
         <f t="shared" si="4"/>
         <v>225.89779999999999</v>
       </c>
@@ -9978,7 +9965,7 @@
       <c r="A279">
         <v>277</v>
       </c>
-      <c r="B279" s="1">
+      <c r="B279" s="2">
         <f t="shared" si="4"/>
         <v>226.90009999999998</v>
       </c>
@@ -9990,7 +9977,7 @@
       <c r="A280">
         <v>278</v>
       </c>
-      <c r="B280" s="1">
+      <c r="B280" s="2">
         <f t="shared" si="4"/>
         <v>227.90239999999997</v>
       </c>
@@ -10002,7 +9989,7 @@
       <c r="A281">
         <v>279</v>
       </c>
-      <c r="B281" s="1">
+      <c r="B281" s="2">
         <f t="shared" si="4"/>
         <v>228.90470000000002</v>
       </c>
@@ -10014,7 +10001,7 @@
       <c r="A282">
         <v>280</v>
       </c>
-      <c r="B282" s="1">
+      <c r="B282" s="2">
         <f t="shared" si="4"/>
         <v>229.90700000000001</v>
       </c>
@@ -10026,7 +10013,7 @@
       <c r="A283">
         <v>281</v>
       </c>
-      <c r="B283" s="1">
+      <c r="B283" s="2">
         <f t="shared" si="4"/>
         <v>230.9093</v>
       </c>
@@ -10038,7 +10025,7 @@
       <c r="A284">
         <v>282</v>
       </c>
-      <c r="B284" s="1">
+      <c r="B284" s="2">
         <f t="shared" si="4"/>
         <v>231.91159999999999</v>
       </c>
@@ -10050,7 +10037,7 @@
       <c r="A285">
         <v>283</v>
       </c>
-      <c r="B285" s="1">
+      <c r="B285" s="2">
         <f t="shared" si="4"/>
         <v>232.91389999999998</v>
       </c>
@@ -10062,7 +10049,7 @@
       <c r="A286">
         <v>284</v>
       </c>
-      <c r="B286" s="1">
+      <c r="B286" s="2">
         <f t="shared" si="4"/>
         <v>233.91619999999998</v>
       </c>
@@ -10074,7 +10061,7 @@
       <c r="A287">
         <v>285</v>
       </c>
-      <c r="B287" s="1">
+      <c r="B287" s="2">
         <f t="shared" si="4"/>
         <v>234.91850000000002</v>
       </c>
@@ -10086,7 +10073,7 @@
       <c r="A288">
         <v>286</v>
       </c>
-      <c r="B288" s="1">
+      <c r="B288" s="2">
         <f t="shared" si="4"/>
         <v>235.92080000000001</v>
       </c>
@@ -10098,7 +10085,7 @@
       <c r="A289">
         <v>287</v>
       </c>
-      <c r="B289" s="1">
+      <c r="B289" s="2">
         <f t="shared" si="4"/>
         <v>236.92310000000001</v>
       </c>
@@ -10110,7 +10097,7 @@
       <c r="A290">
         <v>288</v>
       </c>
-      <c r="B290" s="1">
+      <c r="B290" s="2">
         <f t="shared" si="4"/>
         <v>237.9254</v>
       </c>
@@ -10122,7 +10109,7 @@
       <c r="A291">
         <v>289</v>
       </c>
-      <c r="B291" s="1">
+      <c r="B291" s="2">
         <f t="shared" si="4"/>
         <v>238.92769999999999</v>
       </c>
@@ -10134,7 +10121,7 @@
       <c r="A292">
         <v>290</v>
       </c>
-      <c r="B292" s="1">
+      <c r="B292" s="2">
         <f t="shared" si="4"/>
         <v>239.92999999999998</v>
       </c>
@@ -10146,7 +10133,7 @@
       <c r="A293">
         <v>291</v>
       </c>
-      <c r="B293" s="1">
+      <c r="B293" s="2">
         <f t="shared" si="4"/>
         <v>240.93229999999997</v>
       </c>
@@ -10158,7 +10145,7 @@
       <c r="A294">
         <v>292</v>
       </c>
-      <c r="B294" s="1">
+      <c r="B294" s="2">
         <f t="shared" si="4"/>
         <v>241.93460000000002</v>
       </c>
@@ -10170,7 +10157,7 @@
       <c r="A295">
         <v>293</v>
       </c>
-      <c r="B295" s="1">
+      <c r="B295" s="2">
         <f t="shared" si="4"/>
         <v>242.93690000000001</v>
       </c>
@@ -10182,7 +10169,7 @@
       <c r="A296">
         <v>294</v>
       </c>
-      <c r="B296" s="1">
+      <c r="B296" s="2">
         <f t="shared" si="4"/>
         <v>243.9392</v>
       </c>
@@ -10194,7 +10181,7 @@
       <c r="A297">
         <v>295</v>
       </c>
-      <c r="B297" s="1">
+      <c r="B297" s="2">
         <f t="shared" si="4"/>
         <v>244.94149999999999</v>
       </c>
@@ -10206,7 +10193,7 @@
       <c r="A298">
         <v>296</v>
       </c>
-      <c r="B298" s="1">
+      <c r="B298" s="2">
         <f t="shared" si="4"/>
         <v>245.94379999999998</v>
       </c>
@@ -10218,7 +10205,7 @@
       <c r="A299">
         <v>297</v>
       </c>
-      <c r="B299" s="1">
+      <c r="B299" s="2">
         <f t="shared" si="4"/>
         <v>246.94609999999997</v>
       </c>
@@ -10230,7 +10217,7 @@
       <c r="A300">
         <v>298</v>
       </c>
-      <c r="B300" s="1">
+      <c r="B300" s="2">
         <f t="shared" si="4"/>
         <v>247.94840000000002</v>
       </c>
@@ -10242,7 +10229,7 @@
       <c r="A301">
         <v>299</v>
       </c>
-      <c r="B301" s="1">
+      <c r="B301" s="2">
         <f t="shared" si="4"/>
         <v>248.95070000000001</v>
       </c>
@@ -10254,7 +10241,7 @@
       <c r="A302">
         <v>300</v>
       </c>
-      <c r="B302" s="1">
+      <c r="B302" s="2">
         <f t="shared" si="4"/>
         <v>249.953</v>
       </c>
@@ -10266,7 +10253,7 @@
       <c r="A303">
         <v>301</v>
       </c>
-      <c r="B303" s="1">
+      <c r="B303" s="2">
         <f t="shared" si="4"/>
         <v>250.95529999999999</v>
       </c>
@@ -10278,7 +10265,7 @@
       <c r="A304">
         <v>302</v>
       </c>
-      <c r="B304" s="1">
+      <c r="B304" s="2">
         <f t="shared" si="4"/>
         <v>251.95759999999999</v>
       </c>
@@ -10290,7 +10277,7 @@
       <c r="A305">
         <v>303</v>
       </c>
-      <c r="B305" s="1">
+      <c r="B305" s="2">
         <f t="shared" si="4"/>
         <v>252.95989999999998</v>
       </c>
@@ -10302,7 +10289,7 @@
       <c r="A306">
         <v>304</v>
       </c>
-      <c r="B306" s="1">
+      <c r="B306" s="2">
         <f t="shared" si="4"/>
         <v>253.96220000000002</v>
       </c>
@@ -10314,7 +10301,7 @@
       <c r="A307">
         <v>305</v>
       </c>
-      <c r="B307" s="1">
+      <c r="B307" s="2">
         <f t="shared" si="4"/>
         <v>254.96450000000002</v>
       </c>
@@ -10326,7 +10313,7 @@
       <c r="A308">
         <v>306</v>
       </c>
-      <c r="B308" s="1">
+      <c r="B308" s="2">
         <f t="shared" si="4"/>
         <v>255.96680000000001</v>
       </c>
@@ -10338,7 +10325,7 @@
       <c r="A309">
         <v>307</v>
       </c>
-      <c r="B309" s="1">
+      <c r="B309" s="2">
         <f t="shared" si="4"/>
         <v>256.96909999999997</v>
       </c>
@@ -10350,7 +10337,7 @@
       <c r="A310">
         <v>308</v>
       </c>
-      <c r="B310" s="1">
+      <c r="B310" s="2">
         <f t="shared" si="4"/>
         <v>257.97139999999996</v>
       </c>
@@ -10362,7 +10349,7 @@
       <c r="A311">
         <v>309</v>
       </c>
-      <c r="B311" s="1">
+      <c r="B311" s="2">
         <f t="shared" si="4"/>
         <v>258.97369999999995</v>
       </c>
@@ -10374,7 +10361,7 @@
       <c r="A312">
         <v>310</v>
       </c>
-      <c r="B312" s="1">
+      <c r="B312" s="2">
         <f t="shared" si="4"/>
         <v>259.97599999999994</v>
       </c>
@@ -10386,7 +10373,7 @@
       <c r="A313">
         <v>311</v>
       </c>
-      <c r="B313" s="1">
+      <c r="B313" s="2">
         <f t="shared" si="4"/>
         <v>260.97829999999999</v>
       </c>
@@ -10398,7 +10385,7 @@
       <c r="A314">
         <v>312</v>
       </c>
-      <c r="B314" s="1">
+      <c r="B314" s="2">
         <f t="shared" si="4"/>
         <v>261.98059999999998</v>
       </c>
@@ -10410,7 +10397,7 @@
       <c r="A315">
         <v>313</v>
       </c>
-      <c r="B315" s="1">
+      <c r="B315" s="2">
         <f t="shared" si="4"/>
         <v>262.98289999999997</v>
       </c>
@@ -10422,7 +10409,7 @@
       <c r="A316">
         <v>314</v>
       </c>
-      <c r="B316" s="1">
+      <c r="B316" s="2">
         <f t="shared" si="4"/>
         <v>263.98519999999996</v>
       </c>
@@ -10434,7 +10421,7 @@
       <c r="A317">
         <v>315</v>
       </c>
-      <c r="B317" s="1">
+      <c r="B317" s="2">
         <f t="shared" si="4"/>
         <v>264.98749999999995</v>
       </c>
@@ -10446,7 +10433,7 @@
       <c r="A318">
         <v>316</v>
       </c>
-      <c r="B318" s="1">
+      <c r="B318" s="2">
         <f t="shared" si="4"/>
         <v>265.98979999999995</v>
       </c>
@@ -10458,7 +10445,7 @@
       <c r="A319">
         <v>317</v>
       </c>
-      <c r="B319" s="1">
+      <c r="B319" s="2">
         <f t="shared" si="4"/>
         <v>266.99209999999999</v>
       </c>
@@ -10470,7 +10457,7 @@
       <c r="A320">
         <v>318</v>
       </c>
-      <c r="B320" s="1">
+      <c r="B320" s="2">
         <f t="shared" si="4"/>
         <v>267.99439999999998</v>
       </c>
@@ -10482,7 +10469,7 @@
       <c r="A321">
         <v>319</v>
       </c>
-      <c r="B321" s="1">
+      <c r="B321" s="2">
         <f t="shared" si="4"/>
         <v>268.99669999999998</v>
       </c>
@@ -10494,7 +10481,7 @@
       <c r="A322">
         <v>320</v>
       </c>
-      <c r="B322" s="1">
+      <c r="B322" s="2">
         <f t="shared" si="4"/>
         <v>269.99899999999997</v>
       </c>
@@ -10506,7 +10493,7 @@
       <c r="A323">
         <v>321</v>
       </c>
-      <c r="B323" s="1">
+      <c r="B323" s="2">
         <f t="shared" ref="B323:B386" si="5">_xlfn.IFS(A323&lt;=50,0.2401*A323-0.0023,AND(A323&gt;50,A323&lt;=100),0.4742*A323-12.042,AND(A323&gt;100,A323&lt;=150),0.4065*A323-5.5714,AND(A323&gt;150,A323&lt;=200),1.9368*A323-236.97,AND(A323&gt;200,A323&lt;=400),1.0023*A323-50.737,AND(A323&gt;400,A323&lt;=500),1.5141*A323-256.65)</f>
         <v>271.00129999999996</v>
       </c>
@@ -10518,7 +10505,7 @@
       <c r="A324">
         <v>322</v>
       </c>
-      <c r="B324" s="1">
+      <c r="B324" s="2">
         <f t="shared" si="5"/>
         <v>272.00359999999995</v>
       </c>
@@ -10530,7 +10517,7 @@
       <c r="A325">
         <v>323</v>
       </c>
-      <c r="B325" s="1">
+      <c r="B325" s="2">
         <f t="shared" si="5"/>
         <v>273.00589999999994</v>
       </c>
@@ -10542,7 +10529,7 @@
       <c r="A326">
         <v>324</v>
       </c>
-      <c r="B326" s="1">
+      <c r="B326" s="2">
         <f t="shared" si="5"/>
         <v>274.00819999999999</v>
       </c>
@@ -10554,7 +10541,7 @@
       <c r="A327">
         <v>325</v>
       </c>
-      <c r="B327" s="1">
+      <c r="B327" s="2">
         <f t="shared" si="5"/>
         <v>275.01049999999998</v>
       </c>
@@ -10566,7 +10553,7 @@
       <c r="A328">
         <v>326</v>
       </c>
-      <c r="B328" s="1">
+      <c r="B328" s="2">
         <f t="shared" si="5"/>
         <v>276.01279999999997</v>
       </c>
@@ -10578,7 +10565,7 @@
       <c r="A329">
         <v>327</v>
       </c>
-      <c r="B329" s="1">
+      <c r="B329" s="2">
         <f t="shared" si="5"/>
         <v>277.01509999999996</v>
       </c>
@@ -10590,7 +10577,7 @@
       <c r="A330">
         <v>328</v>
       </c>
-      <c r="B330" s="1">
+      <c r="B330" s="2">
         <f t="shared" si="5"/>
         <v>278.01739999999995</v>
       </c>
@@ -10602,7 +10589,7 @@
       <c r="A331">
         <v>329</v>
       </c>
-      <c r="B331" s="1">
+      <c r="B331" s="2">
         <f t="shared" si="5"/>
         <v>279.01969999999994</v>
       </c>
@@ -10614,7 +10601,7 @@
       <c r="A332">
         <v>330</v>
       </c>
-      <c r="B332" s="1">
+      <c r="B332" s="2">
         <f t="shared" si="5"/>
         <v>280.02199999999999</v>
       </c>
@@ -10626,7 +10613,7 @@
       <c r="A333">
         <v>331</v>
       </c>
-      <c r="B333" s="1">
+      <c r="B333" s="2">
         <f t="shared" si="5"/>
         <v>281.02429999999998</v>
       </c>
@@ -10638,7 +10625,7 @@
       <c r="A334">
         <v>332</v>
       </c>
-      <c r="B334" s="1">
+      <c r="B334" s="2">
         <f t="shared" si="5"/>
         <v>282.02659999999997</v>
       </c>
@@ -10650,7 +10637,7 @@
       <c r="A335">
         <v>333</v>
       </c>
-      <c r="B335" s="1">
+      <c r="B335" s="2">
         <f t="shared" si="5"/>
         <v>283.02889999999996</v>
       </c>
@@ -10662,7 +10649,7 @@
       <c r="A336">
         <v>334</v>
       </c>
-      <c r="B336" s="1">
+      <c r="B336" s="2">
         <f t="shared" si="5"/>
         <v>284.03119999999996</v>
       </c>
@@ -10674,7 +10661,7 @@
       <c r="A337">
         <v>335</v>
       </c>
-      <c r="B337" s="1">
+      <c r="B337" s="2">
         <f t="shared" si="5"/>
         <v>285.03349999999995</v>
       </c>
@@ -10686,7 +10673,7 @@
       <c r="A338">
         <v>336</v>
       </c>
-      <c r="B338" s="1">
+      <c r="B338" s="2">
         <f t="shared" si="5"/>
         <v>286.03579999999994</v>
       </c>
@@ -10698,7 +10685,7 @@
       <c r="A339">
         <v>337</v>
       </c>
-      <c r="B339" s="1">
+      <c r="B339" s="2">
         <f t="shared" si="5"/>
         <v>287.03809999999999</v>
       </c>
@@ -10710,7 +10697,7 @@
       <c r="A340">
         <v>338</v>
       </c>
-      <c r="B340" s="1">
+      <c r="B340" s="2">
         <f t="shared" si="5"/>
         <v>288.04039999999998</v>
       </c>
@@ -10722,7 +10709,7 @@
       <c r="A341">
         <v>339</v>
       </c>
-      <c r="B341" s="1">
+      <c r="B341" s="2">
         <f t="shared" si="5"/>
         <v>289.04269999999997</v>
       </c>
@@ -10734,7 +10721,7 @@
       <c r="A342">
         <v>340</v>
       </c>
-      <c r="B342" s="1">
+      <c r="B342" s="2">
         <f t="shared" si="5"/>
         <v>290.04499999999996</v>
       </c>
@@ -10746,7 +10733,7 @@
       <c r="A343">
         <v>341</v>
       </c>
-      <c r="B343" s="1">
+      <c r="B343" s="2">
         <f t="shared" si="5"/>
         <v>291.04729999999995</v>
       </c>
@@ -10758,7 +10745,7 @@
       <c r="A344">
         <v>342</v>
       </c>
-      <c r="B344" s="1">
+      <c r="B344" s="2">
         <f t="shared" si="5"/>
         <v>292.04959999999994</v>
       </c>
@@ -10770,7 +10757,7 @@
       <c r="A345">
         <v>343</v>
       </c>
-      <c r="B345" s="1">
+      <c r="B345" s="2">
         <f t="shared" si="5"/>
         <v>293.05189999999999</v>
       </c>
@@ -10782,7 +10769,7 @@
       <c r="A346">
         <v>344</v>
       </c>
-      <c r="B346" s="1">
+      <c r="B346" s="2">
         <f t="shared" si="5"/>
         <v>294.05419999999998</v>
       </c>
@@ -10794,7 +10781,7 @@
       <c r="A347">
         <v>345</v>
       </c>
-      <c r="B347" s="1">
+      <c r="B347" s="2">
         <f t="shared" si="5"/>
         <v>295.05649999999997</v>
       </c>
@@ -10806,7 +10793,7 @@
       <c r="A348">
         <v>346</v>
       </c>
-      <c r="B348" s="1">
+      <c r="B348" s="2">
         <f t="shared" si="5"/>
         <v>296.05879999999996</v>
       </c>
@@ -10818,7 +10805,7 @@
       <c r="A349">
         <v>347</v>
       </c>
-      <c r="B349" s="1">
+      <c r="B349" s="2">
         <f t="shared" si="5"/>
         <v>297.06109999999995</v>
       </c>
@@ -10830,7 +10817,7 @@
       <c r="A350">
         <v>348</v>
       </c>
-      <c r="B350" s="1">
+      <c r="B350" s="2">
         <f t="shared" si="5"/>
         <v>298.06339999999994</v>
       </c>
@@ -10842,7 +10829,7 @@
       <c r="A351">
         <v>349</v>
       </c>
-      <c r="B351" s="1">
+      <c r="B351" s="2">
         <f t="shared" si="5"/>
         <v>299.06569999999999</v>
       </c>
@@ -10854,7 +10841,7 @@
       <c r="A352">
         <v>350</v>
       </c>
-      <c r="B352" s="1">
+      <c r="B352" s="2">
         <f t="shared" si="5"/>
         <v>300.06799999999998</v>
       </c>
@@ -10866,7 +10853,7 @@
       <c r="A353">
         <v>351</v>
       </c>
-      <c r="B353" s="1">
+      <c r="B353" s="2">
         <f t="shared" si="5"/>
         <v>301.07029999999997</v>
       </c>
@@ -10878,7 +10865,7 @@
       <c r="A354">
         <v>352</v>
       </c>
-      <c r="B354" s="1">
+      <c r="B354" s="2">
         <f t="shared" si="5"/>
         <v>302.07259999999997</v>
       </c>
@@ -10890,7 +10877,7 @@
       <c r="A355">
         <v>353</v>
       </c>
-      <c r="B355" s="1">
+      <c r="B355" s="2">
         <f t="shared" si="5"/>
         <v>303.07489999999996</v>
       </c>
@@ -10902,7 +10889,7 @@
       <c r="A356">
         <v>354</v>
       </c>
-      <c r="B356" s="1">
+      <c r="B356" s="2">
         <f t="shared" si="5"/>
         <v>304.07719999999995</v>
       </c>
@@ -10914,7 +10901,7 @@
       <c r="A357">
         <v>355</v>
       </c>
-      <c r="B357" s="1">
+      <c r="B357" s="2">
         <f t="shared" si="5"/>
         <v>305.07949999999994</v>
       </c>
@@ -10926,7 +10913,7 @@
       <c r="A358">
         <v>356</v>
       </c>
-      <c r="B358" s="1">
+      <c r="B358" s="2">
         <f t="shared" si="5"/>
         <v>306.08179999999999</v>
       </c>
@@ -10938,7 +10925,7 @@
       <c r="A359">
         <v>357</v>
       </c>
-      <c r="B359" s="1">
+      <c r="B359" s="2">
         <f t="shared" si="5"/>
         <v>307.08409999999998</v>
       </c>
@@ -10950,7 +10937,7 @@
       <c r="A360">
         <v>358</v>
       </c>
-      <c r="B360" s="1">
+      <c r="B360" s="2">
         <f t="shared" si="5"/>
         <v>308.08639999999997</v>
       </c>
@@ -10962,7 +10949,7 @@
       <c r="A361">
         <v>359</v>
       </c>
-      <c r="B361" s="1">
+      <c r="B361" s="2">
         <f t="shared" si="5"/>
         <v>309.08869999999996</v>
       </c>
@@ -10974,7 +10961,7 @@
       <c r="A362">
         <v>360</v>
       </c>
-      <c r="B362" s="1">
+      <c r="B362" s="2">
         <f t="shared" si="5"/>
         <v>310.09099999999995</v>
       </c>
@@ -10986,7 +10973,7 @@
       <c r="A363">
         <v>361</v>
       </c>
-      <c r="B363" s="1">
+      <c r="B363" s="2">
         <f t="shared" si="5"/>
         <v>311.09329999999994</v>
       </c>
@@ -10998,7 +10985,7 @@
       <c r="A364">
         <v>362</v>
       </c>
-      <c r="B364" s="1">
+      <c r="B364" s="2">
         <f t="shared" si="5"/>
         <v>312.09559999999999</v>
       </c>
@@ -11010,7 +10997,7 @@
       <c r="A365">
         <v>363</v>
       </c>
-      <c r="B365" s="1">
+      <c r="B365" s="2">
         <f t="shared" si="5"/>
         <v>313.09789999999998</v>
       </c>
@@ -11022,7 +11009,7 @@
       <c r="A366">
         <v>364</v>
       </c>
-      <c r="B366" s="1">
+      <c r="B366" s="2">
         <f t="shared" si="5"/>
         <v>314.10019999999997</v>
       </c>
@@ -11034,7 +11021,7 @@
       <c r="A367">
         <v>365</v>
       </c>
-      <c r="B367" s="1">
+      <c r="B367" s="2">
         <f t="shared" si="5"/>
         <v>315.10249999999996</v>
       </c>
@@ -11046,7 +11033,7 @@
       <c r="A368">
         <v>366</v>
       </c>
-      <c r="B368" s="1">
+      <c r="B368" s="2">
         <f t="shared" si="5"/>
         <v>316.10479999999995</v>
       </c>
@@ -11058,7 +11045,7 @@
       <c r="A369">
         <v>367</v>
       </c>
-      <c r="B369" s="1">
+      <c r="B369" s="2">
         <f t="shared" si="5"/>
         <v>317.10709999999995</v>
       </c>
@@ -11070,7 +11057,7 @@
       <c r="A370">
         <v>368</v>
       </c>
-      <c r="B370" s="1">
+      <c r="B370" s="2">
         <f t="shared" si="5"/>
         <v>318.10939999999999</v>
       </c>
@@ -11082,7 +11069,7 @@
       <c r="A371">
         <v>369</v>
       </c>
-      <c r="B371" s="1">
+      <c r="B371" s="2">
         <f t="shared" si="5"/>
         <v>319.11169999999998</v>
       </c>
@@ -11094,7 +11081,7 @@
       <c r="A372">
         <v>370</v>
       </c>
-      <c r="B372" s="1">
+      <c r="B372" s="2">
         <f t="shared" si="5"/>
         <v>320.11399999999998</v>
       </c>
@@ -11106,7 +11093,7 @@
       <c r="A373">
         <v>371</v>
       </c>
-      <c r="B373" s="1">
+      <c r="B373" s="2">
         <f t="shared" si="5"/>
         <v>321.11629999999997</v>
       </c>
@@ -11118,7 +11105,7 @@
       <c r="A374">
         <v>372</v>
       </c>
-      <c r="B374" s="1">
+      <c r="B374" s="2">
         <f t="shared" si="5"/>
         <v>322.11859999999996</v>
       </c>
@@ -11130,7 +11117,7 @@
       <c r="A375">
         <v>373</v>
       </c>
-      <c r="B375" s="1">
+      <c r="B375" s="2">
         <f t="shared" si="5"/>
         <v>323.12089999999995</v>
       </c>
@@ -11142,7 +11129,7 @@
       <c r="A376">
         <v>374</v>
       </c>
-      <c r="B376" s="1">
+      <c r="B376" s="2">
         <f t="shared" si="5"/>
         <v>324.12319999999994</v>
       </c>
@@ -11154,7 +11141,7 @@
       <c r="A377">
         <v>375</v>
       </c>
-      <c r="B377" s="1">
+      <c r="B377" s="2">
         <f t="shared" si="5"/>
         <v>325.12549999999999</v>
       </c>
@@ -11166,7 +11153,7 @@
       <c r="A378">
         <v>376</v>
       </c>
-      <c r="B378" s="1">
+      <c r="B378" s="2">
         <f t="shared" si="5"/>
         <v>326.12779999999998</v>
       </c>
@@ -11178,7 +11165,7 @@
       <c r="A379">
         <v>377</v>
       </c>
-      <c r="B379" s="1">
+      <c r="B379" s="2">
         <f t="shared" si="5"/>
         <v>327.13009999999997</v>
       </c>
@@ -11190,7 +11177,7 @@
       <c r="A380">
         <v>378</v>
       </c>
-      <c r="B380" s="1">
+      <c r="B380" s="2">
         <f t="shared" si="5"/>
         <v>328.13239999999996</v>
       </c>
@@ -11202,7 +11189,7 @@
       <c r="A381">
         <v>379</v>
       </c>
-      <c r="B381" s="1">
+      <c r="B381" s="2">
         <f t="shared" si="5"/>
         <v>329.13469999999995</v>
       </c>
@@ -11214,7 +11201,7 @@
       <c r="A382">
         <v>380</v>
       </c>
-      <c r="B382" s="1">
+      <c r="B382" s="2">
         <f t="shared" si="5"/>
         <v>330.13699999999994</v>
       </c>
@@ -11226,7 +11213,7 @@
       <c r="A383">
         <v>381</v>
       </c>
-      <c r="B383" s="1">
+      <c r="B383" s="2">
         <f t="shared" si="5"/>
         <v>331.13929999999999</v>
       </c>
@@ -11238,7 +11225,7 @@
       <c r="A384">
         <v>382</v>
       </c>
-      <c r="B384" s="1">
+      <c r="B384" s="2">
         <f t="shared" si="5"/>
         <v>332.14159999999998</v>
       </c>
@@ -11250,7 +11237,7 @@
       <c r="A385">
         <v>383</v>
       </c>
-      <c r="B385" s="1">
+      <c r="B385" s="2">
         <f t="shared" si="5"/>
         <v>333.14389999999997</v>
       </c>
@@ -11262,7 +11249,7 @@
       <c r="A386">
         <v>384</v>
       </c>
-      <c r="B386" s="1">
+      <c r="B386" s="2">
         <f t="shared" si="5"/>
         <v>334.14619999999996</v>
       </c>
@@ -11274,7 +11261,7 @@
       <c r="A387">
         <v>385</v>
       </c>
-      <c r="B387" s="1">
+      <c r="B387" s="2">
         <f t="shared" ref="B387:B450" si="6">_xlfn.IFS(A387&lt;=50,0.2401*A387-0.0023,AND(A387&gt;50,A387&lt;=100),0.4742*A387-12.042,AND(A387&gt;100,A387&lt;=150),0.4065*A387-5.5714,AND(A387&gt;150,A387&lt;=200),1.9368*A387-236.97,AND(A387&gt;200,A387&lt;=400),1.0023*A387-50.737,AND(A387&gt;400,A387&lt;=500),1.5141*A387-256.65)</f>
         <v>335.14849999999996</v>
       </c>
@@ -11286,7 +11273,7 @@
       <c r="A388">
         <v>386</v>
       </c>
-      <c r="B388" s="1">
+      <c r="B388" s="2">
         <f t="shared" si="6"/>
         <v>336.15079999999995</v>
       </c>
@@ -11298,7 +11285,7 @@
       <c r="A389">
         <v>387</v>
       </c>
-      <c r="B389" s="1">
+      <c r="B389" s="2">
         <f t="shared" si="6"/>
         <v>337.15309999999994</v>
       </c>
@@ -11310,7 +11297,7 @@
       <c r="A390">
         <v>388</v>
       </c>
-      <c r="B390" s="1">
+      <c r="B390" s="2">
         <f t="shared" si="6"/>
         <v>338.15539999999999</v>
       </c>
@@ -11322,7 +11309,7 @@
       <c r="A391">
         <v>389</v>
       </c>
-      <c r="B391" s="1">
+      <c r="B391" s="2">
         <f t="shared" si="6"/>
         <v>339.15769999999998</v>
       </c>
@@ -11334,7 +11321,7 @@
       <c r="A392">
         <v>390</v>
       </c>
-      <c r="B392" s="1">
+      <c r="B392" s="2">
         <f t="shared" si="6"/>
         <v>340.15999999999997</v>
       </c>
@@ -11346,7 +11333,7 @@
       <c r="A393">
         <v>391</v>
       </c>
-      <c r="B393" s="1">
+      <c r="B393" s="2">
         <f t="shared" si="6"/>
         <v>341.16229999999996</v>
       </c>
@@ -11358,7 +11345,7 @@
       <c r="A394">
         <v>392</v>
       </c>
-      <c r="B394" s="1">
+      <c r="B394" s="2">
         <f t="shared" si="6"/>
         <v>342.16459999999995</v>
       </c>
@@ -11370,7 +11357,7 @@
       <c r="A395">
         <v>393</v>
       </c>
-      <c r="B395" s="1">
+      <c r="B395" s="2">
         <f t="shared" si="6"/>
         <v>343.16689999999994</v>
       </c>
@@ -11382,7 +11369,7 @@
       <c r="A396">
         <v>394</v>
       </c>
-      <c r="B396" s="1">
+      <c r="B396" s="2">
         <f t="shared" si="6"/>
         <v>344.16919999999999</v>
       </c>
@@ -11394,7 +11381,7 @@
       <c r="A397">
         <v>395</v>
       </c>
-      <c r="B397" s="1">
+      <c r="B397" s="2">
         <f t="shared" si="6"/>
         <v>345.17149999999998</v>
       </c>
@@ -11406,7 +11393,7 @@
       <c r="A398">
         <v>396</v>
       </c>
-      <c r="B398" s="1">
+      <c r="B398" s="2">
         <f t="shared" si="6"/>
         <v>346.17379999999997</v>
       </c>
@@ -11418,7 +11405,7 @@
       <c r="A399">
         <v>397</v>
       </c>
-      <c r="B399" s="1">
+      <c r="B399" s="2">
         <f t="shared" si="6"/>
         <v>347.17609999999996</v>
       </c>
@@ -11430,7 +11417,7 @@
       <c r="A400">
         <v>398</v>
       </c>
-      <c r="B400" s="1">
+      <c r="B400" s="2">
         <f t="shared" si="6"/>
         <v>348.17839999999995</v>
       </c>
@@ -11442,7 +11429,7 @@
       <c r="A401">
         <v>399</v>
       </c>
-      <c r="B401" s="1">
+      <c r="B401" s="2">
         <f t="shared" si="6"/>
         <v>349.18069999999994</v>
       </c>
@@ -11454,7 +11441,7 @@
       <c r="A402">
         <v>400</v>
       </c>
-      <c r="B402" s="1">
+      <c r="B402" s="2">
         <f t="shared" si="6"/>
         <v>350.18299999999994</v>
       </c>
@@ -11466,7 +11453,7 @@
       <c r="A403">
         <v>401</v>
       </c>
-      <c r="B403" s="1">
+      <c r="B403" s="2">
         <f t="shared" si="6"/>
         <v>350.50409999999999</v>
       </c>
@@ -11478,7 +11465,7 @@
       <c r="A404">
         <v>402</v>
       </c>
-      <c r="B404" s="1">
+      <c r="B404" s="2">
         <f t="shared" si="6"/>
         <v>352.01819999999998</v>
       </c>
@@ -11490,7 +11477,7 @@
       <c r="A405">
         <v>403</v>
       </c>
-      <c r="B405" s="1">
+      <c r="B405" s="2">
         <f t="shared" si="6"/>
         <v>353.53230000000008</v>
       </c>
@@ -11502,7 +11489,7 @@
       <c r="A406">
         <v>404</v>
       </c>
-      <c r="B406" s="1">
+      <c r="B406" s="2">
         <f t="shared" si="6"/>
         <v>355.04640000000006</v>
       </c>
@@ -11514,7 +11501,7 @@
       <c r="A407">
         <v>405</v>
       </c>
-      <c r="B407" s="1">
+      <c r="B407" s="2">
         <f t="shared" si="6"/>
         <v>356.56050000000005</v>
       </c>
@@ -11526,7 +11513,7 @@
       <c r="A408">
         <v>406</v>
       </c>
-      <c r="B408" s="1">
+      <c r="B408" s="2">
         <f t="shared" si="6"/>
         <v>358.07460000000003</v>
       </c>
@@ -11538,7 +11525,7 @@
       <c r="A409">
         <v>407</v>
       </c>
-      <c r="B409" s="1">
+      <c r="B409" s="2">
         <f t="shared" si="6"/>
         <v>359.58870000000002</v>
       </c>
@@ -11550,7 +11537,7 @@
       <c r="A410">
         <v>408</v>
       </c>
-      <c r="B410" s="1">
+      <c r="B410" s="2">
         <f t="shared" si="6"/>
         <v>361.1028</v>
       </c>
@@ -11562,7 +11549,7 @@
       <c r="A411">
         <v>409</v>
       </c>
-      <c r="B411" s="1">
+      <c r="B411" s="2">
         <f t="shared" si="6"/>
         <v>362.61689999999999</v>
       </c>
@@ -11574,7 +11561,7 @@
       <c r="A412">
         <v>410</v>
       </c>
-      <c r="B412" s="1">
+      <c r="B412" s="2">
         <f t="shared" si="6"/>
         <v>364.13099999999997</v>
       </c>
@@ -11586,7 +11573,7 @@
       <c r="A413">
         <v>411</v>
       </c>
-      <c r="B413" s="1">
+      <c r="B413" s="2">
         <f t="shared" si="6"/>
         <v>365.64510000000007</v>
       </c>
@@ -11598,7 +11585,7 @@
       <c r="A414">
         <v>412</v>
       </c>
-      <c r="B414" s="1">
+      <c r="B414" s="2">
         <f t="shared" si="6"/>
         <v>367.15920000000006</v>
       </c>
@@ -11610,7 +11597,7 @@
       <c r="A415">
         <v>413</v>
       </c>
-      <c r="B415" s="1">
+      <c r="B415" s="2">
         <f t="shared" si="6"/>
         <v>368.67330000000004</v>
       </c>
@@ -11622,7 +11609,7 @@
       <c r="A416">
         <v>414</v>
       </c>
-      <c r="B416" s="1">
+      <c r="B416" s="2">
         <f t="shared" si="6"/>
         <v>370.18740000000003</v>
       </c>
@@ -11634,7 +11621,7 @@
       <c r="A417">
         <v>415</v>
       </c>
-      <c r="B417" s="1">
+      <c r="B417" s="2">
         <f t="shared" si="6"/>
         <v>371.70150000000001</v>
       </c>
@@ -11646,7 +11633,7 @@
       <c r="A418">
         <v>416</v>
       </c>
-      <c r="B418" s="1">
+      <c r="B418" s="2">
         <f t="shared" si="6"/>
         <v>373.21559999999999</v>
       </c>
@@ -11658,7 +11645,7 @@
       <c r="A419">
         <v>417</v>
       </c>
-      <c r="B419" s="1">
+      <c r="B419" s="2">
         <f t="shared" si="6"/>
         <v>374.72969999999998</v>
       </c>
@@ -11670,7 +11657,7 @@
       <c r="A420">
         <v>418</v>
       </c>
-      <c r="B420" s="1">
+      <c r="B420" s="2">
         <f t="shared" si="6"/>
         <v>376.24380000000008</v>
       </c>
@@ -11682,7 +11669,7 @@
       <c r="A421">
         <v>419</v>
       </c>
-      <c r="B421" s="1">
+      <c r="B421" s="2">
         <f t="shared" si="6"/>
         <v>377.75790000000006</v>
       </c>
@@ -11694,7 +11681,7 @@
       <c r="A422">
         <v>420</v>
       </c>
-      <c r="B422" s="1">
+      <c r="B422" s="2">
         <f t="shared" si="6"/>
         <v>379.27200000000005</v>
       </c>
@@ -11706,7 +11693,7 @@
       <c r="A423">
         <v>421</v>
       </c>
-      <c r="B423" s="1">
+      <c r="B423" s="2">
         <f t="shared" si="6"/>
         <v>380.78610000000003</v>
       </c>
@@ -11718,7 +11705,7 @@
       <c r="A424">
         <v>422</v>
       </c>
-      <c r="B424" s="1">
+      <c r="B424" s="2">
         <f t="shared" si="6"/>
         <v>382.30020000000002</v>
       </c>
@@ -11730,7 +11717,7 @@
       <c r="A425">
         <v>423</v>
       </c>
-      <c r="B425" s="1">
+      <c r="B425" s="2">
         <f t="shared" si="6"/>
         <v>383.8143</v>
       </c>
@@ -11742,7 +11729,7 @@
       <c r="A426">
         <v>424</v>
       </c>
-      <c r="B426" s="1">
+      <c r="B426" s="2">
         <f t="shared" si="6"/>
         <v>385.32839999999999</v>
       </c>
@@ -11754,7 +11741,7 @@
       <c r="A427">
         <v>425</v>
       </c>
-      <c r="B427" s="1">
+      <c r="B427" s="2">
         <f t="shared" si="6"/>
         <v>386.84249999999997</v>
       </c>
@@ -11766,7 +11753,7 @@
       <c r="A428">
         <v>426</v>
       </c>
-      <c r="B428" s="1">
+      <c r="B428" s="2">
         <f t="shared" si="6"/>
         <v>388.35660000000007</v>
       </c>
@@ -11778,7 +11765,7 @@
       <c r="A429">
         <v>427</v>
       </c>
-      <c r="B429" s="1">
+      <c r="B429" s="2">
         <f t="shared" si="6"/>
         <v>389.87070000000006</v>
       </c>
@@ -11790,7 +11777,7 @@
       <c r="A430">
         <v>428</v>
       </c>
-      <c r="B430" s="1">
+      <c r="B430" s="2">
         <f t="shared" si="6"/>
         <v>391.38480000000004</v>
       </c>
@@ -11802,7 +11789,7 @@
       <c r="A431">
         <v>429</v>
       </c>
-      <c r="B431" s="1">
+      <c r="B431" s="2">
         <f t="shared" si="6"/>
         <v>392.89890000000003</v>
       </c>
@@ -11814,7 +11801,7 @@
       <c r="A432">
         <v>430</v>
       </c>
-      <c r="B432" s="1">
+      <c r="B432" s="2">
         <f t="shared" si="6"/>
         <v>394.41300000000001</v>
       </c>
@@ -11826,7 +11813,7 @@
       <c r="A433">
         <v>431</v>
       </c>
-      <c r="B433" s="1">
+      <c r="B433" s="2">
         <f t="shared" si="6"/>
         <v>395.9271</v>
       </c>
@@ -11838,7 +11825,7 @@
       <c r="A434">
         <v>432</v>
       </c>
-      <c r="B434" s="1">
+      <c r="B434" s="2">
         <f t="shared" si="6"/>
         <v>397.44119999999998</v>
       </c>
@@ -11850,7 +11837,7 @@
       <c r="A435">
         <v>433</v>
       </c>
-      <c r="B435" s="1">
+      <c r="B435" s="2">
         <f t="shared" si="6"/>
         <v>398.95530000000008</v>
       </c>
@@ -11862,7 +11849,7 @@
       <c r="A436">
         <v>434</v>
       </c>
-      <c r="B436" s="1">
+      <c r="B436" s="2">
         <f t="shared" si="6"/>
         <v>400.46940000000006</v>
       </c>
@@ -11874,7 +11861,7 @@
       <c r="A437">
         <v>435</v>
       </c>
-      <c r="B437" s="1">
+      <c r="B437" s="2">
         <f t="shared" si="6"/>
         <v>401.98350000000005</v>
       </c>
@@ -11886,7 +11873,7 @@
       <c r="A438">
         <v>436</v>
       </c>
-      <c r="B438" s="1">
+      <c r="B438" s="2">
         <f t="shared" si="6"/>
         <v>403.49760000000003</v>
       </c>
@@ -11898,7 +11885,7 @@
       <c r="A439">
         <v>437</v>
       </c>
-      <c r="B439" s="1">
+      <c r="B439" s="2">
         <f t="shared" si="6"/>
         <v>405.01170000000002</v>
       </c>
@@ -11910,7 +11897,7 @@
       <c r="A440">
         <v>438</v>
       </c>
-      <c r="B440" s="1">
+      <c r="B440" s="2">
         <f t="shared" si="6"/>
         <v>406.5258</v>
       </c>
@@ -11922,7 +11909,7 @@
       <c r="A441">
         <v>439</v>
       </c>
-      <c r="B441" s="1">
+      <c r="B441" s="2">
         <f t="shared" si="6"/>
         <v>408.03989999999999</v>
       </c>
@@ -11934,7 +11921,7 @@
       <c r="A442">
         <v>440</v>
       </c>
-      <c r="B442" s="1">
+      <c r="B442" s="2">
         <f t="shared" si="6"/>
         <v>409.55399999999997</v>
       </c>
@@ -11946,7 +11933,7 @@
       <c r="A443">
         <v>441</v>
       </c>
-      <c r="B443" s="1">
+      <c r="B443" s="2">
         <f t="shared" si="6"/>
         <v>411.06810000000007</v>
       </c>
@@ -11958,7 +11945,7 @@
       <c r="A444">
         <v>442</v>
       </c>
-      <c r="B444" s="1">
+      <c r="B444" s="2">
         <f t="shared" si="6"/>
         <v>412.58220000000006</v>
       </c>
@@ -11970,7 +11957,7 @@
       <c r="A445">
         <v>443</v>
       </c>
-      <c r="B445" s="1">
+      <c r="B445" s="2">
         <f t="shared" si="6"/>
         <v>414.09630000000004</v>
       </c>
@@ -11982,7 +11969,7 @@
       <c r="A446">
         <v>444</v>
       </c>
-      <c r="B446" s="1">
+      <c r="B446" s="2">
         <f t="shared" si="6"/>
         <v>415.61040000000003</v>
       </c>
@@ -11994,7 +11981,7 @@
       <c r="A447">
         <v>445</v>
       </c>
-      <c r="B447" s="1">
+      <c r="B447" s="2">
         <f t="shared" si="6"/>
         <v>417.12450000000001</v>
       </c>
@@ -12006,7 +11993,7 @@
       <c r="A448">
         <v>446</v>
       </c>
-      <c r="B448" s="1">
+      <c r="B448" s="2">
         <f t="shared" si="6"/>
         <v>418.6386</v>
       </c>
@@ -12018,7 +12005,7 @@
       <c r="A449">
         <v>447</v>
       </c>
-      <c r="B449" s="1">
+      <c r="B449" s="2">
         <f t="shared" si="6"/>
         <v>420.15269999999998</v>
       </c>
@@ -12030,7 +12017,7 @@
       <c r="A450">
         <v>448</v>
       </c>
-      <c r="B450" s="1">
+      <c r="B450" s="2">
         <f t="shared" si="6"/>
         <v>421.66680000000008</v>
       </c>
@@ -12042,7 +12029,7 @@
       <c r="A451">
         <v>449</v>
       </c>
-      <c r="B451" s="1">
+      <c r="B451" s="2">
         <f t="shared" ref="B451:B502" si="7">_xlfn.IFS(A451&lt;=50,0.2401*A451-0.0023,AND(A451&gt;50,A451&lt;=100),0.4742*A451-12.042,AND(A451&gt;100,A451&lt;=150),0.4065*A451-5.5714,AND(A451&gt;150,A451&lt;=200),1.9368*A451-236.97,AND(A451&gt;200,A451&lt;=400),1.0023*A451-50.737,AND(A451&gt;400,A451&lt;=500),1.5141*A451-256.65)</f>
         <v>423.18090000000007</v>
       </c>
@@ -12054,7 +12041,7 @@
       <c r="A452">
         <v>450</v>
       </c>
-      <c r="B452" s="1">
+      <c r="B452" s="2">
         <f t="shared" si="7"/>
         <v>424.69500000000005</v>
       </c>
@@ -12066,7 +12053,7 @@
       <c r="A453">
         <v>451</v>
       </c>
-      <c r="B453" s="1">
+      <c r="B453" s="2">
         <f t="shared" si="7"/>
         <v>426.20910000000003</v>
       </c>
@@ -12078,7 +12065,7 @@
       <c r="A454">
         <v>452</v>
       </c>
-      <c r="B454" s="1">
+      <c r="B454" s="2">
         <f t="shared" si="7"/>
         <v>427.72320000000002</v>
       </c>
@@ -12090,7 +12077,7 @@
       <c r="A455">
         <v>453</v>
       </c>
-      <c r="B455" s="1">
+      <c r="B455" s="2">
         <f t="shared" si="7"/>
         <v>429.2373</v>
       </c>
@@ -12102,7 +12089,7 @@
       <c r="A456">
         <v>454</v>
       </c>
-      <c r="B456" s="1">
+      <c r="B456" s="2">
         <f t="shared" si="7"/>
         <v>430.75139999999999</v>
       </c>
@@ -12114,7 +12101,7 @@
       <c r="A457">
         <v>455</v>
       </c>
-      <c r="B457" s="1">
+      <c r="B457" s="2">
         <f t="shared" si="7"/>
         <v>432.26549999999997</v>
       </c>
@@ -12126,7 +12113,7 @@
       <c r="A458">
         <v>456</v>
       </c>
-      <c r="B458" s="1">
+      <c r="B458" s="2">
         <f t="shared" si="7"/>
         <v>433.77960000000007</v>
       </c>
@@ -12138,7 +12125,7 @@
       <c r="A459">
         <v>457</v>
       </c>
-      <c r="B459" s="1">
+      <c r="B459" s="2">
         <f t="shared" si="7"/>
         <v>435.29370000000006</v>
       </c>
@@ -12150,7 +12137,7 @@
       <c r="A460">
         <v>458</v>
       </c>
-      <c r="B460" s="1">
+      <c r="B460" s="2">
         <f t="shared" si="7"/>
         <v>436.80780000000004</v>
       </c>
@@ -12162,7 +12149,7 @@
       <c r="A461">
         <v>459</v>
       </c>
-      <c r="B461" s="1">
+      <c r="B461" s="2">
         <f t="shared" si="7"/>
         <v>438.32190000000003</v>
       </c>
@@ -12174,7 +12161,7 @@
       <c r="A462">
         <v>460</v>
       </c>
-      <c r="B462" s="1">
+      <c r="B462" s="2">
         <f t="shared" si="7"/>
         <v>439.83600000000001</v>
       </c>
@@ -12186,7 +12173,7 @@
       <c r="A463">
         <v>461</v>
       </c>
-      <c r="B463" s="1">
+      <c r="B463" s="2">
         <f t="shared" si="7"/>
         <v>441.3501</v>
       </c>
@@ -12198,7 +12185,7 @@
       <c r="A464">
         <v>462</v>
       </c>
-      <c r="B464" s="1">
+      <c r="B464" s="2">
         <f t="shared" si="7"/>
         <v>442.86419999999998</v>
       </c>
@@ -12210,7 +12197,7 @@
       <c r="A465">
         <v>463</v>
       </c>
-      <c r="B465" s="1">
+      <c r="B465" s="2">
         <f t="shared" si="7"/>
         <v>444.37829999999997</v>
       </c>
@@ -12222,7 +12209,7 @@
       <c r="A466">
         <v>464</v>
       </c>
-      <c r="B466" s="1">
+      <c r="B466" s="2">
         <f t="shared" si="7"/>
         <v>445.89240000000007</v>
       </c>
@@ -12234,7 +12221,7 @@
       <c r="A467">
         <v>465</v>
       </c>
-      <c r="B467" s="1">
+      <c r="B467" s="2">
         <f t="shared" si="7"/>
         <v>447.40650000000005</v>
       </c>
@@ -12246,7 +12233,7 @@
       <c r="A468">
         <v>466</v>
       </c>
-      <c r="B468" s="1">
+      <c r="B468" s="2">
         <f t="shared" si="7"/>
         <v>448.92060000000004</v>
       </c>
@@ -12258,7 +12245,7 @@
       <c r="A469">
         <v>467</v>
       </c>
-      <c r="B469" s="1">
+      <c r="B469" s="2">
         <f t="shared" si="7"/>
         <v>450.43470000000002</v>
       </c>
@@ -12270,7 +12257,7 @@
       <c r="A470">
         <v>468</v>
       </c>
-      <c r="B470" s="1">
+      <c r="B470" s="2">
         <f t="shared" si="7"/>
         <v>451.94880000000001</v>
       </c>
@@ -12282,7 +12269,7 @@
       <c r="A471">
         <v>469</v>
       </c>
-      <c r="B471" s="1">
+      <c r="B471" s="2">
         <f t="shared" si="7"/>
         <v>453.46289999999999</v>
       </c>
@@ -12294,7 +12281,7 @@
       <c r="A472">
         <v>470</v>
       </c>
-      <c r="B472" s="1">
+      <c r="B472" s="2">
         <f t="shared" si="7"/>
         <v>454.97699999999998</v>
       </c>
@@ -12306,7 +12293,7 @@
       <c r="A473">
         <v>471</v>
       </c>
-      <c r="B473" s="1">
+      <c r="B473" s="2">
         <f t="shared" si="7"/>
         <v>456.49110000000007</v>
       </c>
@@ -12318,7 +12305,7 @@
       <c r="A474">
         <v>472</v>
       </c>
-      <c r="B474" s="1">
+      <c r="B474" s="2">
         <f t="shared" si="7"/>
         <v>458.00520000000006</v>
       </c>
@@ -12330,7 +12317,7 @@
       <c r="A475">
         <v>473</v>
       </c>
-      <c r="B475" s="1">
+      <c r="B475" s="2">
         <f t="shared" si="7"/>
         <v>459.51930000000004</v>
       </c>
@@ -12342,7 +12329,7 @@
       <c r="A476">
         <v>474</v>
       </c>
-      <c r="B476" s="1">
+      <c r="B476" s="2">
         <f t="shared" si="7"/>
         <v>461.03340000000003</v>
       </c>
@@ -12354,7 +12341,7 @@
       <c r="A477">
         <v>475</v>
       </c>
-      <c r="B477" s="1">
+      <c r="B477" s="2">
         <f t="shared" si="7"/>
         <v>462.54750000000001</v>
       </c>
@@ -12366,7 +12353,7 @@
       <c r="A478">
         <v>476</v>
       </c>
-      <c r="B478" s="1">
+      <c r="B478" s="2">
         <f t="shared" si="7"/>
         <v>464.0616</v>
       </c>
@@ -12378,7 +12365,7 @@
       <c r="A479">
         <v>477</v>
       </c>
-      <c r="B479" s="1">
+      <c r="B479" s="2">
         <f t="shared" si="7"/>
         <v>465.57569999999998</v>
       </c>
@@ -12390,7 +12377,7 @@
       <c r="A480">
         <v>478</v>
       </c>
-      <c r="B480" s="1">
+      <c r="B480" s="2">
         <f t="shared" si="7"/>
         <v>467.08979999999997</v>
       </c>
@@ -12402,7 +12389,7 @@
       <c r="A481">
         <v>479</v>
       </c>
-      <c r="B481" s="1">
+      <c r="B481" s="2">
         <f t="shared" si="7"/>
         <v>468.60390000000007</v>
       </c>
@@ -12414,7 +12401,7 @@
       <c r="A482">
         <v>480</v>
       </c>
-      <c r="B482" s="1">
+      <c r="B482" s="2">
         <f t="shared" si="7"/>
         <v>470.11800000000005</v>
       </c>
@@ -12426,7 +12413,7 @@
       <c r="A483">
         <v>481</v>
       </c>
-      <c r="B483" s="1">
+      <c r="B483" s="2">
         <f t="shared" si="7"/>
         <v>471.63210000000004</v>
       </c>
@@ -12438,7 +12425,7 @@
       <c r="A484">
         <v>482</v>
       </c>
-      <c r="B484" s="1">
+      <c r="B484" s="2">
         <f t="shared" si="7"/>
         <v>473.14620000000002</v>
       </c>
@@ -12450,7 +12437,7 @@
       <c r="A485">
         <v>483</v>
       </c>
-      <c r="B485" s="1">
+      <c r="B485" s="2">
         <f t="shared" si="7"/>
         <v>474.66030000000001</v>
       </c>
@@ -12462,7 +12449,7 @@
       <c r="A486">
         <v>484</v>
       </c>
-      <c r="B486" s="1">
+      <c r="B486" s="2">
         <f t="shared" si="7"/>
         <v>476.17439999999999</v>
       </c>
@@ -12474,7 +12461,7 @@
       <c r="A487">
         <v>485</v>
       </c>
-      <c r="B487" s="1">
+      <c r="B487" s="2">
         <f t="shared" si="7"/>
         <v>477.68849999999998</v>
       </c>
@@ -12486,7 +12473,7 @@
       <c r="A488">
         <v>486</v>
       </c>
-      <c r="B488" s="1">
+      <c r="B488" s="2">
         <f t="shared" si="7"/>
         <v>479.20260000000007</v>
       </c>
@@ -12498,7 +12485,7 @@
       <c r="A489">
         <v>487</v>
       </c>
-      <c r="B489" s="1">
+      <c r="B489" s="2">
         <f t="shared" si="7"/>
         <v>480.71670000000006</v>
       </c>
@@ -12510,7 +12497,7 @@
       <c r="A490">
         <v>488</v>
       </c>
-      <c r="B490" s="1">
+      <c r="B490" s="2">
         <f t="shared" si="7"/>
         <v>482.23080000000004</v>
       </c>
@@ -12522,7 +12509,7 @@
       <c r="A491">
         <v>489</v>
       </c>
-      <c r="B491" s="1">
+      <c r="B491" s="2">
         <f t="shared" si="7"/>
         <v>483.74490000000003</v>
       </c>
@@ -12534,7 +12521,7 @@
       <c r="A492">
         <v>490</v>
       </c>
-      <c r="B492" s="1">
+      <c r="B492" s="2">
         <f t="shared" si="7"/>
         <v>485.25900000000001</v>
       </c>
@@ -12546,7 +12533,7 @@
       <c r="A493">
         <v>491</v>
       </c>
-      <c r="B493" s="1">
+      <c r="B493" s="2">
         <f t="shared" si="7"/>
         <v>486.7731</v>
       </c>
@@ -12558,7 +12545,7 @@
       <c r="A494">
         <v>492</v>
       </c>
-      <c r="B494" s="1">
+      <c r="B494" s="2">
         <f t="shared" si="7"/>
         <v>488.28719999999998</v>
       </c>
@@ -12570,7 +12557,7 @@
       <c r="A495">
         <v>493</v>
       </c>
-      <c r="B495" s="1">
+      <c r="B495" s="2">
         <f t="shared" si="7"/>
         <v>489.80129999999997</v>
       </c>
@@ -12582,7 +12569,7 @@
       <c r="A496">
         <v>494</v>
       </c>
-      <c r="B496" s="1">
+      <c r="B496" s="2">
         <f t="shared" si="7"/>
         <v>491.31540000000007</v>
       </c>
@@ -12594,7 +12581,7 @@
       <c r="A497">
         <v>495</v>
       </c>
-      <c r="B497" s="1">
+      <c r="B497" s="2">
         <f t="shared" si="7"/>
         <v>492.82950000000005</v>
       </c>
@@ -12606,7 +12593,7 @@
       <c r="A498">
         <v>496</v>
       </c>
-      <c r="B498" s="1">
+      <c r="B498" s="2">
         <f t="shared" si="7"/>
         <v>494.34360000000004</v>
       </c>
@@ -12618,7 +12605,7 @@
       <c r="A499">
         <v>497</v>
       </c>
-      <c r="B499" s="1">
+      <c r="B499" s="2">
         <f t="shared" si="7"/>
         <v>495.85770000000002</v>
       </c>
@@ -12630,7 +12617,7 @@
       <c r="A500">
         <v>498</v>
       </c>
-      <c r="B500" s="1">
+      <c r="B500" s="2">
         <f t="shared" si="7"/>
         <v>497.37180000000001</v>
       </c>
@@ -12642,7 +12629,7 @@
       <c r="A501">
         <v>499</v>
       </c>
-      <c r="B501" s="1">
+      <c r="B501" s="2">
         <f t="shared" si="7"/>
         <v>498.88589999999999</v>
       </c>
@@ -12654,7 +12641,7 @@
       <c r="A502">
         <v>500</v>
       </c>
-      <c r="B502" s="1">
+      <c r="B502" s="2">
         <f t="shared" si="7"/>
         <v>500.4</v>
       </c>
@@ -12669,10 +12656,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE1A2EAF-D479-485D-97A9-FA69655BC991}">
-  <dimension ref="A1:J21"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F16" sqref="F16:G16"/>
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -12682,21 +12669,21 @@
     <col min="7" max="7" width="41.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>23</v>
+        <v>73</v>
       </c>
       <c r="B1" t="s">
         <v>22</v>
       </c>
       <c r="C1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F1" t="s">
         <v>21</v>
@@ -12708,7 +12695,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>18</v>
       </c>
@@ -12725,7 +12712,7 @@
         <f>C2/D2</f>
         <v>4.083333333333333</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="1" t="s">
         <v>16</v>
       </c>
       <c r="G2" t="s">
@@ -12734,14 +12721,10 @@
       <c r="H2">
         <v>0.99</v>
       </c>
-      <c r="J2" t="e">
-        <f>_xlfn.IFS(A2&lt;=50,0.2401*A2-0.0023,AND(A2&gt;50,A2&lt;=100),0.4742*A2-12.042,AND(A2&gt;100,A2&lt;=150),0.4065*A2-5.5714,AND(A2&gt;150,A2&lt;=200),1.9368*A2-236.97,AND(A2&gt;200,A2&lt;=400),1.0023*A2-50.737,AND(A2&gt;400,A2&lt;=500),1.5141*A2-256.65)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B3" t="s">
         <v>14</v>
@@ -12757,7 +12740,7 @@
         <f t="shared" ref="E3:E8" si="0">C3/D3</f>
         <v>2.1030042918454939</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="1" t="s">
         <v>13</v>
       </c>
       <c r="G3" t="s">
@@ -12767,9 +12750,9 @@
         <v>0.99</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B4" t="s">
         <v>11</v>
@@ -12785,7 +12768,7 @@
         <f t="shared" si="0"/>
         <v>2.4623115577889449</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="F4" s="1" t="s">
         <v>10</v>
       </c>
       <c r="G4" t="s">
@@ -12795,9 +12778,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B5" t="s">
         <v>8</v>
@@ -12813,7 +12796,7 @@
         <f t="shared" si="0"/>
         <v>0.51633298208640677</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="F5" s="1" t="s">
         <v>7</v>
       </c>
       <c r="G5" t="s">
@@ -12823,12 +12806,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C6">
         <v>99</v>
@@ -12841,8 +12824,8 @@
         <f t="shared" si="0"/>
         <v>0.99099099099099097</v>
       </c>
-      <c r="F6" s="2" t="s">
-        <v>69</v>
+      <c r="F6" s="1" t="s">
+        <v>67</v>
       </c>
       <c r="G6" t="s">
         <v>5</v>
@@ -12851,12 +12834,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C7">
         <v>99</v>
@@ -12869,13 +12852,13 @@
         <f t="shared" si="0"/>
         <v>0.99099099099099119</v>
       </c>
-      <c r="F7" s="2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="F7" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B8" t="s">
         <v>4</v>
@@ -12891,7 +12874,7 @@
         <f t="shared" si="0"/>
         <v>0.66044029352901945</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="F8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="G8" t="s">
@@ -12901,7 +12884,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
         <v>1</v>
       </c>
@@ -12909,7 +12892,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B12">
         <v>500</v>
       </c>
@@ -12917,12 +12900,12 @@
         <v>500.4</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>30</v>
+        <v>73</v>
       </c>
       <c r="F14" t="s">
         <v>21</v>
@@ -12931,102 +12914,102 @@
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B15" t="s">
+        <v>28</v>
+      </c>
+      <c r="F15" t="s">
         <v>29</v>
       </c>
-      <c r="F15" t="s">
-        <v>31</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="G15" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B16" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F16" t="s">
-        <v>32</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>39</v>
+        <v>30</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B17" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F17" t="s">
-        <v>33</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>40</v>
+        <v>31</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B18" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F18" t="s">
-        <v>34</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>41</v>
+        <v>32</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B19" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F19" t="s">
-        <v>35</v>
-      </c>
-      <c r="G19" s="2" t="s">
-        <v>42</v>
+        <v>33</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B20" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F20" t="s">
-        <v>36</v>
-      </c>
-      <c r="G20" s="2" t="s">
-        <v>43</v>
+        <v>34</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B21" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F21" t="s">
-        <v>37</v>
-      </c>
-      <c r="G21" s="2" t="s">
-        <v>44</v>
+        <v>35</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -13038,8 +13021,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D153E0F-50DE-E14C-9573-9C9A2030B973}">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -13050,27 +13033,27 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B1" t="s">
         <v>71</v>
-      </c>
-      <c r="B1" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>200</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2" s="2">
         <f>ROUNDUP(IF(A2&lt;=35,(50-0)*(A2-0)/(35-0)+0,IF(A2&lt;=75,(100-50)*(A2-35)/(75-35)+50,IF(A2&lt;=115,(150-100)*(A2-75)/(115-75)+100,IF(A2&lt;=150,(200-150)*(A2-115)/(150-115)+150,IF(A2&lt;=250,(300-200)*(A2-150)/(250-150)+200))))),A2)</f>
         <v>250</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B5" t="s">
         <v>72</v>
-      </c>
-      <c r="B5" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
